--- a/data/municipal_elections/raw/brandenburg/brandenburg_1998.xlsx
+++ b/data/municipal_elections/raw/brandenburg/brandenburg_1998.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flosic/Documents/GitHub/german_election_data/data/municipal_elections/raw/brandenburg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D5648B-9BB8-7444-804C-4E9300640F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE001E7-7C11-C747-93FF-9FEACD08AC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13520" yWindow="-25020" windowWidth="68800" windowHeight="27360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16680" yWindow="-27360" windowWidth="68800" windowHeight="27360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnis" sheetId="1" r:id="rId1"/>
@@ -4446,9 +4446,6 @@
     <t>120 70 324</t>
   </si>
   <si>
-    <t>120 70 323</t>
-  </si>
-  <si>
     <t>120 70 332</t>
   </si>
   <si>
@@ -8740,6 +8737,9 @@
   </si>
   <si>
     <t>120 71 168</t>
+  </si>
+  <si>
+    <t>120 70 328</t>
   </si>
 </sst>
 </file>
@@ -8943,10 +8943,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9229,8 +9229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BDS30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ASZ1" zoomScale="190" workbookViewId="0">
-      <selection activeCell="ATO3" sqref="ATO3"/>
+    <sheetView tabSelected="1" topLeftCell="AUF1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="AUM14" sqref="AUM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11556,7 +11556,7 @@
     </row>
     <row r="2" spans="1:1475" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>34</v>
@@ -11805,7 +11805,7 @@
         <v>115</v>
       </c>
       <c r="CF2" s="10" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="CG2" s="10" t="s">
         <v>116</v>
@@ -12910,7 +12910,7 @@
         <v>918</v>
       </c>
       <c r="QK2" s="11" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="QL2" s="11" t="s">
         <v>919</v>
@@ -13072,61 +13072,61 @@
         <v>971</v>
       </c>
       <c r="SM2" s="11" t="s">
+        <v>2706</v>
+      </c>
+      <c r="SN2" s="11" t="s">
         <v>2707</v>
       </c>
-      <c r="SN2" s="11" t="s">
+      <c r="SO2" s="11" t="s">
         <v>2708</v>
       </c>
-      <c r="SO2" s="11" t="s">
+      <c r="SP2" s="11" t="s">
         <v>2709</v>
       </c>
-      <c r="SP2" s="11" t="s">
+      <c r="SQ2" s="11" t="s">
         <v>2710</v>
       </c>
-      <c r="SQ2" s="11" t="s">
+      <c r="SR2" s="11" t="s">
         <v>2711</v>
       </c>
-      <c r="SR2" s="11" t="s">
+      <c r="SS2" s="11" t="s">
         <v>2712</v>
       </c>
-      <c r="SS2" s="11" t="s">
+      <c r="ST2" s="11" t="s">
         <v>2713</v>
       </c>
-      <c r="ST2" s="11" t="s">
+      <c r="SU2" s="11" t="s">
         <v>2714</v>
       </c>
-      <c r="SU2" s="11" t="s">
+      <c r="SV2" s="11" t="s">
         <v>2715</v>
       </c>
-      <c r="SV2" s="11" t="s">
+      <c r="SW2" s="11" t="s">
         <v>2716</v>
       </c>
-      <c r="SW2" s="11" t="s">
+      <c r="SX2" s="11" t="s">
         <v>2717</v>
       </c>
-      <c r="SX2" s="11" t="s">
+      <c r="SY2" s="11" t="s">
         <v>2718</v>
       </c>
-      <c r="SY2" s="11" t="s">
+      <c r="SZ2" s="11" t="s">
         <v>2719</v>
       </c>
-      <c r="SZ2" s="11" t="s">
+      <c r="TA2" s="11" t="s">
         <v>2720</v>
       </c>
-      <c r="TA2" s="11" t="s">
+      <c r="TB2" s="11" t="s">
         <v>2721</v>
       </c>
-      <c r="TB2" s="11" t="s">
+      <c r="TC2" s="11" t="s">
         <v>2722</v>
       </c>
-      <c r="TC2" s="11" t="s">
+      <c r="TD2" s="11" t="s">
         <v>2723</v>
       </c>
-      <c r="TD2" s="11" t="s">
+      <c r="TE2" s="11" t="s">
         <v>2724</v>
-      </c>
-      <c r="TE2" s="11" t="s">
-        <v>2725</v>
       </c>
       <c r="TF2" s="11" t="s">
         <v>972</v>
@@ -13288,73 +13288,73 @@
         <v>1024</v>
       </c>
       <c r="VG2" s="11" t="s">
+        <v>2725</v>
+      </c>
+      <c r="VH2" s="11" t="s">
         <v>2726</v>
       </c>
-      <c r="VH2" s="11" t="s">
+      <c r="VI2" s="11" t="s">
         <v>2727</v>
       </c>
-      <c r="VI2" s="11" t="s">
+      <c r="VJ2" s="11" t="s">
         <v>2728</v>
       </c>
-      <c r="VJ2" s="11" t="s">
+      <c r="VK2" s="11" t="s">
         <v>2729</v>
       </c>
-      <c r="VK2" s="11" t="s">
+      <c r="VL2" s="11" t="s">
         <v>2730</v>
       </c>
-      <c r="VL2" s="11" t="s">
+      <c r="VM2" s="11" t="s">
         <v>2731</v>
       </c>
-      <c r="VM2" s="11" t="s">
+      <c r="VN2" s="11" t="s">
         <v>2732</v>
       </c>
-      <c r="VN2" s="11" t="s">
+      <c r="VO2" s="11" t="s">
         <v>2733</v>
       </c>
-      <c r="VO2" s="11" t="s">
+      <c r="VP2" s="11" t="s">
         <v>2734</v>
       </c>
-      <c r="VP2" s="11" t="s">
+      <c r="VQ2" s="11" t="s">
         <v>2735</v>
       </c>
-      <c r="VQ2" s="11" t="s">
+      <c r="VR2" s="11" t="s">
         <v>2736</v>
       </c>
-      <c r="VR2" s="11" t="s">
+      <c r="VS2" s="11" t="s">
         <v>2737</v>
       </c>
-      <c r="VS2" s="11" t="s">
+      <c r="VT2" s="11" t="s">
         <v>2738</v>
       </c>
-      <c r="VT2" s="11" t="s">
+      <c r="VU2" s="11" t="s">
         <v>2739</v>
       </c>
-      <c r="VU2" s="11" t="s">
+      <c r="VV2" s="11" t="s">
         <v>2740</v>
       </c>
-      <c r="VV2" s="11" t="s">
+      <c r="VW2" s="11" t="s">
         <v>2741</v>
       </c>
-      <c r="VW2" s="11" t="s">
+      <c r="VX2" s="11" t="s">
         <v>2742</v>
       </c>
-      <c r="VX2" s="11" t="s">
+      <c r="VY2" s="11" t="s">
         <v>2743</v>
       </c>
-      <c r="VY2" s="11" t="s">
+      <c r="VZ2" s="11" t="s">
         <v>2744</v>
       </c>
-      <c r="VZ2" s="11" t="s">
+      <c r="WA2" s="11" t="s">
         <v>2745</v>
       </c>
-      <c r="WA2" s="11" t="s">
+      <c r="WB2" s="11" t="s">
         <v>2746</v>
       </c>
-      <c r="WB2" s="11" t="s">
+      <c r="WC2" s="11" t="s">
         <v>2747</v>
-      </c>
-      <c r="WC2" s="11" t="s">
-        <v>2748</v>
       </c>
       <c r="WD2" s="11" t="s">
         <v>1025</v>
@@ -13528,79 +13528,79 @@
         <v>1081</v>
       </c>
       <c r="YI2" s="11" t="s">
+        <v>2748</v>
+      </c>
+      <c r="YJ2" s="11" t="s">
         <v>2749</v>
       </c>
-      <c r="YJ2" s="11" t="s">
+      <c r="YK2" s="11" t="s">
         <v>2750</v>
       </c>
-      <c r="YK2" s="11" t="s">
+      <c r="YL2" s="11" t="s">
         <v>2751</v>
       </c>
-      <c r="YL2" s="11" t="s">
+      <c r="YM2" s="11" t="s">
         <v>2752</v>
       </c>
-      <c r="YM2" s="11" t="s">
+      <c r="YN2" s="11" t="s">
         <v>2753</v>
       </c>
-      <c r="YN2" s="11" t="s">
+      <c r="YO2" s="11" t="s">
         <v>2754</v>
       </c>
-      <c r="YO2" s="11" t="s">
+      <c r="YP2" s="11" t="s">
         <v>2755</v>
       </c>
-      <c r="YP2" s="11" t="s">
+      <c r="YQ2" s="11" t="s">
         <v>2756</v>
       </c>
-      <c r="YQ2" s="11" t="s">
+      <c r="YR2" s="11" t="s">
         <v>2757</v>
       </c>
-      <c r="YR2" s="11" t="s">
+      <c r="YS2" s="11" t="s">
         <v>2758</v>
       </c>
-      <c r="YS2" s="11" t="s">
+      <c r="YT2" s="11" t="s">
         <v>2759</v>
       </c>
-      <c r="YT2" s="11" t="s">
+      <c r="YU2" s="11" t="s">
         <v>2760</v>
       </c>
-      <c r="YU2" s="11" t="s">
+      <c r="YV2" s="11" t="s">
         <v>2761</v>
       </c>
-      <c r="YV2" s="11" t="s">
+      <c r="YW2" s="11" t="s">
         <v>2762</v>
       </c>
-      <c r="YW2" s="11" t="s">
+      <c r="YX2" s="11" t="s">
         <v>2763</v>
       </c>
-      <c r="YX2" s="11" t="s">
+      <c r="YY2" s="11" t="s">
         <v>2764</v>
       </c>
-      <c r="YY2" s="11" t="s">
+      <c r="YZ2" s="11" t="s">
         <v>2765</v>
       </c>
-      <c r="YZ2" s="11" t="s">
+      <c r="ZA2" s="11" t="s">
         <v>2766</v>
       </c>
-      <c r="ZA2" s="11" t="s">
+      <c r="ZB2" s="11" t="s">
         <v>2767</v>
       </c>
-      <c r="ZB2" s="11" t="s">
+      <c r="ZC2" s="11" t="s">
         <v>2768</v>
       </c>
-      <c r="ZC2" s="11" t="s">
+      <c r="ZD2" s="11" t="s">
         <v>2769</v>
       </c>
-      <c r="ZD2" s="11" t="s">
+      <c r="ZE2" s="11" t="s">
         <v>2770</v>
       </c>
-      <c r="ZE2" s="11" t="s">
+      <c r="ZF2" s="11" t="s">
         <v>2771</v>
       </c>
-      <c r="ZF2" s="11" t="s">
+      <c r="ZG2" s="11" t="s">
         <v>2772</v>
-      </c>
-      <c r="ZG2" s="11" t="s">
-        <v>2773</v>
       </c>
       <c r="ZH2" s="11" t="s">
         <v>1082</v>
@@ -13927,61 +13927,61 @@
         <v>1189</v>
       </c>
       <c r="ADL2" s="11" t="s">
+        <v>2773</v>
+      </c>
+      <c r="ADM2" s="11" t="s">
         <v>2774</v>
       </c>
-      <c r="ADM2" s="11" t="s">
+      <c r="ADN2" s="11" t="s">
         <v>2775</v>
       </c>
-      <c r="ADN2" s="11" t="s">
+      <c r="ADO2" s="11" t="s">
         <v>2776</v>
       </c>
-      <c r="ADO2" s="11" t="s">
+      <c r="ADP2" s="11" t="s">
         <v>2777</v>
       </c>
-      <c r="ADP2" s="11" t="s">
+      <c r="ADQ2" s="11" t="s">
         <v>2778</v>
       </c>
-      <c r="ADQ2" s="11" t="s">
+      <c r="ADR2" s="11" t="s">
         <v>2779</v>
       </c>
-      <c r="ADR2" s="11" t="s">
+      <c r="ADS2" s="11" t="s">
         <v>2780</v>
       </c>
-      <c r="ADS2" s="11" t="s">
+      <c r="ADT2" s="11" t="s">
         <v>2781</v>
       </c>
-      <c r="ADT2" s="11" t="s">
+      <c r="ADU2" s="11" t="s">
         <v>2782</v>
       </c>
-      <c r="ADU2" s="11" t="s">
+      <c r="ADV2" s="11" t="s">
         <v>2783</v>
       </c>
-      <c r="ADV2" s="11" t="s">
+      <c r="ADW2" s="11" t="s">
         <v>2784</v>
       </c>
-      <c r="ADW2" s="11" t="s">
+      <c r="ADX2" s="11" t="s">
         <v>2785</v>
       </c>
-      <c r="ADX2" s="11" t="s">
+      <c r="ADY2" s="11" t="s">
         <v>2786</v>
       </c>
-      <c r="ADY2" s="11" t="s">
+      <c r="ADZ2" s="11" t="s">
         <v>2787</v>
       </c>
-      <c r="ADZ2" s="11" t="s">
+      <c r="AEA2" s="11" t="s">
         <v>2788</v>
       </c>
-      <c r="AEA2" s="11" t="s">
+      <c r="AEB2" s="11" t="s">
         <v>2789</v>
       </c>
-      <c r="AEB2" s="11" t="s">
+      <c r="AEC2" s="11" t="s">
         <v>2790</v>
       </c>
-      <c r="AEC2" s="11" t="s">
+      <c r="AED2" s="11" t="s">
         <v>2791</v>
-      </c>
-      <c r="AED2" s="11" t="s">
-        <v>2792</v>
       </c>
       <c r="AEE2" s="11" t="s">
         <v>1190</v>
@@ -14236,79 +14236,79 @@
         <v>1273</v>
       </c>
       <c r="AHK2" s="11" t="s">
+        <v>2792</v>
+      </c>
+      <c r="AHL2" s="11" t="s">
         <v>2793</v>
       </c>
-      <c r="AHL2" s="11" t="s">
+      <c r="AHM2" s="11" t="s">
         <v>2794</v>
       </c>
-      <c r="AHM2" s="11" t="s">
+      <c r="AHN2" s="11" t="s">
         <v>2795</v>
       </c>
-      <c r="AHN2" s="11" t="s">
+      <c r="AHO2" s="11" t="s">
         <v>2796</v>
       </c>
-      <c r="AHO2" s="11" t="s">
+      <c r="AHP2" s="11" t="s">
+        <v>2900</v>
+      </c>
+      <c r="AHQ2" s="11" t="s">
         <v>2797</v>
       </c>
-      <c r="AHP2" s="11" t="s">
+      <c r="AHR2" s="11" t="s">
+        <v>2798</v>
+      </c>
+      <c r="AHS2" s="11" t="s">
+        <v>2799</v>
+      </c>
+      <c r="AHT2" s="11" t="s">
+        <v>2800</v>
+      </c>
+      <c r="AHU2" s="11" t="s">
+        <v>2801</v>
+      </c>
+      <c r="AHV2" s="11" t="s">
+        <v>2802</v>
+      </c>
+      <c r="AHW2" s="11" t="s">
+        <v>2803</v>
+      </c>
+      <c r="AHX2" s="11" t="s">
+        <v>2804</v>
+      </c>
+      <c r="AHY2" s="11" t="s">
+        <v>2805</v>
+      </c>
+      <c r="AHZ2" s="11" t="s">
+        <v>2806</v>
+      </c>
+      <c r="AIA2" s="11" t="s">
+        <v>2807</v>
+      </c>
+      <c r="AIB2" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="AIC2" s="11" t="s">
+        <v>2809</v>
+      </c>
+      <c r="AID2" s="11" t="s">
         <v>2901</v>
       </c>
-      <c r="AHQ2" s="11" t="s">
-        <v>2798</v>
-      </c>
-      <c r="AHR2" s="11" t="s">
-        <v>2799</v>
-      </c>
-      <c r="AHS2" s="11" t="s">
-        <v>2800</v>
-      </c>
-      <c r="AHT2" s="11" t="s">
-        <v>2801</v>
-      </c>
-      <c r="AHU2" s="11" t="s">
-        <v>2802</v>
-      </c>
-      <c r="AHV2" s="11" t="s">
-        <v>2803</v>
-      </c>
-      <c r="AHW2" s="11" t="s">
-        <v>2804</v>
-      </c>
-      <c r="AHX2" s="11" t="s">
-        <v>2805</v>
-      </c>
-      <c r="AHY2" s="11" t="s">
-        <v>2806</v>
-      </c>
-      <c r="AHZ2" s="11" t="s">
-        <v>2807</v>
-      </c>
-      <c r="AIA2" s="11" t="s">
-        <v>2808</v>
-      </c>
-      <c r="AIB2" s="11" t="s">
-        <v>2809</v>
-      </c>
-      <c r="AIC2" s="11" t="s">
+      <c r="AIE2" s="11" t="s">
         <v>2810</v>
       </c>
-      <c r="AID2" s="11" t="s">
-        <v>2902</v>
-      </c>
-      <c r="AIE2" s="11" t="s">
+      <c r="AIF2" s="11" t="s">
+        <v>2898</v>
+      </c>
+      <c r="AIG2" s="11" t="s">
         <v>2811</v>
       </c>
-      <c r="AIF2" s="11" t="s">
-        <v>2899</v>
-      </c>
-      <c r="AIG2" s="11" t="s">
+      <c r="AIH2" s="11" t="s">
         <v>2812</v>
       </c>
-      <c r="AIH2" s="11" t="s">
-        <v>2813</v>
-      </c>
       <c r="AII2" s="11" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="AIJ2" s="11" t="s">
         <v>1274</v>
@@ -14749,73 +14749,73 @@
         <v>1419</v>
       </c>
       <c r="ANZ2" s="11" t="s">
+        <v>2813</v>
+      </c>
+      <c r="AOA2" s="11" t="s">
         <v>2814</v>
       </c>
-      <c r="AOA2" s="11" t="s">
+      <c r="AOB2" s="11" t="s">
         <v>2815</v>
       </c>
-      <c r="AOB2" s="11" t="s">
+      <c r="AOC2" s="11" t="s">
         <v>2816</v>
       </c>
-      <c r="AOC2" s="11" t="s">
+      <c r="AOD2" s="11" t="s">
+        <v>2899</v>
+      </c>
+      <c r="AOE2" s="11" t="s">
         <v>2817</v>
       </c>
-      <c r="AOD2" s="11" t="s">
-        <v>2900</v>
-      </c>
-      <c r="AOE2" s="11" t="s">
+      <c r="AOF2" s="11" t="s">
         <v>2818</v>
       </c>
-      <c r="AOF2" s="11" t="s">
+      <c r="AOG2" s="11" t="s">
         <v>2819</v>
       </c>
-      <c r="AOG2" s="11" t="s">
+      <c r="AOH2" s="11" t="s">
         <v>2820</v>
       </c>
-      <c r="AOH2" s="11" t="s">
+      <c r="AOI2" s="11" t="s">
         <v>2821</v>
       </c>
-      <c r="AOI2" s="11" t="s">
+      <c r="AOJ2" s="11" t="s">
         <v>2822</v>
       </c>
-      <c r="AOJ2" s="11" t="s">
+      <c r="AOK2" s="11" t="s">
         <v>2823</v>
       </c>
-      <c r="AOK2" s="11" t="s">
+      <c r="AOL2" s="11" t="s">
         <v>2824</v>
       </c>
-      <c r="AOL2" s="11" t="s">
+      <c r="AOM2" s="11" t="s">
         <v>2825</v>
       </c>
-      <c r="AOM2" s="11" t="s">
+      <c r="AON2" s="11" t="s">
         <v>2826</v>
       </c>
-      <c r="AON2" s="11" t="s">
+      <c r="AOO2" s="11" t="s">
         <v>2827</v>
       </c>
-      <c r="AOO2" s="11" t="s">
+      <c r="AOP2" s="11" t="s">
         <v>2828</v>
       </c>
-      <c r="AOP2" s="11" t="s">
+      <c r="AOQ2" s="11" t="s">
         <v>2829</v>
       </c>
-      <c r="AOQ2" s="11" t="s">
+      <c r="AOR2" s="11" t="s">
         <v>2830</v>
       </c>
-      <c r="AOR2" s="11" t="s">
+      <c r="AOS2" s="11" t="s">
         <v>2831</v>
       </c>
-      <c r="AOS2" s="11" t="s">
+      <c r="AOT2" s="11" t="s">
         <v>2832</v>
       </c>
-      <c r="AOT2" s="11" t="s">
+      <c r="AOU2" s="11" t="s">
         <v>2833</v>
       </c>
-      <c r="AOU2" s="11" t="s">
+      <c r="AOV2" s="11" t="s">
         <v>2834</v>
-      </c>
-      <c r="AOV2" s="11" t="s">
-        <v>2835</v>
       </c>
       <c r="AOW2" s="11" t="s">
         <v>1420</v>
@@ -14977,1011 +14977,1011 @@
         <v>1472</v>
       </c>
       <c r="AQX2" s="11" t="s">
+        <v>2904</v>
+      </c>
+      <c r="AQY2" s="11" t="s">
         <v>1473</v>
       </c>
-      <c r="AQY2" s="11" t="s">
+      <c r="AQZ2" s="11" t="s">
         <v>1474</v>
       </c>
-      <c r="AQZ2" s="11" t="s">
+      <c r="ARA2" s="11" t="s">
         <v>1475</v>
       </c>
-      <c r="ARA2" s="11" t="s">
+      <c r="ARB2" s="11" t="s">
         <v>1476</v>
       </c>
-      <c r="ARB2" s="11" t="s">
+      <c r="ARC2" s="11" t="s">
         <v>1477</v>
       </c>
-      <c r="ARC2" s="11" t="s">
+      <c r="ARD2" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="ARD2" s="11" t="s">
+      <c r="ARE2" s="11" t="s">
         <v>1479</v>
       </c>
-      <c r="ARE2" s="11" t="s">
+      <c r="ARF2" s="11" t="s">
         <v>1480</v>
       </c>
-      <c r="ARF2" s="11" t="s">
+      <c r="ARG2" s="11" t="s">
         <v>1481</v>
       </c>
-      <c r="ARG2" s="11" t="s">
+      <c r="ARH2" s="11" t="s">
         <v>1482</v>
       </c>
-      <c r="ARH2" s="11" t="s">
+      <c r="ARI2" s="11" t="s">
         <v>1483</v>
       </c>
-      <c r="ARI2" s="11" t="s">
+      <c r="ARJ2" s="11" t="s">
         <v>1484</v>
       </c>
-      <c r="ARJ2" s="11" t="s">
+      <c r="ARK2" s="11" t="s">
         <v>1485</v>
       </c>
-      <c r="ARK2" s="11" t="s">
+      <c r="ARL2" s="11" t="s">
         <v>1486</v>
       </c>
-      <c r="ARL2" s="11" t="s">
+      <c r="ARM2" s="11" t="s">
         <v>1487</v>
       </c>
-      <c r="ARM2" s="11" t="s">
+      <c r="ARN2" s="11" t="s">
         <v>1488</v>
       </c>
-      <c r="ARN2" s="11" t="s">
+      <c r="ARO2" s="11" t="s">
         <v>1489</v>
       </c>
-      <c r="ARO2" s="11" t="s">
+      <c r="ARP2" s="11" t="s">
         <v>1490</v>
       </c>
-      <c r="ARP2" s="11" t="s">
+      <c r="ARQ2" s="11" t="s">
         <v>1491</v>
       </c>
-      <c r="ARQ2" s="11" t="s">
+      <c r="ARR2" s="11" t="s">
         <v>1492</v>
       </c>
-      <c r="ARR2" s="11" t="s">
+      <c r="ARS2" s="11" t="s">
         <v>1493</v>
       </c>
-      <c r="ARS2" s="11" t="s">
+      <c r="ART2" s="11" t="s">
         <v>1494</v>
       </c>
-      <c r="ART2" s="11" t="s">
+      <c r="ARU2" s="11" t="s">
         <v>1495</v>
       </c>
-      <c r="ARU2" s="11" t="s">
+      <c r="ARV2" s="11" t="s">
         <v>1496</v>
       </c>
-      <c r="ARV2" s="11" t="s">
+      <c r="ARW2" s="11" t="s">
         <v>1497</v>
       </c>
-      <c r="ARW2" s="11" t="s">
+      <c r="ARX2" s="11" t="s">
         <v>1498</v>
       </c>
-      <c r="ARX2" s="11" t="s">
+      <c r="ARY2" s="11" t="s">
         <v>1499</v>
       </c>
-      <c r="ARY2" s="11" t="s">
+      <c r="ARZ2" s="11" t="s">
+        <v>2835</v>
+      </c>
+      <c r="ASA2" s="11" t="s">
+        <v>2836</v>
+      </c>
+      <c r="ASB2" s="11" t="s">
+        <v>2837</v>
+      </c>
+      <c r="ASC2" s="11" t="s">
+        <v>2838</v>
+      </c>
+      <c r="ASD2" s="11" t="s">
+        <v>2839</v>
+      </c>
+      <c r="ASE2" s="11" t="s">
+        <v>2840</v>
+      </c>
+      <c r="ASF2" s="11" t="s">
+        <v>2841</v>
+      </c>
+      <c r="ASG2" s="11" t="s">
+        <v>2842</v>
+      </c>
+      <c r="ASH2" s="11" t="s">
+        <v>2843</v>
+      </c>
+      <c r="ASI2" s="11" t="s">
+        <v>2844</v>
+      </c>
+      <c r="ASJ2" s="11" t="s">
+        <v>2845</v>
+      </c>
+      <c r="ASK2" s="11" t="s">
+        <v>2846</v>
+      </c>
+      <c r="ASL2" s="11" t="s">
+        <v>2847</v>
+      </c>
+      <c r="ASM2" s="11" t="s">
+        <v>2848</v>
+      </c>
+      <c r="ASN2" s="11" t="s">
+        <v>2849</v>
+      </c>
+      <c r="ASO2" s="11" t="s">
+        <v>2850</v>
+      </c>
+      <c r="ASP2" s="11" t="s">
+        <v>2851</v>
+      </c>
+      <c r="ASQ2" s="11" t="s">
+        <v>2852</v>
+      </c>
+      <c r="ASR2" s="11" t="s">
+        <v>2853</v>
+      </c>
+      <c r="ASS2" s="11" t="s">
+        <v>2854</v>
+      </c>
+      <c r="AST2" s="11" t="s">
+        <v>2855</v>
+      </c>
+      <c r="ASU2" s="11" t="s">
+        <v>2856</v>
+      </c>
+      <c r="ASV2" s="11" t="s">
+        <v>2857</v>
+      </c>
+      <c r="ASW2" s="11" t="s">
+        <v>2858</v>
+      </c>
+      <c r="ASX2" s="11" t="s">
+        <v>2859</v>
+      </c>
+      <c r="ASY2" s="11" t="s">
+        <v>2860</v>
+      </c>
+      <c r="ASZ2" s="11" t="s">
         <v>1500</v>
       </c>
-      <c r="ARZ2" s="11" t="s">
-        <v>2836</v>
-      </c>
-      <c r="ASA2" s="11" t="s">
-        <v>2837</v>
-      </c>
-      <c r="ASB2" s="11" t="s">
-        <v>2838</v>
-      </c>
-      <c r="ASC2" s="11" t="s">
-        <v>2839</v>
-      </c>
-      <c r="ASD2" s="11" t="s">
-        <v>2840</v>
-      </c>
-      <c r="ASE2" s="11" t="s">
-        <v>2841</v>
-      </c>
-      <c r="ASF2" s="11" t="s">
-        <v>2842</v>
-      </c>
-      <c r="ASG2" s="11" t="s">
-        <v>2843</v>
-      </c>
-      <c r="ASH2" s="11" t="s">
-        <v>2844</v>
-      </c>
-      <c r="ASI2" s="11" t="s">
-        <v>2845</v>
-      </c>
-      <c r="ASJ2" s="11" t="s">
-        <v>2846</v>
-      </c>
-      <c r="ASK2" s="11" t="s">
-        <v>2847</v>
-      </c>
-      <c r="ASL2" s="11" t="s">
-        <v>2848</v>
-      </c>
-      <c r="ASM2" s="11" t="s">
-        <v>2849</v>
-      </c>
-      <c r="ASN2" s="11" t="s">
-        <v>2850</v>
-      </c>
-      <c r="ASO2" s="11" t="s">
-        <v>2851</v>
-      </c>
-      <c r="ASP2" s="11" t="s">
-        <v>2852</v>
-      </c>
-      <c r="ASQ2" s="11" t="s">
-        <v>2853</v>
-      </c>
-      <c r="ASR2" s="11" t="s">
-        <v>2854</v>
-      </c>
-      <c r="ASS2" s="11" t="s">
-        <v>2855</v>
-      </c>
-      <c r="AST2" s="11" t="s">
-        <v>2856</v>
-      </c>
-      <c r="ASU2" s="11" t="s">
-        <v>2857</v>
-      </c>
-      <c r="ASV2" s="11" t="s">
-        <v>2858</v>
-      </c>
-      <c r="ASW2" s="11" t="s">
-        <v>2859</v>
-      </c>
-      <c r="ASX2" s="11" t="s">
-        <v>2860</v>
-      </c>
-      <c r="ASY2" s="11" t="s">
+      <c r="ATA2" s="11" t="s">
+        <v>1501</v>
+      </c>
+      <c r="ATB2" s="11" t="s">
+        <v>1502</v>
+      </c>
+      <c r="ATC2" s="11" t="s">
+        <v>1503</v>
+      </c>
+      <c r="ATD2" s="11" t="s">
+        <v>1504</v>
+      </c>
+      <c r="ATE2" s="11" t="s">
+        <v>1505</v>
+      </c>
+      <c r="ATF2" s="11" t="s">
+        <v>1506</v>
+      </c>
+      <c r="ATG2" s="11" t="s">
+        <v>1507</v>
+      </c>
+      <c r="ATH2" s="11" t="s">
+        <v>1508</v>
+      </c>
+      <c r="ATI2" s="11" t="s">
+        <v>1509</v>
+      </c>
+      <c r="ATJ2" s="11" t="s">
+        <v>1510</v>
+      </c>
+      <c r="ATK2" s="11" t="s">
+        <v>1511</v>
+      </c>
+      <c r="ATL2" s="11" t="s">
+        <v>1512</v>
+      </c>
+      <c r="ATM2" s="11" t="s">
+        <v>1513</v>
+      </c>
+      <c r="ATN2" s="11" t="s">
+        <v>1514</v>
+      </c>
+      <c r="ATO2" s="11" t="s">
+        <v>2903</v>
+      </c>
+      <c r="ATP2" s="11" t="s">
+        <v>1515</v>
+      </c>
+      <c r="ATQ2" s="11" t="s">
+        <v>1516</v>
+      </c>
+      <c r="ATR2" s="11" t="s">
+        <v>1517</v>
+      </c>
+      <c r="ATS2" s="11" t="s">
+        <v>1518</v>
+      </c>
+      <c r="ATT2" s="11" t="s">
+        <v>1519</v>
+      </c>
+      <c r="ATU2" s="11" t="s">
+        <v>1520</v>
+      </c>
+      <c r="ATV2" s="11" t="s">
+        <v>1521</v>
+      </c>
+      <c r="ATW2" s="11" t="s">
+        <v>1522</v>
+      </c>
+      <c r="ATX2" s="11" t="s">
+        <v>1523</v>
+      </c>
+      <c r="ATY2" s="11" t="s">
+        <v>1524</v>
+      </c>
+      <c r="ATZ2" s="11" t="s">
+        <v>1525</v>
+      </c>
+      <c r="AUA2" s="11" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AUB2" s="11" t="s">
+        <v>1527</v>
+      </c>
+      <c r="AUC2" s="11" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AUD2" s="11" t="s">
+        <v>1529</v>
+      </c>
+      <c r="AUE2" s="11" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AUF2" s="11" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AUG2" s="11" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AUH2" s="11" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AUI2" s="11" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AUJ2" s="11" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AUK2" s="11" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AUL2" s="11" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AUM2" s="11" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AUN2" s="11" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AUO2" s="11" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AUP2" s="11" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AUQ2" s="11" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AUR2" s="11" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AUS2" s="11" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AUT2" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AUU2" s="11" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AUV2" s="11" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AUW2" s="11" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AUX2" s="11" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AUY2" s="11" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AUZ2" s="11" t="s">
+        <v>1551</v>
+      </c>
+      <c r="AVA2" s="11" t="s">
+        <v>1552</v>
+      </c>
+      <c r="AVB2" s="11" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AVC2" s="11" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AVD2" s="11" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AVE2" s="11" t="s">
+        <v>1556</v>
+      </c>
+      <c r="AVF2" s="11" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AVG2" s="11" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AVH2" s="11" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AVI2" s="11" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AVJ2" s="11" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AVK2" s="11" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AVL2" s="11" t="s">
+        <v>1563</v>
+      </c>
+      <c r="AVM2" s="11" t="s">
+        <v>1564</v>
+      </c>
+      <c r="AVN2" s="11" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AVO2" s="11" t="s">
+        <v>1566</v>
+      </c>
+      <c r="AVP2" s="11" t="s">
+        <v>1567</v>
+      </c>
+      <c r="AVQ2" s="11" t="s">
         <v>2861</v>
       </c>
-      <c r="ASZ2" s="11" t="s">
-        <v>1501</v>
-      </c>
-      <c r="ATA2" s="11" t="s">
-        <v>1502</v>
-      </c>
-      <c r="ATB2" s="11" t="s">
-        <v>1503</v>
-      </c>
-      <c r="ATC2" s="11" t="s">
-        <v>1504</v>
-      </c>
-      <c r="ATD2" s="11" t="s">
-        <v>1505</v>
-      </c>
-      <c r="ATE2" s="11" t="s">
-        <v>1506</v>
-      </c>
-      <c r="ATF2" s="11" t="s">
-        <v>1507</v>
-      </c>
-      <c r="ATG2" s="11" t="s">
-        <v>1508</v>
-      </c>
-      <c r="ATH2" s="11" t="s">
-        <v>1509</v>
-      </c>
-      <c r="ATI2" s="11" t="s">
-        <v>1510</v>
-      </c>
-      <c r="ATJ2" s="11" t="s">
-        <v>1511</v>
-      </c>
-      <c r="ATK2" s="11" t="s">
-        <v>1512</v>
-      </c>
-      <c r="ATL2" s="11" t="s">
-        <v>1513</v>
-      </c>
-      <c r="ATM2" s="11" t="s">
-        <v>1514</v>
-      </c>
-      <c r="ATN2" s="11" t="s">
-        <v>1515</v>
-      </c>
-      <c r="ATO2" s="11" t="s">
-        <v>2904</v>
-      </c>
-      <c r="ATP2" s="11" t="s">
-        <v>1516</v>
-      </c>
-      <c r="ATQ2" s="11" t="s">
-        <v>1517</v>
-      </c>
-      <c r="ATR2" s="11" t="s">
-        <v>1518</v>
-      </c>
-      <c r="ATS2" s="11" t="s">
-        <v>1519</v>
-      </c>
-      <c r="ATT2" s="11" t="s">
-        <v>1520</v>
-      </c>
-      <c r="ATU2" s="11" t="s">
-        <v>1521</v>
-      </c>
-      <c r="ATV2" s="11" t="s">
-        <v>1522</v>
-      </c>
-      <c r="ATW2" s="11" t="s">
-        <v>1523</v>
-      </c>
-      <c r="ATX2" s="11" t="s">
-        <v>1524</v>
-      </c>
-      <c r="ATY2" s="11" t="s">
-        <v>1525</v>
-      </c>
-      <c r="ATZ2" s="11" t="s">
-        <v>1526</v>
-      </c>
-      <c r="AUA2" s="11" t="s">
-        <v>1527</v>
-      </c>
-      <c r="AUB2" s="11" t="s">
-        <v>1528</v>
-      </c>
-      <c r="AUC2" s="11" t="s">
-        <v>1529</v>
-      </c>
-      <c r="AUD2" s="11" t="s">
-        <v>1530</v>
-      </c>
-      <c r="AUE2" s="11" t="s">
-        <v>1531</v>
-      </c>
-      <c r="AUF2" s="11" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AUG2" s="11" t="s">
-        <v>1533</v>
-      </c>
-      <c r="AUH2" s="11" t="s">
-        <v>1534</v>
-      </c>
-      <c r="AUI2" s="11" t="s">
-        <v>1535</v>
-      </c>
-      <c r="AUJ2" s="11" t="s">
-        <v>1536</v>
-      </c>
-      <c r="AUK2" s="11" t="s">
-        <v>1537</v>
-      </c>
-      <c r="AUL2" s="11" t="s">
-        <v>1538</v>
-      </c>
-      <c r="AUM2" s="11" t="s">
-        <v>1539</v>
-      </c>
-      <c r="AUN2" s="11" t="s">
-        <v>1540</v>
-      </c>
-      <c r="AUO2" s="11" t="s">
-        <v>1541</v>
-      </c>
-      <c r="AUP2" s="11" t="s">
-        <v>1542</v>
-      </c>
-      <c r="AUQ2" s="11" t="s">
-        <v>1543</v>
-      </c>
-      <c r="AUR2" s="11" t="s">
-        <v>1544</v>
-      </c>
-      <c r="AUS2" s="11" t="s">
-        <v>1545</v>
-      </c>
-      <c r="AUT2" s="11" t="s">
-        <v>1546</v>
-      </c>
-      <c r="AUU2" s="11" t="s">
-        <v>1547</v>
-      </c>
-      <c r="AUV2" s="11" t="s">
-        <v>1548</v>
-      </c>
-      <c r="AUW2" s="11" t="s">
-        <v>1549</v>
-      </c>
-      <c r="AUX2" s="11" t="s">
-        <v>1550</v>
-      </c>
-      <c r="AUY2" s="11" t="s">
-        <v>1551</v>
-      </c>
-      <c r="AUZ2" s="11" t="s">
-        <v>1552</v>
-      </c>
-      <c r="AVA2" s="11" t="s">
-        <v>1553</v>
-      </c>
-      <c r="AVB2" s="11" t="s">
-        <v>1554</v>
-      </c>
-      <c r="AVC2" s="11" t="s">
-        <v>1555</v>
-      </c>
-      <c r="AVD2" s="11" t="s">
-        <v>1556</v>
-      </c>
-      <c r="AVE2" s="11" t="s">
-        <v>1557</v>
-      </c>
-      <c r="AVF2" s="11" t="s">
-        <v>1558</v>
-      </c>
-      <c r="AVG2" s="11" t="s">
-        <v>1559</v>
-      </c>
-      <c r="AVH2" s="11" t="s">
-        <v>1560</v>
-      </c>
-      <c r="AVI2" s="11" t="s">
-        <v>1561</v>
-      </c>
-      <c r="AVJ2" s="11" t="s">
-        <v>1562</v>
-      </c>
-      <c r="AVK2" s="11" t="s">
-        <v>1563</v>
-      </c>
-      <c r="AVL2" s="11" t="s">
-        <v>1564</v>
-      </c>
-      <c r="AVM2" s="11" t="s">
-        <v>1565</v>
-      </c>
-      <c r="AVN2" s="11" t="s">
-        <v>1566</v>
-      </c>
-      <c r="AVO2" s="11" t="s">
-        <v>1567</v>
-      </c>
-      <c r="AVP2" s="11" t="s">
+      <c r="AVR2" s="11" t="s">
+        <v>2862</v>
+      </c>
+      <c r="AVS2" s="11" t="s">
+        <v>2863</v>
+      </c>
+      <c r="AVT2" s="11" t="s">
+        <v>2864</v>
+      </c>
+      <c r="AVU2" s="11" t="s">
+        <v>2865</v>
+      </c>
+      <c r="AVV2" s="11" t="s">
+        <v>2866</v>
+      </c>
+      <c r="AVW2" s="11" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AVX2" s="11" t="s">
+        <v>2868</v>
+      </c>
+      <c r="AVY2" s="11" t="s">
+        <v>2869</v>
+      </c>
+      <c r="AVZ2" s="11" t="s">
+        <v>2870</v>
+      </c>
+      <c r="AWA2" s="11" t="s">
+        <v>2871</v>
+      </c>
+      <c r="AWB2" s="11" t="s">
+        <v>2872</v>
+      </c>
+      <c r="AWC2" s="11" t="s">
+        <v>2873</v>
+      </c>
+      <c r="AWD2" s="11" t="s">
+        <v>2874</v>
+      </c>
+      <c r="AWE2" s="11" t="s">
         <v>1568</v>
       </c>
-      <c r="AVQ2" s="11" t="s">
-        <v>2862</v>
-      </c>
-      <c r="AVR2" s="11" t="s">
-        <v>2863</v>
-      </c>
-      <c r="AVS2" s="11" t="s">
-        <v>2864</v>
-      </c>
-      <c r="AVT2" s="11" t="s">
-        <v>2865</v>
-      </c>
-      <c r="AVU2" s="11" t="s">
-        <v>2866</v>
-      </c>
-      <c r="AVV2" s="11" t="s">
-        <v>2867</v>
-      </c>
-      <c r="AVW2" s="11" t="s">
-        <v>2868</v>
-      </c>
-      <c r="AVX2" s="11" t="s">
-        <v>2869</v>
-      </c>
-      <c r="AVY2" s="11" t="s">
-        <v>2870</v>
-      </c>
-      <c r="AVZ2" s="11" t="s">
-        <v>2871</v>
-      </c>
-      <c r="AWA2" s="11" t="s">
-        <v>2872</v>
-      </c>
-      <c r="AWB2" s="11" t="s">
-        <v>2873</v>
-      </c>
-      <c r="AWC2" s="11" t="s">
-        <v>2874</v>
-      </c>
-      <c r="AWD2" s="11" t="s">
+      <c r="AWF2" s="11" t="s">
+        <v>1569</v>
+      </c>
+      <c r="AWG2" s="11" t="s">
+        <v>1570</v>
+      </c>
+      <c r="AWH2" s="11" t="s">
+        <v>1571</v>
+      </c>
+      <c r="AWI2" s="11" t="s">
+        <v>1572</v>
+      </c>
+      <c r="AWJ2" s="11" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AWK2" s="11" t="s">
+        <v>1574</v>
+      </c>
+      <c r="AWL2" s="11" t="s">
+        <v>1575</v>
+      </c>
+      <c r="AWM2" s="11" t="s">
+        <v>1576</v>
+      </c>
+      <c r="AWN2" s="11" t="s">
+        <v>1577</v>
+      </c>
+      <c r="AWO2" s="11" t="s">
+        <v>1578</v>
+      </c>
+      <c r="AWP2" s="11" t="s">
+        <v>1579</v>
+      </c>
+      <c r="AWQ2" s="11" t="s">
+        <v>1580</v>
+      </c>
+      <c r="AWR2" s="11" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AWS2" s="11" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AWT2" s="11" t="s">
+        <v>1583</v>
+      </c>
+      <c r="AWU2" s="11" t="s">
+        <v>1584</v>
+      </c>
+      <c r="AWV2" s="11" t="s">
+        <v>1585</v>
+      </c>
+      <c r="AWW2" s="11" t="s">
+        <v>1586</v>
+      </c>
+      <c r="AWX2" s="11" t="s">
+        <v>1587</v>
+      </c>
+      <c r="AWY2" s="11" t="s">
+        <v>1588</v>
+      </c>
+      <c r="AWZ2" s="11" t="s">
+        <v>1589</v>
+      </c>
+      <c r="AXA2" s="11" t="s">
+        <v>1590</v>
+      </c>
+      <c r="AXB2" s="11" t="s">
+        <v>1591</v>
+      </c>
+      <c r="AXC2" s="11" t="s">
+        <v>1592</v>
+      </c>
+      <c r="AXD2" s="11" t="s">
+        <v>1593</v>
+      </c>
+      <c r="AXE2" s="11" t="s">
+        <v>1594</v>
+      </c>
+      <c r="AXF2" s="11" t="s">
+        <v>1595</v>
+      </c>
+      <c r="AXG2" s="11" t="s">
+        <v>1596</v>
+      </c>
+      <c r="AXH2" s="11" t="s">
+        <v>1597</v>
+      </c>
+      <c r="AXI2" s="11" t="s">
+        <v>1598</v>
+      </c>
+      <c r="AXJ2" s="11" t="s">
+        <v>1599</v>
+      </c>
+      <c r="AXK2" s="11" t="s">
+        <v>1600</v>
+      </c>
+      <c r="AXL2" s="11" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AXM2" s="11" t="s">
+        <v>1602</v>
+      </c>
+      <c r="AXN2" s="11" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AXO2" s="11" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AXP2" s="11" t="s">
+        <v>1605</v>
+      </c>
+      <c r="AXQ2" s="11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="AXR2" s="11" t="s">
+        <v>1607</v>
+      </c>
+      <c r="AXS2" s="11" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AXT2" s="11" t="s">
+        <v>1609</v>
+      </c>
+      <c r="AXU2" s="11" t="s">
+        <v>1610</v>
+      </c>
+      <c r="AXV2" s="11" t="s">
+        <v>1611</v>
+      </c>
+      <c r="AXW2" s="11" t="s">
+        <v>1612</v>
+      </c>
+      <c r="AXX2" s="11" t="s">
+        <v>1613</v>
+      </c>
+      <c r="AXY2" s="11" t="s">
+        <v>1614</v>
+      </c>
+      <c r="AXZ2" s="11" t="s">
+        <v>1615</v>
+      </c>
+      <c r="AYA2" s="11" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AYB2" s="11" t="s">
+        <v>1617</v>
+      </c>
+      <c r="AYC2" s="11" t="s">
+        <v>1618</v>
+      </c>
+      <c r="AYD2" s="11" t="s">
         <v>2875</v>
       </c>
-      <c r="AWE2" s="11" t="s">
-        <v>1569</v>
-      </c>
-      <c r="AWF2" s="11" t="s">
-        <v>1570</v>
-      </c>
-      <c r="AWG2" s="11" t="s">
-        <v>1571</v>
-      </c>
-      <c r="AWH2" s="11" t="s">
-        <v>1572</v>
-      </c>
-      <c r="AWI2" s="11" t="s">
-        <v>1573</v>
-      </c>
-      <c r="AWJ2" s="11" t="s">
-        <v>1574</v>
-      </c>
-      <c r="AWK2" s="11" t="s">
-        <v>1575</v>
-      </c>
-      <c r="AWL2" s="11" t="s">
-        <v>1576</v>
-      </c>
-      <c r="AWM2" s="11" t="s">
-        <v>1577</v>
-      </c>
-      <c r="AWN2" s="11" t="s">
-        <v>1578</v>
-      </c>
-      <c r="AWO2" s="11" t="s">
-        <v>1579</v>
-      </c>
-      <c r="AWP2" s="11" t="s">
-        <v>1580</v>
-      </c>
-      <c r="AWQ2" s="11" t="s">
-        <v>1581</v>
-      </c>
-      <c r="AWR2" s="11" t="s">
-        <v>1582</v>
-      </c>
-      <c r="AWS2" s="11" t="s">
-        <v>1583</v>
-      </c>
-      <c r="AWT2" s="11" t="s">
-        <v>1584</v>
-      </c>
-      <c r="AWU2" s="11" t="s">
-        <v>1585</v>
-      </c>
-      <c r="AWV2" s="11" t="s">
-        <v>1586</v>
-      </c>
-      <c r="AWW2" s="11" t="s">
-        <v>1587</v>
-      </c>
-      <c r="AWX2" s="11" t="s">
-        <v>1588</v>
-      </c>
-      <c r="AWY2" s="11" t="s">
-        <v>1589</v>
-      </c>
-      <c r="AWZ2" s="11" t="s">
-        <v>1590</v>
-      </c>
-      <c r="AXA2" s="11" t="s">
-        <v>1591</v>
-      </c>
-      <c r="AXB2" s="11" t="s">
-        <v>1592</v>
-      </c>
-      <c r="AXC2" s="11" t="s">
-        <v>1593</v>
-      </c>
-      <c r="AXD2" s="11" t="s">
-        <v>1594</v>
-      </c>
-      <c r="AXE2" s="11" t="s">
-        <v>1595</v>
-      </c>
-      <c r="AXF2" s="11" t="s">
-        <v>1596</v>
-      </c>
-      <c r="AXG2" s="11" t="s">
-        <v>1597</v>
-      </c>
-      <c r="AXH2" s="11" t="s">
-        <v>1598</v>
-      </c>
-      <c r="AXI2" s="11" t="s">
-        <v>1599</v>
-      </c>
-      <c r="AXJ2" s="11" t="s">
-        <v>1600</v>
-      </c>
-      <c r="AXK2" s="11" t="s">
-        <v>1601</v>
-      </c>
-      <c r="AXL2" s="11" t="s">
-        <v>1602</v>
-      </c>
-      <c r="AXM2" s="11" t="s">
-        <v>1603</v>
-      </c>
-      <c r="AXN2" s="11" t="s">
-        <v>1604</v>
-      </c>
-      <c r="AXO2" s="11" t="s">
-        <v>1605</v>
-      </c>
-      <c r="AXP2" s="11" t="s">
-        <v>1606</v>
-      </c>
-      <c r="AXQ2" s="11" t="s">
-        <v>1607</v>
-      </c>
-      <c r="AXR2" s="11" t="s">
-        <v>1608</v>
-      </c>
-      <c r="AXS2" s="11" t="s">
-        <v>1609</v>
-      </c>
-      <c r="AXT2" s="11" t="s">
-        <v>1610</v>
-      </c>
-      <c r="AXU2" s="11" t="s">
-        <v>1611</v>
-      </c>
-      <c r="AXV2" s="11" t="s">
-        <v>1612</v>
-      </c>
-      <c r="AXW2" s="11" t="s">
-        <v>1613</v>
-      </c>
-      <c r="AXX2" s="11" t="s">
-        <v>1614</v>
-      </c>
-      <c r="AXY2" s="11" t="s">
-        <v>1615</v>
-      </c>
-      <c r="AXZ2" s="11" t="s">
-        <v>1616</v>
-      </c>
-      <c r="AYA2" s="11" t="s">
-        <v>1617</v>
-      </c>
-      <c r="AYB2" s="11" t="s">
-        <v>1618</v>
-      </c>
-      <c r="AYC2" s="11" t="s">
+      <c r="AYE2" s="11" t="s">
+        <v>2876</v>
+      </c>
+      <c r="AYF2" s="11" t="s">
+        <v>2877</v>
+      </c>
+      <c r="AYG2" s="11" t="s">
+        <v>2878</v>
+      </c>
+      <c r="AYH2" s="11" t="s">
+        <v>2879</v>
+      </c>
+      <c r="AYI2" s="11" t="s">
+        <v>2880</v>
+      </c>
+      <c r="AYJ2" s="11" t="s">
+        <v>2881</v>
+      </c>
+      <c r="AYK2" s="11" t="s">
+        <v>2882</v>
+      </c>
+      <c r="AYL2" s="11" t="s">
+        <v>2883</v>
+      </c>
+      <c r="AYM2" s="11" t="s">
+        <v>2884</v>
+      </c>
+      <c r="AYN2" s="11" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AYO2" s="11" t="s">
+        <v>2886</v>
+      </c>
+      <c r="AYP2" s="11" t="s">
+        <v>2887</v>
+      </c>
+      <c r="AYQ2" s="11" t="s">
+        <v>2888</v>
+      </c>
+      <c r="AYR2" s="11" t="s">
+        <v>2889</v>
+      </c>
+      <c r="AYS2" s="11" t="s">
+        <v>2890</v>
+      </c>
+      <c r="AYT2" s="11" t="s">
+        <v>2891</v>
+      </c>
+      <c r="AYU2" s="11" t="s">
+        <v>2892</v>
+      </c>
+      <c r="AYV2" s="11" t="s">
+        <v>2893</v>
+      </c>
+      <c r="AYW2" s="11" t="s">
+        <v>2894</v>
+      </c>
+      <c r="AYX2" s="11" t="s">
+        <v>2895</v>
+      </c>
+      <c r="AYY2" s="11" t="s">
+        <v>2896</v>
+      </c>
+      <c r="AYZ2" s="11" t="s">
         <v>1619</v>
       </c>
-      <c r="AYD2" s="11" t="s">
-        <v>2876</v>
-      </c>
-      <c r="AYE2" s="11" t="s">
-        <v>2877</v>
-      </c>
-      <c r="AYF2" s="11" t="s">
-        <v>2878</v>
-      </c>
-      <c r="AYG2" s="11" t="s">
-        <v>2879</v>
-      </c>
-      <c r="AYH2" s="11" t="s">
-        <v>2880</v>
-      </c>
-      <c r="AYI2" s="11" t="s">
-        <v>2881</v>
-      </c>
-      <c r="AYJ2" s="11" t="s">
-        <v>2882</v>
-      </c>
-      <c r="AYK2" s="11" t="s">
-        <v>2883</v>
-      </c>
-      <c r="AYL2" s="11" t="s">
-        <v>2884</v>
-      </c>
-      <c r="AYM2" s="11" t="s">
-        <v>2885</v>
-      </c>
-      <c r="AYN2" s="11" t="s">
-        <v>2886</v>
-      </c>
-      <c r="AYO2" s="11" t="s">
-        <v>2887</v>
-      </c>
-      <c r="AYP2" s="11" t="s">
-        <v>2888</v>
-      </c>
-      <c r="AYQ2" s="11" t="s">
-        <v>2889</v>
-      </c>
-      <c r="AYR2" s="11" t="s">
-        <v>2890</v>
-      </c>
-      <c r="AYS2" s="11" t="s">
-        <v>2891</v>
-      </c>
-      <c r="AYT2" s="11" t="s">
-        <v>2892</v>
-      </c>
-      <c r="AYU2" s="11" t="s">
-        <v>2893</v>
-      </c>
-      <c r="AYV2" s="11" t="s">
-        <v>2894</v>
-      </c>
-      <c r="AYW2" s="11" t="s">
-        <v>2895</v>
-      </c>
-      <c r="AYX2" s="11" t="s">
-        <v>2896</v>
-      </c>
-      <c r="AYY2" s="11" t="s">
-        <v>2897</v>
-      </c>
-      <c r="AYZ2" s="11" t="s">
+      <c r="AZA2" s="11" t="s">
         <v>1620</v>
       </c>
-      <c r="AZA2" s="11" t="s">
+      <c r="AZB2" s="11" t="s">
         <v>1621</v>
       </c>
-      <c r="AZB2" s="11" t="s">
+      <c r="AZC2" s="11" t="s">
         <v>1622</v>
       </c>
-      <c r="AZC2" s="11" t="s">
+      <c r="AZD2" s="11" t="s">
         <v>1623</v>
       </c>
-      <c r="AZD2" s="11" t="s">
+      <c r="AZE2" s="11" t="s">
         <v>1624</v>
       </c>
-      <c r="AZE2" s="11" t="s">
+      <c r="AZF2" s="11" t="s">
         <v>1625</v>
       </c>
-      <c r="AZF2" s="11" t="s">
+      <c r="AZG2" s="11" t="s">
         <v>1626</v>
       </c>
-      <c r="AZG2" s="11" t="s">
+      <c r="AZH2" s="11" t="s">
         <v>1627</v>
       </c>
-      <c r="AZH2" s="11" t="s">
+      <c r="AZI2" s="11" t="s">
         <v>1628</v>
       </c>
-      <c r="AZI2" s="11" t="s">
+      <c r="AZJ2" s="11" t="s">
         <v>1629</v>
       </c>
-      <c r="AZJ2" s="11" t="s">
+      <c r="AZK2" s="11" t="s">
         <v>1630</v>
       </c>
-      <c r="AZK2" s="11" t="s">
+      <c r="AZL2" s="11" t="s">
         <v>1631</v>
       </c>
-      <c r="AZL2" s="11" t="s">
+      <c r="AZM2" s="11" t="s">
         <v>1632</v>
       </c>
-      <c r="AZM2" s="11" t="s">
+      <c r="AZN2" s="11" t="s">
         <v>1633</v>
       </c>
-      <c r="AZN2" s="11" t="s">
+      <c r="AZO2" s="11" t="s">
         <v>1634</v>
       </c>
-      <c r="AZO2" s="11" t="s">
+      <c r="AZP2" s="11" t="s">
         <v>1635</v>
       </c>
-      <c r="AZP2" s="11" t="s">
+      <c r="AZQ2" s="11" t="s">
         <v>1636</v>
       </c>
-      <c r="AZQ2" s="11" t="s">
+      <c r="AZR2" s="11" t="s">
         <v>1637</v>
       </c>
-      <c r="AZR2" s="11" t="s">
+      <c r="AZS2" s="11" t="s">
         <v>1638</v>
       </c>
-      <c r="AZS2" s="11" t="s">
+      <c r="AZT2" s="11" t="s">
         <v>1639</v>
       </c>
-      <c r="AZT2" s="11" t="s">
+      <c r="AZU2" s="11" t="s">
         <v>1640</v>
       </c>
-      <c r="AZU2" s="11" t="s">
+      <c r="AZV2" s="11" t="s">
         <v>1641</v>
       </c>
-      <c r="AZV2" s="11" t="s">
+      <c r="AZW2" s="11" t="s">
         <v>1642</v>
       </c>
-      <c r="AZW2" s="11" t="s">
+      <c r="AZX2" s="11" t="s">
         <v>1643</v>
       </c>
-      <c r="AZX2" s="11" t="s">
+      <c r="AZY2" s="11" t="s">
         <v>1644</v>
       </c>
-      <c r="AZY2" s="11" t="s">
+      <c r="AZZ2" s="11" t="s">
         <v>1645</v>
       </c>
-      <c r="AZZ2" s="11" t="s">
+      <c r="BAA2" s="11" t="s">
         <v>1646</v>
       </c>
-      <c r="BAA2" s="11" t="s">
+      <c r="BAB2" s="11" t="s">
         <v>1647</v>
       </c>
-      <c r="BAB2" s="11" t="s">
+      <c r="BAC2" s="11" t="s">
         <v>1648</v>
       </c>
-      <c r="BAC2" s="11" t="s">
+      <c r="BAD2" s="11" t="s">
         <v>1649</v>
       </c>
-      <c r="BAD2" s="11" t="s">
+      <c r="BAE2" s="11" t="s">
         <v>1650</v>
       </c>
-      <c r="BAE2" s="11" t="s">
+      <c r="BAF2" s="11" t="s">
         <v>1651</v>
       </c>
-      <c r="BAF2" s="11" t="s">
+      <c r="BAG2" s="11" t="s">
         <v>1652</v>
       </c>
-      <c r="BAG2" s="11" t="s">
+      <c r="BAH2" s="11" t="s">
         <v>1653</v>
       </c>
-      <c r="BAH2" s="11" t="s">
+      <c r="BAI2" s="11" t="s">
         <v>1654</v>
       </c>
-      <c r="BAI2" s="11" t="s">
+      <c r="BAJ2" s="11" t="s">
         <v>1655</v>
       </c>
-      <c r="BAJ2" s="11" t="s">
+      <c r="BAK2" s="11" t="s">
         <v>1656</v>
       </c>
-      <c r="BAK2" s="11" t="s">
+      <c r="BAL2" s="11" t="s">
         <v>1657</v>
       </c>
-      <c r="BAL2" s="11" t="s">
+      <c r="BAM2" s="11" t="s">
         <v>1658</v>
       </c>
-      <c r="BAM2" s="11" t="s">
+      <c r="BAN2" s="11" t="s">
         <v>1659</v>
       </c>
-      <c r="BAN2" s="11" t="s">
+      <c r="BAO2" s="11" t="s">
         <v>1660</v>
       </c>
-      <c r="BAO2" s="11" t="s">
+      <c r="BAP2" s="11" t="s">
         <v>1661</v>
       </c>
-      <c r="BAP2" s="11" t="s">
+      <c r="BAQ2" s="11" t="s">
         <v>1662</v>
       </c>
-      <c r="BAQ2" s="11" t="s">
+      <c r="BAR2" s="11" t="s">
         <v>1663</v>
       </c>
-      <c r="BAR2" s="11" t="s">
+      <c r="BAS2" s="11" t="s">
         <v>1664</v>
       </c>
-      <c r="BAS2" s="11" t="s">
+      <c r="BAT2" s="11" t="s">
         <v>1665</v>
       </c>
-      <c r="BAT2" s="11" t="s">
+      <c r="BAU2" s="11" t="s">
         <v>1666</v>
       </c>
-      <c r="BAU2" s="11" t="s">
+      <c r="BAV2" s="11" t="s">
         <v>1667</v>
       </c>
-      <c r="BAV2" s="11" t="s">
+      <c r="BAW2" s="11" t="s">
         <v>1668</v>
       </c>
-      <c r="BAW2" s="11" t="s">
+      <c r="BAX2" s="11" t="s">
         <v>1669</v>
       </c>
-      <c r="BAX2" s="11" t="s">
+      <c r="BAY2" s="11" t="s">
         <v>1670</v>
       </c>
-      <c r="BAY2" s="11" t="s">
+      <c r="BAZ2" s="11" t="s">
         <v>1671</v>
       </c>
-      <c r="BAZ2" s="11" t="s">
+      <c r="BBA2" s="11" t="s">
         <v>1672</v>
       </c>
-      <c r="BBA2" s="11" t="s">
+      <c r="BBB2" s="11" t="s">
         <v>1673</v>
       </c>
-      <c r="BBB2" s="11" t="s">
+      <c r="BBC2" s="11" t="s">
         <v>1674</v>
       </c>
-      <c r="BBC2" s="11" t="s">
+      <c r="BBD2" s="11" t="s">
         <v>1675</v>
       </c>
-      <c r="BBD2" s="11" t="s">
+      <c r="BBE2" s="11" t="s">
         <v>1676</v>
       </c>
-      <c r="BBE2" s="11" t="s">
+      <c r="BBF2" s="11" t="s">
         <v>1677</v>
       </c>
-      <c r="BBF2" s="11" t="s">
+      <c r="BBG2" s="11" t="s">
         <v>1678</v>
       </c>
-      <c r="BBG2" s="11" t="s">
+      <c r="BBH2" s="11" t="s">
         <v>1679</v>
       </c>
-      <c r="BBH2" s="11" t="s">
+      <c r="BBI2" s="11" t="s">
         <v>1680</v>
       </c>
-      <c r="BBI2" s="11" t="s">
+      <c r="BBJ2" s="11" t="s">
         <v>1681</v>
       </c>
-      <c r="BBJ2" s="11" t="s">
+      <c r="BBK2" s="11" t="s">
         <v>1682</v>
       </c>
-      <c r="BBK2" s="11" t="s">
+      <c r="BBL2" s="11" t="s">
         <v>1683</v>
       </c>
-      <c r="BBL2" s="11" t="s">
+      <c r="BBM2" s="11" t="s">
         <v>1684</v>
       </c>
-      <c r="BBM2" s="11" t="s">
+      <c r="BBN2" s="11" t="s">
         <v>1685</v>
       </c>
-      <c r="BBN2" s="11" t="s">
+      <c r="BBO2" s="11" t="s">
         <v>1686</v>
       </c>
-      <c r="BBO2" s="11" t="s">
+      <c r="BBP2" s="11" t="s">
         <v>1687</v>
       </c>
-      <c r="BBP2" s="11" t="s">
+      <c r="BBQ2" s="11" t="s">
         <v>1688</v>
       </c>
-      <c r="BBQ2" s="11" t="s">
+      <c r="BBR2" s="11" t="s">
         <v>1689</v>
       </c>
-      <c r="BBR2" s="11" t="s">
+      <c r="BBS2" s="11" t="s">
         <v>1690</v>
       </c>
-      <c r="BBS2" s="11" t="s">
+      <c r="BBT2" s="11" t="s">
         <v>1691</v>
       </c>
-      <c r="BBT2" s="11" t="s">
+      <c r="BBU2" s="11" t="s">
         <v>1692</v>
       </c>
-      <c r="BBU2" s="11" t="s">
+      <c r="BBV2" s="11" t="s">
         <v>1693</v>
       </c>
-      <c r="BBV2" s="11" t="s">
+      <c r="BBW2" s="11" t="s">
         <v>1694</v>
       </c>
-      <c r="BBW2" s="11" t="s">
+      <c r="BBX2" s="11" t="s">
         <v>1695</v>
       </c>
-      <c r="BBX2" s="11" t="s">
+      <c r="BBY2" s="11" t="s">
         <v>1696</v>
       </c>
-      <c r="BBY2" s="11" t="s">
+      <c r="BBZ2" s="11" t="s">
         <v>1697</v>
       </c>
-      <c r="BBZ2" s="11" t="s">
+      <c r="BCA2" s="11" t="s">
         <v>1698</v>
       </c>
-      <c r="BCA2" s="11" t="s">
+      <c r="BCB2" s="11" t="s">
         <v>1699</v>
       </c>
-      <c r="BCB2" s="11" t="s">
+      <c r="BCC2" s="11" t="s">
         <v>1700</v>
       </c>
-      <c r="BCC2" s="11" t="s">
+      <c r="BCD2" s="11" t="s">
         <v>1701</v>
       </c>
-      <c r="BCD2" s="11" t="s">
+      <c r="BCE2" s="11" t="s">
         <v>1702</v>
       </c>
-      <c r="BCE2" s="11" t="s">
+      <c r="BCF2" s="11" t="s">
         <v>1703</v>
       </c>
-      <c r="BCF2" s="11" t="s">
+      <c r="BCG2" s="11" t="s">
         <v>1704</v>
       </c>
-      <c r="BCG2" s="11" t="s">
+      <c r="BCH2" s="11" t="s">
         <v>1705</v>
       </c>
-      <c r="BCH2" s="11" t="s">
+      <c r="BCI2" s="11" t="s">
         <v>1706</v>
       </c>
-      <c r="BCI2" s="11" t="s">
+      <c r="BCJ2" s="11" t="s">
         <v>1707</v>
       </c>
-      <c r="BCJ2" s="11" t="s">
+      <c r="BCK2" s="11" t="s">
         <v>1708</v>
       </c>
-      <c r="BCK2" s="11" t="s">
+      <c r="BCL2" s="11" t="s">
         <v>1709</v>
       </c>
-      <c r="BCL2" s="11" t="s">
+      <c r="BCM2" s="11" t="s">
         <v>1710</v>
       </c>
-      <c r="BCM2" s="11" t="s">
+      <c r="BCN2" s="11" t="s">
         <v>1711</v>
       </c>
-      <c r="BCN2" s="11" t="s">
+      <c r="BCO2" s="11" t="s">
         <v>1712</v>
       </c>
-      <c r="BCO2" s="11" t="s">
+      <c r="BCP2" s="11" t="s">
         <v>1713</v>
       </c>
-      <c r="BCP2" s="11" t="s">
+      <c r="BCQ2" s="11" t="s">
         <v>1714</v>
       </c>
-      <c r="BCQ2" s="11" t="s">
+      <c r="BCR2" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="BCR2" s="11" t="s">
+      <c r="BCS2" s="11" t="s">
         <v>1716</v>
       </c>
-      <c r="BCS2" s="11" t="s">
+      <c r="BCT2" s="11" t="s">
         <v>1717</v>
       </c>
-      <c r="BCT2" s="11" t="s">
+      <c r="BCU2" s="11" t="s">
         <v>1718</v>
       </c>
-      <c r="BCU2" s="11" t="s">
+      <c r="BCV2" s="11" t="s">
         <v>1719</v>
       </c>
-      <c r="BCV2" s="11" t="s">
+      <c r="BCW2" s="11" t="s">
         <v>1720</v>
       </c>
-      <c r="BCW2" s="11" t="s">
+      <c r="BCX2" s="11" t="s">
         <v>1721</v>
       </c>
-      <c r="BCX2" s="11" t="s">
+      <c r="BCY2" s="11" t="s">
         <v>1722</v>
       </c>
-      <c r="BCY2" s="11" t="s">
+      <c r="BCZ2" s="11" t="s">
         <v>1723</v>
       </c>
-      <c r="BCZ2" s="11" t="s">
+      <c r="BDA2" s="11" t="s">
         <v>1724</v>
       </c>
-      <c r="BDA2" s="11" t="s">
+      <c r="BDB2" s="11" t="s">
         <v>1725</v>
       </c>
-      <c r="BDB2" s="11" t="s">
+      <c r="BDC2" s="11" t="s">
         <v>1726</v>
       </c>
-      <c r="BDC2" s="11" t="s">
+      <c r="BDD2" s="11" t="s">
         <v>1727</v>
       </c>
-      <c r="BDD2" s="11" t="s">
+      <c r="BDE2" s="11" t="s">
         <v>1728</v>
       </c>
-      <c r="BDE2" s="11" t="s">
+      <c r="BDF2" s="11" t="s">
         <v>1729</v>
       </c>
-      <c r="BDF2" s="11" t="s">
+      <c r="BDG2" s="11" t="s">
         <v>1730</v>
       </c>
-      <c r="BDG2" s="11" t="s">
+      <c r="BDH2" s="11" t="s">
         <v>1731</v>
       </c>
-      <c r="BDH2" s="11" t="s">
+      <c r="BDI2" s="11" t="s">
         <v>1732</v>
       </c>
-      <c r="BDI2" s="11" t="s">
+      <c r="BDJ2" s="11" t="s">
         <v>1733</v>
       </c>
-      <c r="BDJ2" s="11" t="s">
+      <c r="BDK2" s="11" t="s">
         <v>1734</v>
       </c>
-      <c r="BDK2" s="11" t="s">
+      <c r="BDL2" s="11" t="s">
         <v>1735</v>
       </c>
-      <c r="BDL2" s="11" t="s">
+      <c r="BDM2" s="11" t="s">
         <v>1736</v>
       </c>
-      <c r="BDM2" s="11" t="s">
+      <c r="BDN2" s="11" t="s">
         <v>1737</v>
       </c>
-      <c r="BDN2" s="11" t="s">
+      <c r="BDO2" s="11" t="s">
         <v>1738</v>
       </c>
-      <c r="BDO2" s="11" t="s">
+      <c r="BDP2" s="11" t="s">
         <v>1739</v>
       </c>
-      <c r="BDP2" s="11" t="s">
+      <c r="BDQ2" s="11" t="s">
         <v>1740</v>
       </c>
-      <c r="BDQ2" s="11" t="s">
+      <c r="BDR2" s="11" t="s">
         <v>1741</v>
       </c>
-      <c r="BDR2" s="11" t="s">
+      <c r="BDS2" s="11" t="s">
         <v>1742</v>
-      </c>
-      <c r="BDS2" s="11" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="3" spans="1:1475" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>478</v>
@@ -17320,697 +17320,697 @@
         <v>913</v>
       </c>
       <c r="QF3" s="11" t="s">
+        <v>1743</v>
+      </c>
+      <c r="QG3" s="11" t="s">
         <v>1744</v>
       </c>
-      <c r="QG3" s="11" t="s">
+      <c r="QH3" s="11" t="s">
         <v>1745</v>
       </c>
-      <c r="QH3" s="11" t="s">
+      <c r="QI3" s="11" t="s">
         <v>1746</v>
       </c>
-      <c r="QI3" s="11" t="s">
+      <c r="QJ3" s="11" t="s">
         <v>1747</v>
       </c>
-      <c r="QJ3" s="11" t="s">
+      <c r="QK3" s="11" t="s">
+        <v>2705</v>
+      </c>
+      <c r="QL3" s="11" t="s">
         <v>1748</v>
       </c>
-      <c r="QK3" s="11" t="s">
-        <v>2706</v>
-      </c>
-      <c r="QL3" s="11" t="s">
+      <c r="QM3" s="11" t="s">
         <v>1749</v>
       </c>
-      <c r="QM3" s="11" t="s">
+      <c r="QN3" s="11" t="s">
         <v>1750</v>
       </c>
-      <c r="QN3" s="11" t="s">
+      <c r="QO3" s="11" t="s">
         <v>1751</v>
       </c>
-      <c r="QO3" s="11" t="s">
+      <c r="QP3" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="QP3" s="11" t="s">
+      <c r="QQ3" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="QQ3" s="11" t="s">
+      <c r="QR3" s="11" t="s">
         <v>1754</v>
-      </c>
-      <c r="QR3" s="11" t="s">
-        <v>1755</v>
       </c>
       <c r="QS3" s="11" t="s">
         <v>615</v>
       </c>
       <c r="QT3" s="11" t="s">
+        <v>1755</v>
+      </c>
+      <c r="QU3" s="11" t="s">
         <v>1756</v>
       </c>
-      <c r="QU3" s="11" t="s">
+      <c r="QV3" s="11" t="s">
         <v>1757</v>
       </c>
-      <c r="QV3" s="11" t="s">
+      <c r="QW3" s="11" t="s">
         <v>1758</v>
       </c>
-      <c r="QW3" s="11" t="s">
+      <c r="QX3" s="11" t="s">
         <v>1759</v>
       </c>
-      <c r="QX3" s="11" t="s">
+      <c r="QY3" s="11" t="s">
         <v>1760</v>
       </c>
-      <c r="QY3" s="11" t="s">
+      <c r="QZ3" s="11" t="s">
         <v>1761</v>
       </c>
-      <c r="QZ3" s="11" t="s">
+      <c r="RA3" s="11" t="s">
         <v>1762</v>
       </c>
-      <c r="RA3" s="11" t="s">
+      <c r="RB3" s="11" t="s">
         <v>1763</v>
       </c>
-      <c r="RB3" s="11" t="s">
+      <c r="RC3" s="11" t="s">
         <v>1764</v>
       </c>
-      <c r="RC3" s="11" t="s">
+      <c r="RD3" s="11" t="s">
         <v>1765</v>
       </c>
-      <c r="RD3" s="11" t="s">
+      <c r="RE3" s="11" t="s">
         <v>1766</v>
       </c>
-      <c r="RE3" s="11" t="s">
+      <c r="RF3" s="11" t="s">
         <v>1767</v>
       </c>
-      <c r="RF3" s="11" t="s">
+      <c r="RG3" s="11" t="s">
         <v>1768</v>
       </c>
-      <c r="RG3" s="11" t="s">
+      <c r="RH3" s="11" t="s">
         <v>1769</v>
       </c>
-      <c r="RH3" s="11" t="s">
+      <c r="RI3" s="11" t="s">
         <v>1770</v>
       </c>
-      <c r="RI3" s="11" t="s">
+      <c r="RJ3" s="11" t="s">
         <v>1771</v>
       </c>
-      <c r="RJ3" s="11" t="s">
+      <c r="RK3" s="11" t="s">
         <v>1772</v>
       </c>
-      <c r="RK3" s="11" t="s">
+      <c r="RL3" s="11" t="s">
         <v>1773</v>
       </c>
-      <c r="RL3" s="11" t="s">
+      <c r="RM3" s="11" t="s">
         <v>1774</v>
       </c>
-      <c r="RM3" s="11" t="s">
+      <c r="RN3" s="11" t="s">
         <v>1775</v>
       </c>
-      <c r="RN3" s="11" t="s">
+      <c r="RO3" s="11" t="s">
         <v>1776</v>
       </c>
-      <c r="RO3" s="11" t="s">
+      <c r="RP3" s="11" t="s">
         <v>1777</v>
       </c>
-      <c r="RP3" s="11" t="s">
+      <c r="RQ3" s="11" t="s">
         <v>1778</v>
       </c>
-      <c r="RQ3" s="11" t="s">
+      <c r="RR3" s="11" t="s">
         <v>1779</v>
       </c>
-      <c r="RR3" s="11" t="s">
+      <c r="RS3" s="11" t="s">
         <v>1780</v>
       </c>
-      <c r="RS3" s="11" t="s">
+      <c r="RT3" s="11" t="s">
         <v>1781</v>
       </c>
-      <c r="RT3" s="11" t="s">
+      <c r="RU3" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="RU3" s="11" t="s">
+      <c r="RV3" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="RV3" s="11" t="s">
+      <c r="RW3" s="11" t="s">
         <v>1784</v>
       </c>
-      <c r="RW3" s="11" t="s">
+      <c r="RX3" s="11" t="s">
         <v>1785</v>
       </c>
-      <c r="RX3" s="11" t="s">
+      <c r="RY3" s="11" t="s">
         <v>1786</v>
       </c>
-      <c r="RY3" s="11" t="s">
+      <c r="RZ3" s="11" t="s">
         <v>1787</v>
       </c>
-      <c r="RZ3" s="11" t="s">
+      <c r="SA3" s="11" t="s">
         <v>1788</v>
       </c>
-      <c r="SA3" s="11" t="s">
+      <c r="SB3" s="11" t="s">
         <v>1789</v>
       </c>
-      <c r="SB3" s="11" t="s">
+      <c r="SC3" s="11" t="s">
         <v>1790</v>
       </c>
-      <c r="SC3" s="11" t="s">
+      <c r="SD3" s="11" t="s">
         <v>1791</v>
       </c>
-      <c r="SD3" s="11" t="s">
+      <c r="SE3" s="11" t="s">
         <v>1792</v>
       </c>
-      <c r="SE3" s="11" t="s">
+      <c r="SF3" s="11" t="s">
         <v>1793</v>
       </c>
-      <c r="SF3" s="11" t="s">
+      <c r="SG3" s="11" t="s">
         <v>1794</v>
       </c>
-      <c r="SG3" s="11" t="s">
+      <c r="SH3" s="11" t="s">
         <v>1795</v>
       </c>
-      <c r="SH3" s="11" t="s">
+      <c r="SI3" s="11" t="s">
         <v>1796</v>
       </c>
-      <c r="SI3" s="11" t="s">
+      <c r="SJ3" s="11" t="s">
         <v>1797</v>
       </c>
-      <c r="SJ3" s="11" t="s">
+      <c r="SK3" s="11" t="s">
         <v>1798</v>
       </c>
-      <c r="SK3" s="11" t="s">
+      <c r="SL3" s="11" t="s">
         <v>1799</v>
       </c>
-      <c r="SL3" s="11" t="s">
+      <c r="SM3" s="11" t="s">
         <v>1800</v>
       </c>
-      <c r="SM3" s="11" t="s">
+      <c r="SN3" s="11" t="s">
         <v>1801</v>
       </c>
-      <c r="SN3" s="11" t="s">
+      <c r="SO3" s="11" t="s">
         <v>1802</v>
       </c>
-      <c r="SO3" s="11" t="s">
+      <c r="SP3" s="11" t="s">
         <v>1803</v>
       </c>
-      <c r="SP3" s="11" t="s">
+      <c r="SQ3" s="11" t="s">
         <v>1804</v>
       </c>
-      <c r="SQ3" s="11" t="s">
+      <c r="SR3" s="11" t="s">
         <v>1805</v>
       </c>
-      <c r="SR3" s="11" t="s">
+      <c r="SS3" s="11" t="s">
         <v>1806</v>
       </c>
-      <c r="SS3" s="11" t="s">
+      <c r="ST3" s="11" t="s">
         <v>1807</v>
       </c>
-      <c r="ST3" s="11" t="s">
+      <c r="SU3" s="11" t="s">
         <v>1808</v>
       </c>
-      <c r="SU3" s="11" t="s">
+      <c r="SV3" s="11" t="s">
         <v>1809</v>
       </c>
-      <c r="SV3" s="11" t="s">
+      <c r="SW3" s="11" t="s">
         <v>1810</v>
       </c>
-      <c r="SW3" s="11" t="s">
+      <c r="SX3" s="11" t="s">
         <v>1811</v>
       </c>
-      <c r="SX3" s="11" t="s">
+      <c r="SY3" s="11" t="s">
         <v>1812</v>
       </c>
-      <c r="SY3" s="11" t="s">
+      <c r="SZ3" s="11" t="s">
         <v>1813</v>
       </c>
-      <c r="SZ3" s="11" t="s">
+      <c r="TA3" s="11" t="s">
         <v>1814</v>
       </c>
-      <c r="TA3" s="11" t="s">
+      <c r="TB3" s="11" t="s">
         <v>1815</v>
       </c>
-      <c r="TB3" s="11" t="s">
+      <c r="TC3" s="11" t="s">
         <v>1816</v>
       </c>
-      <c r="TC3" s="11" t="s">
+      <c r="TD3" s="11" t="s">
         <v>1817</v>
       </c>
-      <c r="TD3" s="11" t="s">
+      <c r="TE3" s="11" t="s">
         <v>1818</v>
       </c>
-      <c r="TE3" s="11" t="s">
+      <c r="TF3" s="11" t="s">
         <v>1819</v>
-      </c>
-      <c r="TF3" s="11" t="s">
-        <v>1820</v>
       </c>
       <c r="TG3" s="11" t="s">
         <v>497</v>
       </c>
       <c r="TH3" s="11" t="s">
+        <v>1820</v>
+      </c>
+      <c r="TI3" s="11" t="s">
         <v>1821</v>
       </c>
-      <c r="TI3" s="11" t="s">
+      <c r="TJ3" s="11" t="s">
         <v>1822</v>
       </c>
-      <c r="TJ3" s="11" t="s">
+      <c r="TK3" s="11" t="s">
         <v>1823</v>
       </c>
-      <c r="TK3" s="11" t="s">
+      <c r="TL3" s="11" t="s">
         <v>1824</v>
       </c>
-      <c r="TL3" s="11" t="s">
+      <c r="TM3" s="11" t="s">
         <v>1825</v>
       </c>
-      <c r="TM3" s="11" t="s">
+      <c r="TN3" s="11" t="s">
         <v>1826</v>
       </c>
-      <c r="TN3" s="11" t="s">
+      <c r="TO3" s="11" t="s">
         <v>1827</v>
       </c>
-      <c r="TO3" s="11" t="s">
+      <c r="TP3" s="11" t="s">
         <v>1828</v>
       </c>
-      <c r="TP3" s="11" t="s">
+      <c r="TQ3" s="11" t="s">
         <v>1829</v>
       </c>
-      <c r="TQ3" s="11" t="s">
+      <c r="TR3" s="11" t="s">
         <v>1830</v>
       </c>
-      <c r="TR3" s="11" t="s">
+      <c r="TS3" s="11" t="s">
         <v>1831</v>
       </c>
-      <c r="TS3" s="11" t="s">
+      <c r="TT3" s="11" t="s">
         <v>1832</v>
       </c>
-      <c r="TT3" s="11" t="s">
+      <c r="TU3" s="11" t="s">
         <v>1833</v>
       </c>
-      <c r="TU3" s="11" t="s">
+      <c r="TV3" s="11" t="s">
         <v>1834</v>
       </c>
-      <c r="TV3" s="11" t="s">
+      <c r="TW3" s="11" t="s">
         <v>1835</v>
       </c>
-      <c r="TW3" s="11" t="s">
+      <c r="TX3" s="11" t="s">
         <v>1836</v>
       </c>
-      <c r="TX3" s="11" t="s">
+      <c r="TY3" s="11" t="s">
         <v>1837</v>
       </c>
-      <c r="TY3" s="11" t="s">
+      <c r="TZ3" s="11" t="s">
         <v>1838</v>
       </c>
-      <c r="TZ3" s="11" t="s">
+      <c r="UA3" s="11" t="s">
         <v>1839</v>
       </c>
-      <c r="UA3" s="11" t="s">
+      <c r="UB3" s="11" t="s">
         <v>1840</v>
       </c>
-      <c r="UB3" s="11" t="s">
+      <c r="UC3" s="11" t="s">
         <v>1841</v>
       </c>
-      <c r="UC3" s="11" t="s">
+      <c r="UD3" s="11" t="s">
         <v>1842</v>
       </c>
-      <c r="UD3" s="11" t="s">
+      <c r="UE3" s="11" t="s">
         <v>1843</v>
       </c>
-      <c r="UE3" s="11" t="s">
+      <c r="UF3" s="11" t="s">
         <v>1844</v>
       </c>
-      <c r="UF3" s="11" t="s">
+      <c r="UG3" s="11" t="s">
         <v>1845</v>
       </c>
-      <c r="UG3" s="11" t="s">
+      <c r="UH3" s="11" t="s">
         <v>1846</v>
-      </c>
-      <c r="UH3" s="11" t="s">
-        <v>1847</v>
       </c>
       <c r="UI3" s="11" t="s">
         <v>839</v>
       </c>
       <c r="UJ3" s="11" t="s">
+        <v>1847</v>
+      </c>
+      <c r="UK3" s="11" t="s">
         <v>1848</v>
       </c>
-      <c r="UK3" s="11" t="s">
+      <c r="UL3" s="11" t="s">
         <v>1849</v>
       </c>
-      <c r="UL3" s="11" t="s">
+      <c r="UM3" s="11" t="s">
         <v>1850</v>
       </c>
-      <c r="UM3" s="11" t="s">
-        <v>1851</v>
-      </c>
       <c r="UN3" s="11" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="UO3" s="11" t="s">
         <v>636</v>
       </c>
       <c r="UP3" s="11" t="s">
+        <v>1851</v>
+      </c>
+      <c r="UQ3" s="11" t="s">
         <v>1852</v>
       </c>
-      <c r="UQ3" s="11" t="s">
+      <c r="UR3" s="11" t="s">
         <v>1853</v>
       </c>
-      <c r="UR3" s="11" t="s">
+      <c r="US3" s="11" t="s">
         <v>1854</v>
       </c>
-      <c r="US3" s="11" t="s">
+      <c r="UT3" s="11" t="s">
         <v>1855</v>
       </c>
-      <c r="UT3" s="11" t="s">
+      <c r="UU3" s="11" t="s">
         <v>1856</v>
       </c>
-      <c r="UU3" s="11" t="s">
+      <c r="UV3" s="11" t="s">
         <v>1857</v>
       </c>
-      <c r="UV3" s="11" t="s">
+      <c r="UW3" s="11" t="s">
         <v>1858</v>
       </c>
-      <c r="UW3" s="11" t="s">
+      <c r="UX3" s="11" t="s">
         <v>1859</v>
       </c>
-      <c r="UX3" s="11" t="s">
+      <c r="UY3" s="11" t="s">
         <v>1860</v>
       </c>
-      <c r="UY3" s="11" t="s">
+      <c r="UZ3" s="11" t="s">
         <v>1861</v>
       </c>
-      <c r="UZ3" s="11" t="s">
+      <c r="VA3" s="11" t="s">
         <v>1862</v>
       </c>
-      <c r="VA3" s="11" t="s">
+      <c r="VB3" s="11" t="s">
         <v>1863</v>
       </c>
-      <c r="VB3" s="11" t="s">
+      <c r="VC3" s="11" t="s">
         <v>1864</v>
       </c>
-      <c r="VC3" s="11" t="s">
+      <c r="VD3" s="11" t="s">
         <v>1865</v>
       </c>
-      <c r="VD3" s="11" t="s">
+      <c r="VE3" s="11" t="s">
         <v>1866</v>
       </c>
-      <c r="VE3" s="11" t="s">
+      <c r="VF3" s="11" t="s">
         <v>1867</v>
       </c>
-      <c r="VF3" s="11" t="s">
+      <c r="VG3" s="11" t="s">
         <v>1868</v>
       </c>
-      <c r="VG3" s="11" t="s">
+      <c r="VH3" s="11" t="s">
         <v>1869</v>
       </c>
-      <c r="VH3" s="11" t="s">
+      <c r="VI3" s="11" t="s">
         <v>1870</v>
       </c>
-      <c r="VI3" s="11" t="s">
+      <c r="VJ3" s="11" t="s">
         <v>1871</v>
-      </c>
-      <c r="VJ3" s="11" t="s">
-        <v>1872</v>
       </c>
       <c r="VK3" s="11" t="s">
         <v>671</v>
       </c>
       <c r="VL3" s="11" t="s">
+        <v>1872</v>
+      </c>
+      <c r="VM3" s="11" t="s">
         <v>1873</v>
       </c>
-      <c r="VM3" s="11" t="s">
+      <c r="VN3" s="11" t="s">
         <v>1874</v>
       </c>
-      <c r="VN3" s="11" t="s">
+      <c r="VO3" s="11" t="s">
         <v>1875</v>
       </c>
-      <c r="VO3" s="11" t="s">
+      <c r="VP3" s="11" t="s">
         <v>1876</v>
       </c>
-      <c r="VP3" s="11" t="s">
+      <c r="VQ3" s="11" t="s">
         <v>1877</v>
-      </c>
-      <c r="VQ3" s="11" t="s">
-        <v>1878</v>
       </c>
       <c r="VR3" s="11" t="s">
         <v>882</v>
       </c>
       <c r="VS3" s="11" t="s">
+        <v>1878</v>
+      </c>
+      <c r="VT3" s="11" t="s">
         <v>1879</v>
       </c>
-      <c r="VT3" s="11" t="s">
+      <c r="VU3" s="11" t="s">
         <v>1880</v>
       </c>
-      <c r="VU3" s="11" t="s">
+      <c r="VV3" s="11" t="s">
         <v>1881</v>
       </c>
-      <c r="VV3" s="11" t="s">
+      <c r="VW3" s="11" t="s">
         <v>1882</v>
       </c>
-      <c r="VW3" s="11" t="s">
+      <c r="VX3" s="11" t="s">
         <v>1883</v>
       </c>
-      <c r="VX3" s="11" t="s">
+      <c r="VY3" s="11" t="s">
         <v>1884</v>
       </c>
-      <c r="VY3" s="11" t="s">
+      <c r="VZ3" s="11" t="s">
         <v>1885</v>
       </c>
-      <c r="VZ3" s="11" t="s">
+      <c r="WA3" s="11" t="s">
         <v>1886</v>
       </c>
-      <c r="WA3" s="11" t="s">
+      <c r="WB3" s="11" t="s">
         <v>1887</v>
       </c>
-      <c r="WB3" s="11" t="s">
+      <c r="WC3" s="11" t="s">
         <v>1888</v>
       </c>
-      <c r="WC3" s="11" t="s">
+      <c r="WD3" s="11" t="s">
         <v>1889</v>
       </c>
-      <c r="WD3" s="11" t="s">
+      <c r="WE3" s="11" t="s">
         <v>1890</v>
       </c>
-      <c r="WE3" s="11" t="s">
+      <c r="WF3" s="11" t="s">
         <v>1891</v>
       </c>
-      <c r="WF3" s="11" t="s">
+      <c r="WG3" s="11" t="s">
         <v>1892</v>
       </c>
-      <c r="WG3" s="11" t="s">
+      <c r="WH3" s="11" t="s">
         <v>1893</v>
       </c>
-      <c r="WH3" s="11" t="s">
+      <c r="WI3" s="11" t="s">
         <v>1894</v>
       </c>
-      <c r="WI3" s="11" t="s">
+      <c r="WJ3" s="11" t="s">
         <v>1895</v>
       </c>
-      <c r="WJ3" s="11" t="s">
+      <c r="WK3" s="11" t="s">
         <v>1896</v>
       </c>
-      <c r="WK3" s="11" t="s">
+      <c r="WL3" s="11" t="s">
         <v>1897</v>
       </c>
-      <c r="WL3" s="11" t="s">
+      <c r="WM3" s="11" t="s">
         <v>1898</v>
       </c>
-      <c r="WM3" s="11" t="s">
+      <c r="WN3" s="11" t="s">
         <v>1899</v>
       </c>
-      <c r="WN3" s="11" t="s">
+      <c r="WO3" s="11" t="s">
         <v>1900</v>
       </c>
-      <c r="WO3" s="11" t="s">
+      <c r="WP3" s="11" t="s">
         <v>1901</v>
       </c>
-      <c r="WP3" s="11" t="s">
+      <c r="WQ3" s="11" t="s">
         <v>1902</v>
       </c>
-      <c r="WQ3" s="11" t="s">
+      <c r="WR3" s="11" t="s">
         <v>1903</v>
       </c>
-      <c r="WR3" s="11" t="s">
+      <c r="WS3" s="11" t="s">
         <v>1904</v>
       </c>
-      <c r="WS3" s="11" t="s">
+      <c r="WT3" s="11" t="s">
         <v>1905</v>
       </c>
-      <c r="WT3" s="11" t="s">
+      <c r="WU3" s="11" t="s">
         <v>1906</v>
-      </c>
-      <c r="WU3" s="11" t="s">
-        <v>1907</v>
       </c>
       <c r="WV3" s="11" t="s">
         <v>602</v>
       </c>
       <c r="WW3" s="11" t="s">
+        <v>1907</v>
+      </c>
+      <c r="WX3" s="11" t="s">
         <v>1908</v>
       </c>
-      <c r="WX3" s="11" t="s">
+      <c r="WY3" s="11" t="s">
         <v>1909</v>
       </c>
-      <c r="WY3" s="11" t="s">
+      <c r="WZ3" s="11" t="s">
         <v>1910</v>
       </c>
-      <c r="WZ3" s="11" t="s">
+      <c r="XA3" s="11" t="s">
         <v>1911</v>
       </c>
-      <c r="XA3" s="11" t="s">
+      <c r="XB3" s="11" t="s">
         <v>1912</v>
       </c>
-      <c r="XB3" s="11" t="s">
+      <c r="XC3" s="11" t="s">
         <v>1913</v>
       </c>
-      <c r="XC3" s="11" t="s">
+      <c r="XD3" s="11" t="s">
         <v>1914</v>
       </c>
-      <c r="XD3" s="11" t="s">
+      <c r="XE3" s="11" t="s">
         <v>1915</v>
       </c>
-      <c r="XE3" s="11" t="s">
+      <c r="XF3" s="11" t="s">
         <v>1916</v>
       </c>
-      <c r="XF3" s="11" t="s">
+      <c r="XG3" s="11" t="s">
         <v>1917</v>
       </c>
-      <c r="XG3" s="11" t="s">
+      <c r="XH3" s="11" t="s">
         <v>1918</v>
-      </c>
-      <c r="XH3" s="11" t="s">
-        <v>1919</v>
       </c>
       <c r="XI3" s="11" t="s">
         <v>736</v>
       </c>
       <c r="XJ3" s="11" t="s">
+        <v>1919</v>
+      </c>
+      <c r="XK3" s="11" t="s">
         <v>1920</v>
       </c>
-      <c r="XK3" s="11" t="s">
+      <c r="XL3" s="11" t="s">
         <v>1921</v>
       </c>
-      <c r="XL3" s="11" t="s">
+      <c r="XM3" s="11" t="s">
         <v>1922</v>
       </c>
-      <c r="XM3" s="11" t="s">
+      <c r="XN3" s="11" t="s">
         <v>1923</v>
       </c>
-      <c r="XN3" s="11" t="s">
+      <c r="XO3" s="11" t="s">
         <v>1924</v>
-      </c>
-      <c r="XO3" s="11" t="s">
-        <v>1925</v>
       </c>
       <c r="XP3" s="11" t="s">
         <v>625</v>
       </c>
       <c r="XQ3" s="11" t="s">
+        <v>1925</v>
+      </c>
+      <c r="XR3" s="11" t="s">
         <v>1926</v>
       </c>
-      <c r="XR3" s="11" t="s">
+      <c r="XS3" s="11" t="s">
         <v>1927</v>
       </c>
-      <c r="XS3" s="11" t="s">
+      <c r="XT3" s="11" t="s">
         <v>1928</v>
       </c>
-      <c r="XT3" s="11" t="s">
+      <c r="XU3" s="11" t="s">
         <v>1929</v>
       </c>
-      <c r="XU3" s="11" t="s">
+      <c r="XV3" s="11" t="s">
         <v>1930</v>
       </c>
-      <c r="XV3" s="11" t="s">
+      <c r="XW3" s="11" t="s">
         <v>1931</v>
       </c>
-      <c r="XW3" s="11" t="s">
+      <c r="XX3" s="11" t="s">
         <v>1932</v>
       </c>
-      <c r="XX3" s="11" t="s">
+      <c r="XY3" s="11" t="s">
         <v>1933</v>
       </c>
-      <c r="XY3" s="11" t="s">
+      <c r="XZ3" s="11" t="s">
         <v>1934</v>
       </c>
-      <c r="XZ3" s="11" t="s">
+      <c r="YA3" s="11" t="s">
         <v>1935</v>
       </c>
-      <c r="YA3" s="11" t="s">
+      <c r="YB3" s="11" t="s">
         <v>1936</v>
       </c>
-      <c r="YB3" s="11" t="s">
+      <c r="YC3" s="11" t="s">
         <v>1937</v>
       </c>
-      <c r="YC3" s="11" t="s">
+      <c r="YD3" s="11" t="s">
         <v>1938</v>
       </c>
-      <c r="YD3" s="11" t="s">
+      <c r="YE3" s="11" t="s">
         <v>1939</v>
       </c>
-      <c r="YE3" s="11" t="s">
+      <c r="YF3" s="11" t="s">
         <v>1940</v>
       </c>
-      <c r="YF3" s="11" t="s">
+      <c r="YG3" s="11" t="s">
         <v>1941</v>
       </c>
-      <c r="YG3" s="11" t="s">
+      <c r="YH3" s="11" t="s">
         <v>1942</v>
       </c>
-      <c r="YH3" s="11" t="s">
+      <c r="YI3" s="11" t="s">
         <v>1943</v>
       </c>
-      <c r="YI3" s="11" t="s">
+      <c r="YJ3" s="11" t="s">
         <v>1944</v>
       </c>
-      <c r="YJ3" s="11" t="s">
+      <c r="YK3" s="11" t="s">
         <v>1945</v>
       </c>
-      <c r="YK3" s="11" t="s">
+      <c r="YL3" s="11" t="s">
         <v>1946</v>
       </c>
-      <c r="YL3" s="11" t="s">
+      <c r="YM3" s="11" t="s">
         <v>1947</v>
       </c>
-      <c r="YM3" s="11" t="s">
+      <c r="YN3" s="11" t="s">
         <v>1948</v>
       </c>
-      <c r="YN3" s="11" t="s">
+      <c r="YO3" s="11" t="s">
         <v>1949</v>
       </c>
-      <c r="YO3" s="11" t="s">
+      <c r="YP3" s="11" t="s">
         <v>1950</v>
       </c>
-      <c r="YP3" s="11" t="s">
+      <c r="YQ3" s="11" t="s">
         <v>1951</v>
       </c>
-      <c r="YQ3" s="11" t="s">
+      <c r="YR3" s="11" t="s">
         <v>1952</v>
       </c>
-      <c r="YR3" s="11" t="s">
+      <c r="YS3" s="11" t="s">
         <v>1953</v>
       </c>
-      <c r="YS3" s="11" t="s">
+      <c r="YT3" s="11" t="s">
         <v>1954</v>
       </c>
-      <c r="YT3" s="11" t="s">
+      <c r="YU3" s="11" t="s">
         <v>1955</v>
       </c>
-      <c r="YU3" s="11" t="s">
+      <c r="YV3" s="11" t="s">
         <v>1956</v>
       </c>
-      <c r="YV3" s="11" t="s">
+      <c r="YW3" s="11" t="s">
         <v>1957</v>
       </c>
-      <c r="YW3" s="11" t="s">
+      <c r="YX3" s="11" t="s">
         <v>1958</v>
       </c>
-      <c r="YX3" s="11" t="s">
+      <c r="YY3" s="11" t="s">
         <v>1959</v>
       </c>
-      <c r="YY3" s="11" t="s">
+      <c r="YZ3" s="11" t="s">
         <v>1960</v>
       </c>
-      <c r="YZ3" s="11" t="s">
+      <c r="ZA3" s="11" t="s">
         <v>1961</v>
       </c>
-      <c r="ZA3" s="11" t="s">
+      <c r="ZB3" s="11" t="s">
         <v>1962</v>
-      </c>
-      <c r="ZB3" s="11" t="s">
-        <v>1963</v>
       </c>
       <c r="ZC3" s="11" t="s">
         <v>881</v>
@@ -18019,31 +18019,31 @@
         <v>882</v>
       </c>
       <c r="ZE3" s="11" t="s">
+        <v>1963</v>
+      </c>
+      <c r="ZF3" s="11" t="s">
         <v>1964</v>
       </c>
-      <c r="ZF3" s="11" t="s">
+      <c r="ZG3" s="11" t="s">
         <v>1965</v>
       </c>
-      <c r="ZG3" s="11" t="s">
+      <c r="ZH3" s="11" t="s">
         <v>1966</v>
       </c>
-      <c r="ZH3" s="11" t="s">
+      <c r="ZI3" s="11" t="s">
         <v>1967</v>
       </c>
-      <c r="ZI3" s="11" t="s">
+      <c r="ZJ3" s="11" t="s">
         <v>1968</v>
       </c>
-      <c r="ZJ3" s="11" t="s">
+      <c r="ZK3" s="11" t="s">
         <v>1969</v>
       </c>
-      <c r="ZK3" s="11" t="s">
+      <c r="ZL3" s="11" t="s">
         <v>1970</v>
       </c>
-      <c r="ZL3" s="11" t="s">
+      <c r="ZM3" s="11" t="s">
         <v>1971</v>
-      </c>
-      <c r="ZM3" s="11" t="s">
-        <v>1972</v>
       </c>
       <c r="ZN3" s="11" t="s">
         <v>566</v>
@@ -18052,2179 +18052,2179 @@
         <v>566</v>
       </c>
       <c r="ZP3" s="11" t="s">
+        <v>1972</v>
+      </c>
+      <c r="ZQ3" s="11" t="s">
         <v>1973</v>
       </c>
-      <c r="ZQ3" s="11" t="s">
+      <c r="ZR3" s="11" t="s">
         <v>1974</v>
       </c>
-      <c r="ZR3" s="11" t="s">
+      <c r="ZS3" s="11" t="s">
         <v>1975</v>
       </c>
-      <c r="ZS3" s="11" t="s">
+      <c r="ZT3" s="11" t="s">
         <v>1976</v>
       </c>
-      <c r="ZT3" s="11" t="s">
+      <c r="ZU3" s="11" t="s">
         <v>1977</v>
       </c>
-      <c r="ZU3" s="11" t="s">
+      <c r="ZV3" s="11" t="s">
         <v>1978</v>
       </c>
-      <c r="ZV3" s="11" t="s">
+      <c r="ZW3" s="11" t="s">
         <v>1979</v>
       </c>
-      <c r="ZW3" s="11" t="s">
+      <c r="ZX3" s="11" t="s">
         <v>1980</v>
       </c>
-      <c r="ZX3" s="11" t="s">
+      <c r="ZY3" s="11" t="s">
         <v>1981</v>
       </c>
-      <c r="ZY3" s="11" t="s">
+      <c r="ZZ3" s="11" t="s">
         <v>1982</v>
       </c>
-      <c r="ZZ3" s="11" t="s">
+      <c r="AAA3" s="11" t="s">
         <v>1983</v>
       </c>
-      <c r="AAA3" s="11" t="s">
+      <c r="AAB3" s="11" t="s">
         <v>1984</v>
       </c>
-      <c r="AAB3" s="11" t="s">
+      <c r="AAC3" s="11" t="s">
         <v>1985</v>
       </c>
-      <c r="AAC3" s="11" t="s">
+      <c r="AAD3" s="11" t="s">
         <v>1986</v>
       </c>
-      <c r="AAD3" s="11" t="s">
+      <c r="AAE3" s="11" t="s">
         <v>1987</v>
-      </c>
-      <c r="AAE3" s="11" t="s">
-        <v>1988</v>
       </c>
       <c r="AAF3" s="11" t="s">
         <v>900</v>
       </c>
       <c r="AAG3" s="11" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AAH3" s="11" t="s">
         <v>1989</v>
       </c>
-      <c r="AAH3" s="11" t="s">
+      <c r="AAI3" s="11" t="s">
         <v>1990</v>
       </c>
-      <c r="AAI3" s="11" t="s">
+      <c r="AAJ3" s="11" t="s">
         <v>1991</v>
       </c>
-      <c r="AAJ3" s="11" t="s">
+      <c r="AAK3" s="11" t="s">
         <v>1992</v>
       </c>
-      <c r="AAK3" s="11" t="s">
+      <c r="AAL3" s="11" t="s">
         <v>1993</v>
       </c>
-      <c r="AAL3" s="11" t="s">
+      <c r="AAM3" s="11" t="s">
         <v>1994</v>
       </c>
-      <c r="AAM3" s="11" t="s">
+      <c r="AAN3" s="11" t="s">
         <v>1995</v>
       </c>
-      <c r="AAN3" s="11" t="s">
+      <c r="AAO3" s="11" t="s">
         <v>1996</v>
       </c>
-      <c r="AAO3" s="11" t="s">
+      <c r="AAP3" s="11" t="s">
         <v>1997</v>
       </c>
-      <c r="AAP3" s="11" t="s">
+      <c r="AAQ3" s="11" t="s">
         <v>1998</v>
       </c>
-      <c r="AAQ3" s="11" t="s">
+      <c r="AAR3" s="11" t="s">
         <v>1999</v>
       </c>
-      <c r="AAR3" s="11" t="s">
+      <c r="AAS3" s="11" t="s">
         <v>2000</v>
       </c>
-      <c r="AAS3" s="11" t="s">
+      <c r="AAT3" s="11" t="s">
         <v>2001</v>
       </c>
-      <c r="AAT3" s="11" t="s">
+      <c r="AAU3" s="11" t="s">
         <v>2002</v>
       </c>
-      <c r="AAU3" s="11" t="s">
+      <c r="AAV3" s="11" t="s">
         <v>2003</v>
       </c>
-      <c r="AAV3" s="11" t="s">
+      <c r="AAW3" s="11" t="s">
         <v>2004</v>
       </c>
-      <c r="AAW3" s="11" t="s">
+      <c r="AAX3" s="11" t="s">
         <v>2005</v>
       </c>
-      <c r="AAX3" s="11" t="s">
+      <c r="AAY3" s="11" t="s">
         <v>2006</v>
       </c>
-      <c r="AAY3" s="11" t="s">
+      <c r="AAZ3" s="11" t="s">
         <v>2007</v>
       </c>
-      <c r="AAZ3" s="11" t="s">
+      <c r="ABA3" s="11" t="s">
         <v>2008</v>
       </c>
-      <c r="ABA3" s="11" t="s">
+      <c r="ABB3" s="11" t="s">
         <v>2009</v>
       </c>
-      <c r="ABB3" s="11" t="s">
+      <c r="ABC3" s="11" t="s">
         <v>2010</v>
-      </c>
-      <c r="ABC3" s="11" t="s">
-        <v>2011</v>
       </c>
       <c r="ABD3" s="11" t="s">
         <v>508</v>
       </c>
       <c r="ABE3" s="11" t="s">
+        <v>2011</v>
+      </c>
+      <c r="ABF3" s="11" t="s">
         <v>2012</v>
       </c>
-      <c r="ABF3" s="11" t="s">
+      <c r="ABG3" s="11" t="s">
         <v>2013</v>
       </c>
-      <c r="ABG3" s="11" t="s">
+      <c r="ABH3" s="11" t="s">
         <v>2014</v>
       </c>
-      <c r="ABH3" s="11" t="s">
+      <c r="ABI3" s="11" t="s">
         <v>2015</v>
       </c>
-      <c r="ABI3" s="11" t="s">
+      <c r="ABJ3" s="11" t="s">
         <v>2016</v>
       </c>
-      <c r="ABJ3" s="11" t="s">
+      <c r="ABK3" s="11" t="s">
         <v>2017</v>
       </c>
-      <c r="ABK3" s="11" t="s">
+      <c r="ABL3" s="11" t="s">
         <v>2018</v>
       </c>
-      <c r="ABL3" s="11" t="s">
+      <c r="ABM3" s="11" t="s">
         <v>2019</v>
       </c>
-      <c r="ABM3" s="11" t="s">
+      <c r="ABN3" s="11" t="s">
         <v>2020</v>
       </c>
-      <c r="ABN3" s="11" t="s">
+      <c r="ABO3" s="11" t="s">
         <v>2021</v>
       </c>
-      <c r="ABO3" s="11" t="s">
+      <c r="ABP3" s="11" t="s">
         <v>2022</v>
       </c>
-      <c r="ABP3" s="11" t="s">
+      <c r="ABQ3" s="11" t="s">
         <v>2023</v>
       </c>
-      <c r="ABQ3" s="11" t="s">
+      <c r="ABR3" s="11" t="s">
         <v>2024</v>
       </c>
-      <c r="ABR3" s="11" t="s">
+      <c r="ABS3" s="11" t="s">
         <v>2025</v>
       </c>
-      <c r="ABS3" s="11" t="s">
+      <c r="ABT3" s="11" t="s">
         <v>2026</v>
       </c>
-      <c r="ABT3" s="11" t="s">
+      <c r="ABU3" s="11" t="s">
         <v>2027</v>
       </c>
-      <c r="ABU3" s="11" t="s">
+      <c r="ABV3" s="11" t="s">
         <v>2028</v>
       </c>
-      <c r="ABV3" s="11" t="s">
+      <c r="ABW3" s="11" t="s">
         <v>2029</v>
       </c>
-      <c r="ABW3" s="11" t="s">
+      <c r="ABX3" s="11" t="s">
         <v>2030</v>
       </c>
-      <c r="ABX3" s="11" t="s">
+      <c r="ABY3" s="11" t="s">
         <v>2031</v>
-      </c>
-      <c r="ABY3" s="11" t="s">
-        <v>2032</v>
       </c>
       <c r="ABZ3" s="11" t="s">
         <v>625</v>
       </c>
       <c r="ACA3" s="11" t="s">
+        <v>2032</v>
+      </c>
+      <c r="ACB3" s="11" t="s">
         <v>2033</v>
       </c>
-      <c r="ACB3" s="11" t="s">
+      <c r="ACC3" s="11" t="s">
         <v>2034</v>
       </c>
-      <c r="ACC3" s="11" t="s">
+      <c r="ACD3" s="11" t="s">
         <v>2035</v>
       </c>
-      <c r="ACD3" s="11" t="s">
+      <c r="ACE3" s="11" t="s">
         <v>2036</v>
       </c>
-      <c r="ACE3" s="11" t="s">
+      <c r="ACF3" s="11" t="s">
         <v>2037</v>
       </c>
-      <c r="ACF3" s="11" t="s">
+      <c r="ACG3" s="11" t="s">
         <v>2038</v>
       </c>
-      <c r="ACG3" s="11" t="s">
+      <c r="ACH3" s="11" t="s">
         <v>2039</v>
       </c>
-      <c r="ACH3" s="11" t="s">
+      <c r="ACI3" s="11" t="s">
         <v>2040</v>
       </c>
-      <c r="ACI3" s="11" t="s">
+      <c r="ACJ3" s="11" t="s">
         <v>2041</v>
       </c>
-      <c r="ACJ3" s="11" t="s">
+      <c r="ACK3" s="11" t="s">
         <v>2042</v>
       </c>
-      <c r="ACK3" s="11" t="s">
+      <c r="ACL3" s="11" t="s">
         <v>2043</v>
-      </c>
-      <c r="ACL3" s="11" t="s">
-        <v>2044</v>
       </c>
       <c r="ACM3" s="11" t="s">
         <v>637</v>
       </c>
       <c r="ACN3" s="11" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="ACO3" s="11" t="s">
         <v>638</v>
       </c>
       <c r="ACP3" s="11" t="s">
+        <v>2045</v>
+      </c>
+      <c r="ACQ3" s="11" t="s">
         <v>2046</v>
       </c>
-      <c r="ACQ3" s="11" t="s">
+      <c r="ACR3" s="11" t="s">
         <v>2047</v>
       </c>
-      <c r="ACR3" s="11" t="s">
+      <c r="ACS3" s="11" t="s">
         <v>2048</v>
       </c>
-      <c r="ACS3" s="11" t="s">
+      <c r="ACT3" s="11" t="s">
         <v>2049</v>
       </c>
-      <c r="ACT3" s="11" t="s">
+      <c r="ACU3" s="11" t="s">
         <v>2050</v>
       </c>
-      <c r="ACU3" s="11" t="s">
+      <c r="ACV3" s="11" t="s">
         <v>2051</v>
       </c>
-      <c r="ACV3" s="11" t="s">
+      <c r="ACW3" s="11" t="s">
         <v>2052</v>
       </c>
-      <c r="ACW3" s="11" t="s">
+      <c r="ACX3" s="11" t="s">
         <v>2053</v>
       </c>
-      <c r="ACX3" s="11" t="s">
+      <c r="ACY3" s="11" t="s">
         <v>2054</v>
       </c>
-      <c r="ACY3" s="11" t="s">
+      <c r="ACZ3" s="11" t="s">
         <v>2055</v>
       </c>
-      <c r="ACZ3" s="11" t="s">
+      <c r="ADA3" s="11" t="s">
         <v>2056</v>
       </c>
-      <c r="ADA3" s="11" t="s">
+      <c r="ADB3" s="11" t="s">
+        <v>1860</v>
+      </c>
+      <c r="ADC3" s="11" t="s">
         <v>2057</v>
       </c>
-      <c r="ADB3" s="11" t="s">
-        <v>1861</v>
-      </c>
-      <c r="ADC3" s="11" t="s">
+      <c r="ADD3" s="11" t="s">
         <v>2058</v>
       </c>
-      <c r="ADD3" s="11" t="s">
+      <c r="ADE3" s="11" t="s">
         <v>2059</v>
       </c>
-      <c r="ADE3" s="11" t="s">
+      <c r="ADF3" s="11" t="s">
         <v>2060</v>
       </c>
-      <c r="ADF3" s="11" t="s">
+      <c r="ADG3" s="11" t="s">
         <v>2061</v>
       </c>
-      <c r="ADG3" s="11" t="s">
+      <c r="ADH3" s="11" t="s">
+        <v>2061</v>
+      </c>
+      <c r="ADI3" s="11" t="s">
         <v>2062</v>
       </c>
-      <c r="ADH3" s="11" t="s">
-        <v>2062</v>
-      </c>
-      <c r="ADI3" s="11" t="s">
+      <c r="ADJ3" s="11" t="s">
         <v>2063</v>
       </c>
-      <c r="ADJ3" s="11" t="s">
+      <c r="ADK3" s="11" t="s">
         <v>2064</v>
       </c>
-      <c r="ADK3" s="11" t="s">
+      <c r="ADL3" s="11" t="s">
         <v>2065</v>
       </c>
-      <c r="ADL3" s="11" t="s">
+      <c r="ADM3" s="11" t="s">
         <v>2066</v>
       </c>
-      <c r="ADM3" s="11" t="s">
+      <c r="ADN3" s="11" t="s">
         <v>2067</v>
       </c>
-      <c r="ADN3" s="11" t="s">
+      <c r="ADO3" s="11" t="s">
         <v>2068</v>
       </c>
-      <c r="ADO3" s="11" t="s">
+      <c r="ADP3" s="11" t="s">
         <v>2069</v>
       </c>
-      <c r="ADP3" s="11" t="s">
+      <c r="ADQ3" s="11" t="s">
         <v>2070</v>
       </c>
-      <c r="ADQ3" s="11" t="s">
+      <c r="ADR3" s="11" t="s">
         <v>2071</v>
       </c>
-      <c r="ADR3" s="11" t="s">
+      <c r="ADS3" s="11" t="s">
         <v>2072</v>
       </c>
-      <c r="ADS3" s="11" t="s">
+      <c r="ADT3" s="11" t="s">
         <v>2073</v>
       </c>
-      <c r="ADT3" s="11" t="s">
+      <c r="ADU3" s="11" t="s">
         <v>2074</v>
       </c>
-      <c r="ADU3" s="11" t="s">
+      <c r="ADV3" s="11" t="s">
         <v>2075</v>
       </c>
-      <c r="ADV3" s="11" t="s">
+      <c r="ADW3" s="11" t="s">
         <v>2076</v>
       </c>
-      <c r="ADW3" s="11" t="s">
+      <c r="ADX3" s="11" t="s">
         <v>2077</v>
       </c>
-      <c r="ADX3" s="11" t="s">
+      <c r="ADY3" s="11" t="s">
         <v>2078</v>
       </c>
-      <c r="ADY3" s="11" t="s">
+      <c r="ADZ3" s="11" t="s">
         <v>2079</v>
       </c>
-      <c r="ADZ3" s="11" t="s">
+      <c r="AEA3" s="11" t="s">
         <v>2080</v>
       </c>
-      <c r="AEA3" s="11" t="s">
+      <c r="AEB3" s="11" t="s">
         <v>2081</v>
       </c>
-      <c r="AEB3" s="11" t="s">
+      <c r="AEC3" s="11" t="s">
         <v>2082</v>
       </c>
-      <c r="AEC3" s="11" t="s">
+      <c r="AED3" s="11" t="s">
         <v>2083</v>
       </c>
-      <c r="AED3" s="11" t="s">
+      <c r="AEE3" s="11" t="s">
         <v>2084</v>
       </c>
-      <c r="AEE3" s="11" t="s">
+      <c r="AEF3" s="11" t="s">
         <v>2085</v>
       </c>
-      <c r="AEF3" s="11" t="s">
+      <c r="AEG3" s="11" t="s">
         <v>2086</v>
       </c>
-      <c r="AEG3" s="11" t="s">
+      <c r="AEH3" s="11" t="s">
         <v>2087</v>
       </c>
-      <c r="AEH3" s="11" t="s">
+      <c r="AEI3" s="11" t="s">
         <v>2088</v>
       </c>
-      <c r="AEI3" s="11" t="s">
+      <c r="AEJ3" s="11" t="s">
         <v>2089</v>
       </c>
-      <c r="AEJ3" s="11" t="s">
+      <c r="AEK3" s="11" t="s">
         <v>2090</v>
       </c>
-      <c r="AEK3" s="11" t="s">
+      <c r="AEL3" s="11" t="s">
         <v>2091</v>
       </c>
-      <c r="AEL3" s="11" t="s">
+      <c r="AEM3" s="11" t="s">
         <v>2092</v>
       </c>
-      <c r="AEM3" s="11" t="s">
+      <c r="AEN3" s="11" t="s">
         <v>2093</v>
       </c>
-      <c r="AEN3" s="11" t="s">
+      <c r="AEO3" s="11" t="s">
         <v>2094</v>
       </c>
-      <c r="AEO3" s="11" t="s">
+      <c r="AEP3" s="11" t="s">
         <v>2095</v>
       </c>
-      <c r="AEP3" s="11" t="s">
+      <c r="AEQ3" s="11" t="s">
         <v>2096</v>
       </c>
-      <c r="AEQ3" s="11" t="s">
+      <c r="AER3" s="11" t="s">
         <v>2097</v>
       </c>
-      <c r="AER3" s="11" t="s">
+      <c r="AES3" s="11" t="s">
         <v>2098</v>
       </c>
-      <c r="AES3" s="11" t="s">
+      <c r="AET3" s="11" t="s">
         <v>2099</v>
       </c>
-      <c r="AET3" s="11" t="s">
+      <c r="AEU3" s="11" t="s">
         <v>2100</v>
       </c>
-      <c r="AEU3" s="11" t="s">
+      <c r="AEV3" s="11" t="s">
         <v>2101</v>
       </c>
-      <c r="AEV3" s="11" t="s">
+      <c r="AEW3" s="11" t="s">
         <v>2102</v>
       </c>
-      <c r="AEW3" s="11" t="s">
+      <c r="AEX3" s="11" t="s">
         <v>2103</v>
       </c>
-      <c r="AEX3" s="11" t="s">
+      <c r="AEY3" s="11" t="s">
+        <v>1896</v>
+      </c>
+      <c r="AEZ3" s="11" t="s">
         <v>2104</v>
       </c>
-      <c r="AEY3" s="11" t="s">
-        <v>1897</v>
-      </c>
-      <c r="AEZ3" s="11" t="s">
+      <c r="AFA3" s="11" t="s">
         <v>2105</v>
       </c>
-      <c r="AFA3" s="11" t="s">
+      <c r="AFB3" s="11" t="s">
         <v>2106</v>
       </c>
-      <c r="AFB3" s="11" t="s">
+      <c r="AFC3" s="11" t="s">
         <v>2107</v>
       </c>
-      <c r="AFC3" s="11" t="s">
+      <c r="AFD3" s="11" t="s">
         <v>2108</v>
       </c>
-      <c r="AFD3" s="11" t="s">
+      <c r="AFE3" s="11" t="s">
         <v>2109</v>
       </c>
-      <c r="AFE3" s="11" t="s">
+      <c r="AFF3" s="11" t="s">
         <v>2110</v>
       </c>
-      <c r="AFF3" s="11" t="s">
+      <c r="AFG3" s="11" t="s">
         <v>2111</v>
       </c>
-      <c r="AFG3" s="11" t="s">
+      <c r="AFH3" s="11" t="s">
         <v>2112</v>
       </c>
-      <c r="AFH3" s="11" t="s">
+      <c r="AFI3" s="11" t="s">
         <v>2113</v>
       </c>
-      <c r="AFI3" s="11" t="s">
+      <c r="AFJ3" s="11" t="s">
         <v>2114</v>
       </c>
-      <c r="AFJ3" s="11" t="s">
+      <c r="AFK3" s="11" t="s">
         <v>2115</v>
       </c>
-      <c r="AFK3" s="11" t="s">
+      <c r="AFL3" s="11" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AFM3" s="11" t="s">
         <v>2116</v>
       </c>
-      <c r="AFL3" s="11" t="s">
-        <v>1835</v>
-      </c>
-      <c r="AFM3" s="11" t="s">
+      <c r="AFN3" s="11" t="s">
         <v>2117</v>
       </c>
-      <c r="AFN3" s="11" t="s">
+      <c r="AFO3" s="11" t="s">
         <v>2118</v>
       </c>
-      <c r="AFO3" s="11" t="s">
+      <c r="AFP3" s="11" t="s">
         <v>2119</v>
       </c>
-      <c r="AFP3" s="11" t="s">
+      <c r="AFQ3" s="11" t="s">
         <v>2120</v>
       </c>
-      <c r="AFQ3" s="11" t="s">
+      <c r="AFR3" s="11" t="s">
         <v>2121</v>
       </c>
-      <c r="AFR3" s="11" t="s">
+      <c r="AFS3" s="11" t="s">
         <v>2122</v>
       </c>
-      <c r="AFS3" s="11" t="s">
+      <c r="AFT3" s="11" t="s">
         <v>2123</v>
       </c>
-      <c r="AFT3" s="11" t="s">
+      <c r="AFU3" s="11" t="s">
         <v>2124</v>
       </c>
-      <c r="AFU3" s="11" t="s">
+      <c r="AFV3" s="11" t="s">
         <v>2125</v>
       </c>
-      <c r="AFV3" s="11" t="s">
+      <c r="AFW3" s="11" t="s">
         <v>2126</v>
       </c>
-      <c r="AFW3" s="11" t="s">
+      <c r="AFX3" s="11" t="s">
         <v>2127</v>
       </c>
-      <c r="AFX3" s="11" t="s">
+      <c r="AFY3" s="11" t="s">
         <v>2128</v>
       </c>
-      <c r="AFY3" s="11" t="s">
+      <c r="AFZ3" s="11" t="s">
         <v>2129</v>
       </c>
-      <c r="AFZ3" s="11" t="s">
+      <c r="AGA3" s="11" t="s">
         <v>2130</v>
       </c>
-      <c r="AGA3" s="11" t="s">
+      <c r="AGB3" s="11" t="s">
         <v>2131</v>
       </c>
-      <c r="AGB3" s="11" t="s">
+      <c r="AGC3" s="11" t="s">
         <v>2132</v>
       </c>
-      <c r="AGC3" s="11" t="s">
+      <c r="AGD3" s="11" t="s">
         <v>2133</v>
       </c>
-      <c r="AGD3" s="11" t="s">
+      <c r="AGE3" s="11" t="s">
         <v>2134</v>
       </c>
-      <c r="AGE3" s="11" t="s">
+      <c r="AGF3" s="11" t="s">
         <v>2135</v>
       </c>
-      <c r="AGF3" s="11" t="s">
+      <c r="AGG3" s="11" t="s">
         <v>2136</v>
       </c>
-      <c r="AGG3" s="11" t="s">
+      <c r="AGH3" s="11" t="s">
+        <v>1850</v>
+      </c>
+      <c r="AGI3" s="11" t="s">
         <v>2137</v>
       </c>
-      <c r="AGH3" s="11" t="s">
-        <v>1851</v>
-      </c>
-      <c r="AGI3" s="11" t="s">
+      <c r="AGJ3" s="11" t="s">
         <v>2138</v>
       </c>
-      <c r="AGJ3" s="11" t="s">
+      <c r="AGK3" s="11" t="s">
         <v>2139</v>
       </c>
-      <c r="AGK3" s="11" t="s">
+      <c r="AGL3" s="11" t="s">
         <v>2140</v>
       </c>
-      <c r="AGL3" s="11" t="s">
+      <c r="AGM3" s="11" t="s">
         <v>2141</v>
       </c>
-      <c r="AGM3" s="11" t="s">
+      <c r="AGN3" s="11" t="s">
         <v>2142</v>
       </c>
-      <c r="AGN3" s="11" t="s">
+      <c r="AGO3" s="11" t="s">
         <v>2143</v>
       </c>
-      <c r="AGO3" s="11" t="s">
+      <c r="AGP3" s="11" t="s">
         <v>2144</v>
       </c>
-      <c r="AGP3" s="11" t="s">
+      <c r="AGQ3" s="11" t="s">
         <v>2145</v>
       </c>
-      <c r="AGQ3" s="11" t="s">
+      <c r="AGR3" s="11" t="s">
         <v>2146</v>
       </c>
-      <c r="AGR3" s="11" t="s">
+      <c r="AGS3" s="11" t="s">
         <v>2147</v>
       </c>
-      <c r="AGS3" s="11" t="s">
+      <c r="AGT3" s="11" t="s">
         <v>2148</v>
       </c>
-      <c r="AGT3" s="11" t="s">
+      <c r="AGU3" s="11" t="s">
         <v>2149</v>
       </c>
-      <c r="AGU3" s="11" t="s">
+      <c r="AGV3" s="11" t="s">
         <v>2150</v>
       </c>
-      <c r="AGV3" s="11" t="s">
+      <c r="AGW3" s="11" t="s">
         <v>2151</v>
       </c>
-      <c r="AGW3" s="11" t="s">
+      <c r="AGX3" s="11" t="s">
         <v>2152</v>
       </c>
-      <c r="AGX3" s="11" t="s">
+      <c r="AGY3" s="11" t="s">
         <v>2153</v>
       </c>
-      <c r="AGY3" s="11" t="s">
+      <c r="AGZ3" s="11" t="s">
         <v>2154</v>
       </c>
-      <c r="AGZ3" s="11" t="s">
+      <c r="AHA3" s="11" t="s">
         <v>2155</v>
       </c>
-      <c r="AHA3" s="11" t="s">
+      <c r="AHB3" s="11" t="s">
         <v>2156</v>
       </c>
-      <c r="AHB3" s="11" t="s">
+      <c r="AHC3" s="11" t="s">
         <v>2157</v>
       </c>
-      <c r="AHC3" s="11" t="s">
+      <c r="AHD3" s="11" t="s">
         <v>2158</v>
       </c>
-      <c r="AHD3" s="11" t="s">
+      <c r="AHE3" s="11" t="s">
         <v>2159</v>
       </c>
-      <c r="AHE3" s="11" t="s">
+      <c r="AHF3" s="11" t="s">
         <v>2160</v>
       </c>
-      <c r="AHF3" s="11" t="s">
+      <c r="AHG3" s="11" t="s">
         <v>2161</v>
       </c>
-      <c r="AHG3" s="11" t="s">
+      <c r="AHH3" s="11" t="s">
         <v>2162</v>
       </c>
-      <c r="AHH3" s="11" t="s">
+      <c r="AHI3" s="11" t="s">
+        <v>1866</v>
+      </c>
+      <c r="AHJ3" s="11" t="s">
         <v>2163</v>
       </c>
-      <c r="AHI3" s="11" t="s">
-        <v>1867</v>
-      </c>
-      <c r="AHJ3" s="11" t="s">
+      <c r="AHK3" s="11" t="s">
         <v>2164</v>
       </c>
-      <c r="AHK3" s="11" t="s">
+      <c r="AHL3" s="11" t="s">
         <v>2165</v>
       </c>
-      <c r="AHL3" s="11" t="s">
+      <c r="AHM3" s="11" t="s">
         <v>2166</v>
       </c>
-      <c r="AHM3" s="11" t="s">
+      <c r="AHN3" s="11" t="s">
         <v>2167</v>
       </c>
-      <c r="AHN3" s="11" t="s">
+      <c r="AHO3" s="11" t="s">
         <v>2168</v>
       </c>
-      <c r="AHO3" s="11" t="s">
+      <c r="AHP3" s="11" t="s">
         <v>2169</v>
       </c>
-      <c r="AHP3" s="11" t="s">
+      <c r="AHQ3" s="11" t="s">
         <v>2170</v>
       </c>
-      <c r="AHQ3" s="11" t="s">
+      <c r="AHR3" s="11" t="s">
         <v>2171</v>
       </c>
-      <c r="AHR3" s="11" t="s">
+      <c r="AHS3" s="11" t="s">
         <v>2172</v>
       </c>
-      <c r="AHS3" s="11" t="s">
+      <c r="AHT3" s="11" t="s">
         <v>2173</v>
       </c>
-      <c r="AHT3" s="11" t="s">
+      <c r="AHU3" s="11" t="s">
         <v>2174</v>
       </c>
-      <c r="AHU3" s="11" t="s">
+      <c r="AHV3" s="11" t="s">
         <v>2175</v>
       </c>
-      <c r="AHV3" s="11" t="s">
+      <c r="AHW3" s="11" t="s">
         <v>2176</v>
       </c>
-      <c r="AHW3" s="11" t="s">
+      <c r="AHX3" s="11" t="s">
         <v>2177</v>
       </c>
-      <c r="AHX3" s="11" t="s">
+      <c r="AHY3" s="11" t="s">
         <v>2178</v>
       </c>
-      <c r="AHY3" s="11" t="s">
+      <c r="AHZ3" s="11" t="s">
         <v>2179</v>
       </c>
-      <c r="AHZ3" s="11" t="s">
+      <c r="AIA3" s="11" t="s">
         <v>2180</v>
       </c>
-      <c r="AIA3" s="11" t="s">
+      <c r="AIB3" s="11" t="s">
         <v>2181</v>
       </c>
-      <c r="AIB3" s="11" t="s">
+      <c r="AIC3" s="11" t="s">
         <v>2182</v>
       </c>
-      <c r="AIC3" s="11" t="s">
+      <c r="AID3" s="11" t="s">
         <v>2183</v>
       </c>
-      <c r="AID3" s="11" t="s">
+      <c r="AIE3" s="11" t="s">
         <v>2184</v>
       </c>
-      <c r="AIE3" s="11" t="s">
+      <c r="AIF3" s="11" t="s">
         <v>2185</v>
-      </c>
-      <c r="AIF3" s="11" t="s">
-        <v>2186</v>
       </c>
       <c r="AIG3" s="11" t="s">
         <v>681</v>
       </c>
       <c r="AIH3" s="11" t="s">
+        <v>2186</v>
+      </c>
+      <c r="AII3" s="11" t="s">
         <v>2187</v>
       </c>
-      <c r="AII3" s="11" t="s">
+      <c r="AIJ3" s="11" t="s">
         <v>2188</v>
       </c>
-      <c r="AIJ3" s="11" t="s">
+      <c r="AIK3" s="11" t="s">
         <v>2189</v>
       </c>
-      <c r="AIK3" s="11" t="s">
+      <c r="AIL3" s="11" t="s">
         <v>2190</v>
       </c>
-      <c r="AIL3" s="11" t="s">
+      <c r="AIM3" s="11" t="s">
         <v>2191</v>
       </c>
-      <c r="AIM3" s="11" t="s">
+      <c r="AIN3" s="11" t="s">
         <v>2192</v>
       </c>
-      <c r="AIN3" s="11" t="s">
+      <c r="AIO3" s="11" t="s">
         <v>2193</v>
       </c>
-      <c r="AIO3" s="11" t="s">
+      <c r="AIP3" s="11" t="s">
         <v>2194</v>
       </c>
-      <c r="AIP3" s="11" t="s">
+      <c r="AIQ3" s="11" t="s">
         <v>2195</v>
       </c>
-      <c r="AIQ3" s="11" t="s">
+      <c r="AIR3" s="11" t="s">
         <v>2196</v>
       </c>
-      <c r="AIR3" s="11" t="s">
+      <c r="AIS3" s="11" t="s">
         <v>2197</v>
       </c>
-      <c r="AIS3" s="11" t="s">
+      <c r="AIT3" s="11" t="s">
         <v>2198</v>
       </c>
-      <c r="AIT3" s="11" t="s">
+      <c r="AIU3" s="11" t="s">
         <v>2199</v>
       </c>
-      <c r="AIU3" s="11" t="s">
+      <c r="AIV3" s="11" t="s">
         <v>2200</v>
       </c>
-      <c r="AIV3" s="11" t="s">
+      <c r="AIW3" s="11" t="s">
         <v>2201</v>
       </c>
-      <c r="AIW3" s="11" t="s">
+      <c r="AIX3" s="11" t="s">
         <v>2202</v>
       </c>
-      <c r="AIX3" s="11" t="s">
+      <c r="AIY3" s="11" t="s">
         <v>2203</v>
       </c>
-      <c r="AIY3" s="11" t="s">
+      <c r="AIZ3" s="11" t="s">
         <v>2204</v>
       </c>
-      <c r="AIZ3" s="11" t="s">
+      <c r="AJA3" s="11" t="s">
         <v>2205</v>
       </c>
-      <c r="AJA3" s="11" t="s">
+      <c r="AJB3" s="11" t="s">
         <v>2206</v>
       </c>
-      <c r="AJB3" s="11" t="s">
+      <c r="AJC3" s="11" t="s">
         <v>2207</v>
       </c>
-      <c r="AJC3" s="11" t="s">
+      <c r="AJD3" s="11" t="s">
         <v>2208</v>
       </c>
-      <c r="AJD3" s="11" t="s">
+      <c r="AJE3" s="11" t="s">
         <v>2209</v>
       </c>
-      <c r="AJE3" s="11" t="s">
+      <c r="AJF3" s="11" t="s">
         <v>2210</v>
       </c>
-      <c r="AJF3" s="11" t="s">
+      <c r="AJG3" s="11" t="s">
         <v>2211</v>
       </c>
-      <c r="AJG3" s="11" t="s">
+      <c r="AJH3" s="11" t="s">
         <v>2212</v>
       </c>
-      <c r="AJH3" s="11" t="s">
+      <c r="AJI3" s="11" t="s">
         <v>2213</v>
       </c>
-      <c r="AJI3" s="11" t="s">
+      <c r="AJJ3" s="11" t="s">
         <v>2214</v>
       </c>
-      <c r="AJJ3" s="11" t="s">
+      <c r="AJK3" s="11" t="s">
         <v>2215</v>
       </c>
-      <c r="AJK3" s="11" t="s">
+      <c r="AJL3" s="11" t="s">
         <v>2216</v>
       </c>
-      <c r="AJL3" s="11" t="s">
+      <c r="AJM3" s="11" t="s">
         <v>2217</v>
       </c>
-      <c r="AJM3" s="11" t="s">
+      <c r="AJN3" s="11" t="s">
         <v>2218</v>
       </c>
-      <c r="AJN3" s="11" t="s">
+      <c r="AJO3" s="11" t="s">
         <v>2219</v>
       </c>
-      <c r="AJO3" s="11" t="s">
+      <c r="AJP3" s="11" t="s">
         <v>2220</v>
       </c>
-      <c r="AJP3" s="11" t="s">
+      <c r="AJQ3" s="11" t="s">
         <v>2221</v>
       </c>
-      <c r="AJQ3" s="11" t="s">
+      <c r="AJR3" s="11" t="s">
         <v>2222</v>
       </c>
-      <c r="AJR3" s="11" t="s">
+      <c r="AJS3" s="11" t="s">
         <v>2223</v>
       </c>
-      <c r="AJS3" s="11" t="s">
+      <c r="AJT3" s="11" t="s">
         <v>2224</v>
       </c>
-      <c r="AJT3" s="11" t="s">
+      <c r="AJU3" s="11" t="s">
         <v>2225</v>
       </c>
-      <c r="AJU3" s="11" t="s">
+      <c r="AJV3" s="11" t="s">
         <v>2226</v>
       </c>
-      <c r="AJV3" s="11" t="s">
+      <c r="AJW3" s="11" t="s">
         <v>2227</v>
       </c>
-      <c r="AJW3" s="11" t="s">
+      <c r="AJX3" s="11" t="s">
         <v>2228</v>
       </c>
-      <c r="AJX3" s="11" t="s">
+      <c r="AJY3" s="11" t="s">
         <v>2229</v>
       </c>
-      <c r="AJY3" s="11" t="s">
+      <c r="AJZ3" s="11" t="s">
         <v>2230</v>
       </c>
-      <c r="AJZ3" s="11" t="s">
+      <c r="AKA3" s="11" t="s">
         <v>2231</v>
       </c>
-      <c r="AKA3" s="11" t="s">
+      <c r="AKB3" s="11" t="s">
         <v>2232</v>
       </c>
-      <c r="AKB3" s="11" t="s">
+      <c r="AKC3" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="AKC3" s="11" t="s">
+      <c r="AKD3" s="11" t="s">
         <v>2234</v>
       </c>
-      <c r="AKD3" s="11" t="s">
+      <c r="AKE3" s="11" t="s">
         <v>2235</v>
       </c>
-      <c r="AKE3" s="11" t="s">
+      <c r="AKF3" s="11" t="s">
         <v>2236</v>
       </c>
-      <c r="AKF3" s="11" t="s">
+      <c r="AKG3" s="11" t="s">
         <v>2237</v>
       </c>
-      <c r="AKG3" s="11" t="s">
+      <c r="AKH3" s="11" t="s">
         <v>2238</v>
       </c>
-      <c r="AKH3" s="11" t="s">
+      <c r="AKI3" s="11" t="s">
         <v>2239</v>
       </c>
-      <c r="AKI3" s="11" t="s">
+      <c r="AKJ3" s="11" t="s">
         <v>2240</v>
       </c>
-      <c r="AKJ3" s="11" t="s">
+      <c r="AKK3" s="11" t="s">
         <v>2241</v>
       </c>
-      <c r="AKK3" s="11" t="s">
+      <c r="AKL3" s="11" t="s">
         <v>2242</v>
       </c>
-      <c r="AKL3" s="11" t="s">
+      <c r="AKM3" s="11" t="s">
         <v>2243</v>
       </c>
-      <c r="AKM3" s="11" t="s">
+      <c r="AKN3" s="11" t="s">
         <v>2244</v>
       </c>
-      <c r="AKN3" s="11" t="s">
+      <c r="AKO3" s="11" t="s">
         <v>2245</v>
       </c>
-      <c r="AKO3" s="11" t="s">
+      <c r="AKP3" s="11" t="s">
         <v>2246</v>
       </c>
-      <c r="AKP3" s="11" t="s">
+      <c r="AKQ3" s="11" t="s">
         <v>2247</v>
       </c>
-      <c r="AKQ3" s="11" t="s">
+      <c r="AKR3" s="11" t="s">
         <v>2248</v>
       </c>
-      <c r="AKR3" s="11" t="s">
+      <c r="AKS3" s="11" t="s">
         <v>2249</v>
       </c>
-      <c r="AKS3" s="11" t="s">
+      <c r="AKT3" s="11" t="s">
         <v>2250</v>
       </c>
-      <c r="AKT3" s="11" t="s">
+      <c r="AKU3" s="11" t="s">
         <v>2251</v>
       </c>
-      <c r="AKU3" s="11" t="s">
+      <c r="AKV3" s="11" t="s">
         <v>2252</v>
       </c>
-      <c r="AKV3" s="11" t="s">
+      <c r="AKW3" s="11" t="s">
         <v>2253</v>
       </c>
-      <c r="AKW3" s="11" t="s">
+      <c r="AKX3" s="11" t="s">
         <v>2254</v>
       </c>
-      <c r="AKX3" s="11" t="s">
+      <c r="AKY3" s="11" t="s">
         <v>2255</v>
       </c>
-      <c r="AKY3" s="11" t="s">
+      <c r="AKZ3" s="11" t="s">
         <v>2256</v>
       </c>
-      <c r="AKZ3" s="11" t="s">
+      <c r="ALA3" s="11" t="s">
         <v>2257</v>
       </c>
-      <c r="ALA3" s="11" t="s">
+      <c r="ALB3" s="11" t="s">
         <v>2258</v>
       </c>
-      <c r="ALB3" s="11" t="s">
+      <c r="ALC3" s="11" t="s">
         <v>2259</v>
       </c>
-      <c r="ALC3" s="11" t="s">
+      <c r="ALD3" s="11" t="s">
         <v>2260</v>
       </c>
-      <c r="ALD3" s="11" t="s">
+      <c r="ALE3" s="11" t="s">
         <v>2261</v>
       </c>
-      <c r="ALE3" s="11" t="s">
+      <c r="ALF3" s="11" t="s">
         <v>2262</v>
       </c>
-      <c r="ALF3" s="11" t="s">
+      <c r="ALG3" s="11" t="s">
         <v>2263</v>
       </c>
-      <c r="ALG3" s="11" t="s">
+      <c r="ALH3" s="11" t="s">
         <v>2264</v>
       </c>
-      <c r="ALH3" s="11" t="s">
+      <c r="ALI3" s="11" t="s">
         <v>2265</v>
       </c>
-      <c r="ALI3" s="11" t="s">
+      <c r="ALJ3" s="11" t="s">
         <v>2266</v>
       </c>
-      <c r="ALJ3" s="11" t="s">
+      <c r="ALK3" s="11" t="s">
         <v>2267</v>
       </c>
-      <c r="ALK3" s="11" t="s">
+      <c r="ALL3" s="11" t="s">
         <v>2268</v>
       </c>
-      <c r="ALL3" s="11" t="s">
+      <c r="ALM3" s="11" t="s">
         <v>2269</v>
       </c>
-      <c r="ALM3" s="11" t="s">
+      <c r="ALN3" s="11" t="s">
         <v>2270</v>
       </c>
-      <c r="ALN3" s="11" t="s">
+      <c r="ALO3" s="11" t="s">
         <v>2271</v>
       </c>
-      <c r="ALO3" s="11" t="s">
+      <c r="ALP3" s="11" t="s">
         <v>2272</v>
       </c>
-      <c r="ALP3" s="11" t="s">
+      <c r="ALQ3" s="11" t="s">
         <v>2273</v>
       </c>
-      <c r="ALQ3" s="11" t="s">
+      <c r="ALR3" s="11" t="s">
         <v>2274</v>
       </c>
-      <c r="ALR3" s="11" t="s">
+      <c r="ALS3" s="11" t="s">
         <v>2275</v>
       </c>
-      <c r="ALS3" s="11" t="s">
+      <c r="ALT3" s="11" t="s">
         <v>2276</v>
       </c>
-      <c r="ALT3" s="11" t="s">
+      <c r="ALU3" s="11" t="s">
         <v>2277</v>
       </c>
-      <c r="ALU3" s="11" t="s">
+      <c r="ALV3" s="11" t="s">
         <v>2278</v>
       </c>
-      <c r="ALV3" s="11" t="s">
+      <c r="ALW3" s="11" t="s">
         <v>2279</v>
       </c>
-      <c r="ALW3" s="11" t="s">
+      <c r="ALX3" s="11" t="s">
         <v>2280</v>
       </c>
-      <c r="ALX3" s="11" t="s">
+      <c r="ALY3" s="11" t="s">
         <v>2281</v>
       </c>
-      <c r="ALY3" s="11" t="s">
+      <c r="ALZ3" s="11" t="s">
         <v>2282</v>
       </c>
-      <c r="ALZ3" s="11" t="s">
+      <c r="AMA3" s="11" t="s">
         <v>2283</v>
       </c>
-      <c r="AMA3" s="11" t="s">
+      <c r="AMB3" s="11" t="s">
         <v>2284</v>
       </c>
-      <c r="AMB3" s="11" t="s">
+      <c r="AMC3" s="11" t="s">
         <v>2285</v>
       </c>
-      <c r="AMC3" s="11" t="s">
+      <c r="AMD3" s="11" t="s">
         <v>2286</v>
       </c>
-      <c r="AMD3" s="11" t="s">
+      <c r="AME3" s="11" t="s">
         <v>2287</v>
       </c>
-      <c r="AME3" s="11" t="s">
+      <c r="AMF3" s="11" t="s">
         <v>2288</v>
       </c>
-      <c r="AMF3" s="11" t="s">
+      <c r="AMG3" s="11" t="s">
         <v>2289</v>
       </c>
-      <c r="AMG3" s="11" t="s">
+      <c r="AMH3" s="11" t="s">
         <v>2290</v>
       </c>
-      <c r="AMH3" s="11" t="s">
+      <c r="AMI3" s="11" t="s">
         <v>2291</v>
       </c>
-      <c r="AMI3" s="11" t="s">
+      <c r="AMJ3" s="11" t="s">
+        <v>2291</v>
+      </c>
+      <c r="AMK3" s="11" t="s">
         <v>2292</v>
       </c>
-      <c r="AMJ3" s="11" t="s">
-        <v>2292</v>
-      </c>
-      <c r="AMK3" s="11" t="s">
+      <c r="AML3" s="11" t="s">
         <v>2293</v>
       </c>
-      <c r="AML3" s="11" t="s">
+      <c r="AMM3" s="11" t="s">
         <v>2294</v>
       </c>
-      <c r="AMM3" s="11" t="s">
+      <c r="AMN3" s="11" t="s">
         <v>2295</v>
       </c>
-      <c r="AMN3" s="11" t="s">
+      <c r="AMO3" s="11" t="s">
         <v>2296</v>
       </c>
-      <c r="AMO3" s="11" t="s">
+      <c r="AMP3" s="11" t="s">
         <v>2297</v>
       </c>
-      <c r="AMP3" s="11" t="s">
+      <c r="AMQ3" s="11" t="s">
         <v>2298</v>
       </c>
-      <c r="AMQ3" s="11" t="s">
+      <c r="AMR3" s="11" t="s">
         <v>2299</v>
       </c>
-      <c r="AMR3" s="11" t="s">
+      <c r="AMS3" s="11" t="s">
         <v>2300</v>
       </c>
-      <c r="AMS3" s="11" t="s">
+      <c r="AMT3" s="11" t="s">
         <v>2301</v>
       </c>
-      <c r="AMT3" s="11" t="s">
+      <c r="AMU3" s="11" t="s">
         <v>2302</v>
       </c>
-      <c r="AMU3" s="11" t="s">
+      <c r="AMV3" s="11" t="s">
         <v>2303</v>
       </c>
-      <c r="AMV3" s="11" t="s">
+      <c r="AMW3" s="11" t="s">
         <v>2304</v>
-      </c>
-      <c r="AMW3" s="11" t="s">
-        <v>2305</v>
       </c>
       <c r="AMX3" s="11" t="s">
         <v>527</v>
       </c>
       <c r="AMY3" s="11" t="s">
+        <v>2305</v>
+      </c>
+      <c r="AMZ3" s="11" t="s">
         <v>2306</v>
       </c>
-      <c r="AMZ3" s="11" t="s">
+      <c r="ANA3" s="11" t="s">
         <v>2307</v>
       </c>
-      <c r="ANA3" s="11" t="s">
+      <c r="ANB3" s="11" t="s">
         <v>2308</v>
       </c>
-      <c r="ANB3" s="11" t="s">
+      <c r="ANC3" s="11" t="s">
         <v>2309</v>
       </c>
-      <c r="ANC3" s="11" t="s">
+      <c r="AND3" s="11" t="s">
         <v>2310</v>
       </c>
-      <c r="AND3" s="11" t="s">
+      <c r="ANE3" s="11" t="s">
         <v>2311</v>
       </c>
-      <c r="ANE3" s="11" t="s">
+      <c r="ANF3" s="11" t="s">
         <v>2312</v>
       </c>
-      <c r="ANF3" s="11" t="s">
+      <c r="ANG3" s="11" t="s">
         <v>2313</v>
       </c>
-      <c r="ANG3" s="11" t="s">
+      <c r="ANH3" s="11" t="s">
         <v>2314</v>
       </c>
-      <c r="ANH3" s="11" t="s">
+      <c r="ANI3" s="11" t="s">
         <v>2315</v>
       </c>
-      <c r="ANI3" s="11" t="s">
+      <c r="ANJ3" s="11" t="s">
         <v>2316</v>
       </c>
-      <c r="ANJ3" s="11" t="s">
+      <c r="ANK3" s="11" t="s">
         <v>2317</v>
       </c>
-      <c r="ANK3" s="11" t="s">
+      <c r="ANL3" s="11" t="s">
         <v>2318</v>
       </c>
-      <c r="ANL3" s="11" t="s">
+      <c r="ANM3" s="11" t="s">
         <v>2319</v>
       </c>
-      <c r="ANM3" s="11" t="s">
+      <c r="ANN3" s="11" t="s">
         <v>2320</v>
       </c>
-      <c r="ANN3" s="11" t="s">
+      <c r="ANO3" s="11" t="s">
         <v>2321</v>
       </c>
-      <c r="ANO3" s="11" t="s">
+      <c r="ANP3" s="11" t="s">
         <v>2322</v>
       </c>
-      <c r="ANP3" s="11" t="s">
+      <c r="ANQ3" s="11" t="s">
         <v>2323</v>
       </c>
-      <c r="ANQ3" s="11" t="s">
+      <c r="ANR3" s="11" t="s">
         <v>2324</v>
       </c>
-      <c r="ANR3" s="11" t="s">
+      <c r="ANS3" s="11" t="s">
         <v>2325</v>
       </c>
-      <c r="ANS3" s="11" t="s">
+      <c r="ANT3" s="11" t="s">
         <v>2326</v>
       </c>
-      <c r="ANT3" s="11" t="s">
+      <c r="ANU3" s="11" t="s">
         <v>2327</v>
       </c>
-      <c r="ANU3" s="11" t="s">
+      <c r="ANV3" s="11" t="s">
         <v>2328</v>
       </c>
-      <c r="ANV3" s="11" t="s">
+      <c r="ANW3" s="11" t="s">
         <v>2329</v>
       </c>
-      <c r="ANW3" s="11" t="s">
+      <c r="ANX3" s="11" t="s">
         <v>2330</v>
       </c>
-      <c r="ANX3" s="11" t="s">
+      <c r="ANY3" s="11" t="s">
         <v>2331</v>
       </c>
-      <c r="ANY3" s="11" t="s">
+      <c r="ANZ3" s="11" t="s">
         <v>2332</v>
       </c>
-      <c r="ANZ3" s="11" t="s">
+      <c r="AOA3" s="11" t="s">
         <v>2333</v>
       </c>
-      <c r="AOA3" s="11" t="s">
+      <c r="AOB3" s="11" t="s">
         <v>2334</v>
       </c>
-      <c r="AOB3" s="11" t="s">
+      <c r="AOC3" s="11" t="s">
         <v>2335</v>
       </c>
-      <c r="AOC3" s="11" t="s">
+      <c r="AOD3" s="11" t="s">
         <v>2336</v>
       </c>
-      <c r="AOD3" s="11" t="s">
+      <c r="AOE3" s="11" t="s">
         <v>2337</v>
       </c>
-      <c r="AOE3" s="11" t="s">
+      <c r="AOF3" s="11" t="s">
         <v>2338</v>
       </c>
-      <c r="AOF3" s="11" t="s">
+      <c r="AOG3" s="11" t="s">
         <v>2339</v>
       </c>
-      <c r="AOG3" s="11" t="s">
+      <c r="AOH3" s="11" t="s">
         <v>2340</v>
       </c>
-      <c r="AOH3" s="11" t="s">
+      <c r="AOI3" s="11" t="s">
         <v>2341</v>
       </c>
-      <c r="AOI3" s="11" t="s">
+      <c r="AOJ3" s="11" t="s">
         <v>2342</v>
       </c>
-      <c r="AOJ3" s="11" t="s">
+      <c r="AOK3" s="11" t="s">
         <v>2343</v>
-      </c>
-      <c r="AOK3" s="11" t="s">
-        <v>2344</v>
       </c>
       <c r="AOL3" s="11" t="s">
         <v>881</v>
       </c>
       <c r="AOM3" s="11" t="s">
+        <v>2344</v>
+      </c>
+      <c r="AON3" s="11" t="s">
         <v>2345</v>
       </c>
-      <c r="AON3" s="11" t="s">
+      <c r="AOO3" s="11" t="s">
+        <v>1812</v>
+      </c>
+      <c r="AOP3" s="11" t="s">
         <v>2346</v>
       </c>
-      <c r="AOO3" s="11" t="s">
-        <v>1813</v>
-      </c>
-      <c r="AOP3" s="11" t="s">
+      <c r="AOQ3" s="11" t="s">
         <v>2347</v>
       </c>
-      <c r="AOQ3" s="11" t="s">
+      <c r="AOR3" s="11" t="s">
         <v>2348</v>
-      </c>
-      <c r="AOR3" s="11" t="s">
-        <v>2349</v>
       </c>
       <c r="AOS3" s="11" t="s">
         <v>890</v>
       </c>
       <c r="AOT3" s="11" t="s">
+        <v>2349</v>
+      </c>
+      <c r="AOU3" s="11" t="s">
         <v>2350</v>
       </c>
-      <c r="AOU3" s="11" t="s">
+      <c r="AOV3" s="11" t="s">
         <v>2351</v>
       </c>
-      <c r="AOV3" s="11" t="s">
+      <c r="AOW3" s="11" t="s">
         <v>2352</v>
       </c>
-      <c r="AOW3" s="11" t="s">
+      <c r="AOX3" s="11" t="s">
         <v>2353</v>
       </c>
-      <c r="AOX3" s="11" t="s">
+      <c r="AOY3" s="11" t="s">
         <v>2354</v>
       </c>
-      <c r="AOY3" s="11" t="s">
+      <c r="AOZ3" s="11" t="s">
         <v>2355</v>
       </c>
-      <c r="AOZ3" s="11" t="s">
+      <c r="APA3" s="11" t="s">
         <v>2356</v>
       </c>
-      <c r="APA3" s="11" t="s">
+      <c r="APB3" s="11" t="s">
         <v>2357</v>
       </c>
-      <c r="APB3" s="11" t="s">
+      <c r="APC3" s="11" t="s">
         <v>2358</v>
       </c>
-      <c r="APC3" s="11" t="s">
+      <c r="APD3" s="11" t="s">
         <v>2359</v>
       </c>
-      <c r="APD3" s="11" t="s">
+      <c r="APE3" s="11" t="s">
         <v>2360</v>
       </c>
-      <c r="APE3" s="11" t="s">
+      <c r="APF3" s="11" t="s">
         <v>2361</v>
       </c>
-      <c r="APF3" s="11" t="s">
+      <c r="APG3" s="11" t="s">
         <v>2362</v>
       </c>
-      <c r="APG3" s="11" t="s">
+      <c r="APH3" s="11" t="s">
         <v>2363</v>
       </c>
-      <c r="APH3" s="11" t="s">
+      <c r="API3" s="11" t="s">
         <v>2364</v>
       </c>
-      <c r="API3" s="11" t="s">
+      <c r="APJ3" s="11" t="s">
         <v>2365</v>
       </c>
-      <c r="APJ3" s="11" t="s">
+      <c r="APK3" s="11" t="s">
         <v>2366</v>
       </c>
-      <c r="APK3" s="11" t="s">
+      <c r="APL3" s="11" t="s">
         <v>2367</v>
       </c>
-      <c r="APL3" s="11" t="s">
+      <c r="APM3" s="11" t="s">
         <v>2368</v>
       </c>
-      <c r="APM3" s="11" t="s">
+      <c r="APN3" s="11" t="s">
+        <v>2235</v>
+      </c>
+      <c r="APO3" s="11" t="s">
         <v>2369</v>
       </c>
-      <c r="APN3" s="11" t="s">
-        <v>2236</v>
-      </c>
-      <c r="APO3" s="11" t="s">
+      <c r="APP3" s="11" t="s">
         <v>2370</v>
       </c>
-      <c r="APP3" s="11" t="s">
+      <c r="APQ3" s="11" t="s">
         <v>2371</v>
       </c>
-      <c r="APQ3" s="11" t="s">
+      <c r="APR3" s="11" t="s">
         <v>2372</v>
       </c>
-      <c r="APR3" s="11" t="s">
+      <c r="APS3" s="11" t="s">
         <v>2373</v>
       </c>
-      <c r="APS3" s="11" t="s">
+      <c r="APT3" s="11" t="s">
         <v>2374</v>
       </c>
-      <c r="APT3" s="11" t="s">
+      <c r="APU3" s="11" t="s">
         <v>2375</v>
       </c>
-      <c r="APU3" s="11" t="s">
+      <c r="APV3" s="11" t="s">
         <v>2376</v>
       </c>
-      <c r="APV3" s="11" t="s">
+      <c r="APW3" s="11" t="s">
         <v>2377</v>
       </c>
-      <c r="APW3" s="11" t="s">
+      <c r="APX3" s="11" t="s">
         <v>2378</v>
       </c>
-      <c r="APX3" s="11" t="s">
+      <c r="APY3" s="11" t="s">
         <v>2379</v>
       </c>
-      <c r="APY3" s="11" t="s">
+      <c r="APZ3" s="11" t="s">
         <v>2380</v>
       </c>
-      <c r="APZ3" s="11" t="s">
+      <c r="AQA3" s="11" t="s">
         <v>2381</v>
       </c>
-      <c r="AQA3" s="11" t="s">
+      <c r="AQB3" s="11" t="s">
         <v>2382</v>
       </c>
-      <c r="AQB3" s="11" t="s">
+      <c r="AQC3" s="11" t="s">
         <v>2383</v>
-      </c>
-      <c r="AQC3" s="11" t="s">
-        <v>2384</v>
       </c>
       <c r="AQD3" s="11" t="s">
         <v>508</v>
       </c>
       <c r="AQE3" s="11" t="s">
+        <v>2384</v>
+      </c>
+      <c r="AQF3" s="11" t="s">
         <v>2385</v>
       </c>
-      <c r="AQF3" s="11" t="s">
+      <c r="AQG3" s="11" t="s">
         <v>2386</v>
       </c>
-      <c r="AQG3" s="11" t="s">
+      <c r="AQH3" s="11" t="s">
         <v>2387</v>
       </c>
-      <c r="AQH3" s="11" t="s">
+      <c r="AQI3" s="11" t="s">
         <v>2388</v>
       </c>
-      <c r="AQI3" s="11" t="s">
+      <c r="AQJ3" s="11" t="s">
         <v>2389</v>
       </c>
-      <c r="AQJ3" s="11" t="s">
+      <c r="AQK3" s="11" t="s">
         <v>2390</v>
       </c>
-      <c r="AQK3" s="11" t="s">
+      <c r="AQL3" s="11" t="s">
         <v>2391</v>
       </c>
-      <c r="AQL3" s="11" t="s">
+      <c r="AQM3" s="11" t="s">
         <v>2392</v>
       </c>
-      <c r="AQM3" s="11" t="s">
+      <c r="AQN3" s="11" t="s">
         <v>2393</v>
       </c>
-      <c r="AQN3" s="11" t="s">
+      <c r="AQO3" s="11" t="s">
         <v>2394</v>
       </c>
-      <c r="AQO3" s="11" t="s">
+      <c r="AQP3" s="11" t="s">
         <v>2395</v>
       </c>
-      <c r="AQP3" s="11" t="s">
+      <c r="AQQ3" s="11" t="s">
         <v>2396</v>
       </c>
-      <c r="AQQ3" s="11" t="s">
+      <c r="AQR3" s="11" t="s">
         <v>2397</v>
       </c>
-      <c r="AQR3" s="11" t="s">
+      <c r="AQS3" s="11" t="s">
         <v>2398</v>
       </c>
-      <c r="AQS3" s="11" t="s">
+      <c r="AQT3" s="11" t="s">
         <v>2399</v>
       </c>
-      <c r="AQT3" s="11" t="s">
+      <c r="AQU3" s="11" t="s">
         <v>2400</v>
       </c>
-      <c r="AQU3" s="11" t="s">
+      <c r="AQV3" s="11" t="s">
         <v>2401</v>
       </c>
-      <c r="AQV3" s="11" t="s">
+      <c r="AQW3" s="11" t="s">
         <v>2402</v>
       </c>
-      <c r="AQW3" s="11" t="s">
+      <c r="AQX3" s="11" t="s">
         <v>2403</v>
       </c>
-      <c r="AQX3" s="11" t="s">
+      <c r="AQY3" s="11" t="s">
         <v>2404</v>
       </c>
-      <c r="AQY3" s="11" t="s">
+      <c r="AQZ3" s="11" t="s">
         <v>2405</v>
       </c>
-      <c r="AQZ3" s="11" t="s">
+      <c r="ARA3" s="11" t="s">
         <v>2406</v>
       </c>
-      <c r="ARA3" s="11" t="s">
+      <c r="ARB3" s="11" t="s">
         <v>2407</v>
       </c>
-      <c r="ARB3" s="11" t="s">
+      <c r="ARC3" s="11" t="s">
         <v>2408</v>
       </c>
-      <c r="ARC3" s="11" t="s">
+      <c r="ARD3" s="11" t="s">
         <v>2409</v>
       </c>
-      <c r="ARD3" s="11" t="s">
+      <c r="ARE3" s="11" t="s">
         <v>2410</v>
       </c>
-      <c r="ARE3" s="11" t="s">
+      <c r="ARF3" s="11" t="s">
         <v>2411</v>
       </c>
-      <c r="ARF3" s="11" t="s">
+      <c r="ARG3" s="11" t="s">
         <v>2412</v>
       </c>
-      <c r="ARG3" s="11" t="s">
+      <c r="ARH3" s="11" t="s">
         <v>2413</v>
       </c>
-      <c r="ARH3" s="11" t="s">
+      <c r="ARI3" s="11" t="s">
         <v>2414</v>
       </c>
-      <c r="ARI3" s="11" t="s">
+      <c r="ARJ3" s="11" t="s">
         <v>2415</v>
       </c>
-      <c r="ARJ3" s="11" t="s">
+      <c r="ARK3" s="11" t="s">
         <v>2416</v>
       </c>
-      <c r="ARK3" s="11" t="s">
+      <c r="ARL3" s="11" t="s">
         <v>2417</v>
       </c>
-      <c r="ARL3" s="11" t="s">
+      <c r="ARM3" s="11" t="s">
         <v>2418</v>
       </c>
-      <c r="ARM3" s="11" t="s">
+      <c r="ARN3" s="11" t="s">
         <v>2419</v>
       </c>
-      <c r="ARN3" s="11" t="s">
+      <c r="ARO3" s="11" t="s">
         <v>2420</v>
       </c>
-      <c r="ARO3" s="11" t="s">
+      <c r="ARP3" s="11" t="s">
         <v>2421</v>
       </c>
-      <c r="ARP3" s="11" t="s">
+      <c r="ARQ3" s="11" t="s">
         <v>2422</v>
       </c>
-      <c r="ARQ3" s="11" t="s">
+      <c r="ARR3" s="11" t="s">
         <v>2423</v>
       </c>
-      <c r="ARR3" s="11" t="s">
+      <c r="ARS3" s="11" t="s">
         <v>2424</v>
       </c>
-      <c r="ARS3" s="11" t="s">
+      <c r="ART3" s="11" t="s">
         <v>2425</v>
       </c>
-      <c r="ART3" s="11" t="s">
+      <c r="ARU3" s="11" t="s">
+        <v>2061</v>
+      </c>
+      <c r="ARV3" s="11" t="s">
         <v>2426</v>
       </c>
-      <c r="ARU3" s="11" t="s">
-        <v>2062</v>
-      </c>
-      <c r="ARV3" s="11" t="s">
+      <c r="ARW3" s="11" t="s">
         <v>2427</v>
       </c>
-      <c r="ARW3" s="11" t="s">
+      <c r="ARX3" s="11" t="s">
         <v>2428</v>
       </c>
-      <c r="ARX3" s="11" t="s">
+      <c r="ARY3" s="11" t="s">
         <v>2429</v>
       </c>
-      <c r="ARY3" s="11" t="s">
+      <c r="ARZ3" s="11" t="s">
         <v>2430</v>
       </c>
-      <c r="ARZ3" s="11" t="s">
+      <c r="ASA3" s="11" t="s">
         <v>2431</v>
       </c>
-      <c r="ASA3" s="11" t="s">
+      <c r="ASB3" s="11" t="s">
         <v>2432</v>
       </c>
-      <c r="ASB3" s="11" t="s">
+      <c r="ASC3" s="11" t="s">
         <v>2433</v>
       </c>
-      <c r="ASC3" s="11" t="s">
+      <c r="ASD3" s="11" t="s">
+        <v>1803</v>
+      </c>
+      <c r="ASE3" s="11" t="s">
         <v>2434</v>
       </c>
-      <c r="ASD3" s="11" t="s">
-        <v>1804</v>
-      </c>
-      <c r="ASE3" s="11" t="s">
+      <c r="ASF3" s="11" t="s">
         <v>2435</v>
-      </c>
-      <c r="ASF3" s="11" t="s">
-        <v>2436</v>
       </c>
       <c r="ASG3" s="11" t="s">
         <v>548</v>
       </c>
       <c r="ASH3" s="11" t="s">
+        <v>2436</v>
+      </c>
+      <c r="ASI3" s="11" t="s">
         <v>2437</v>
       </c>
-      <c r="ASI3" s="11" t="s">
+      <c r="ASJ3" s="11" t="s">
         <v>2438</v>
       </c>
-      <c r="ASJ3" s="11" t="s">
+      <c r="ASK3" s="11" t="s">
         <v>2439</v>
       </c>
-      <c r="ASK3" s="11" t="s">
+      <c r="ASL3" s="11" t="s">
         <v>2440</v>
       </c>
-      <c r="ASL3" s="11" t="s">
+      <c r="ASM3" s="11" t="s">
         <v>2441</v>
       </c>
-      <c r="ASM3" s="11" t="s">
+      <c r="ASN3" s="11" t="s">
         <v>2442</v>
       </c>
-      <c r="ASN3" s="11" t="s">
+      <c r="ASO3" s="11" t="s">
         <v>2443</v>
       </c>
-      <c r="ASO3" s="11" t="s">
+      <c r="ASP3" s="11" t="s">
         <v>2444</v>
       </c>
-      <c r="ASP3" s="11" t="s">
+      <c r="ASQ3" s="11" t="s">
         <v>2445</v>
       </c>
-      <c r="ASQ3" s="11" t="s">
+      <c r="ASR3" s="11" t="s">
         <v>2446</v>
       </c>
-      <c r="ASR3" s="11" t="s">
+      <c r="ASS3" s="11" t="s">
         <v>2447</v>
       </c>
-      <c r="ASS3" s="11" t="s">
+      <c r="AST3" s="11" t="s">
+        <v>1881</v>
+      </c>
+      <c r="ASU3" s="11" t="s">
         <v>2448</v>
       </c>
-      <c r="AST3" s="11" t="s">
-        <v>1882</v>
-      </c>
-      <c r="ASU3" s="11" t="s">
+      <c r="ASV3" s="11" t="s">
         <v>2449</v>
       </c>
-      <c r="ASV3" s="11" t="s">
+      <c r="ASW3" s="11" t="s">
         <v>2450</v>
       </c>
-      <c r="ASW3" s="11" t="s">
+      <c r="ASX3" s="11" t="s">
         <v>2451</v>
       </c>
-      <c r="ASX3" s="11" t="s">
+      <c r="ASY3" s="11" t="s">
         <v>2452</v>
       </c>
-      <c r="ASY3" s="11" t="s">
+      <c r="ASZ3" s="11" t="s">
+        <v>1884</v>
+      </c>
+      <c r="ATA3" s="11" t="s">
         <v>2453</v>
       </c>
-      <c r="ASZ3" s="11" t="s">
-        <v>1885</v>
-      </c>
-      <c r="ATA3" s="11" t="s">
+      <c r="ATB3" s="11" t="s">
         <v>2454</v>
       </c>
-      <c r="ATB3" s="11" t="s">
+      <c r="ATC3" s="11" t="s">
         <v>2455</v>
       </c>
-      <c r="ATC3" s="11" t="s">
+      <c r="ATD3" s="11" t="s">
         <v>2456</v>
       </c>
-      <c r="ATD3" s="11" t="s">
+      <c r="ATE3" s="11" t="s">
         <v>2457</v>
       </c>
-      <c r="ATE3" s="11" t="s">
+      <c r="ATF3" s="11" t="s">
         <v>2458</v>
       </c>
-      <c r="ATF3" s="11" t="s">
+      <c r="ATG3" s="11" t="s">
         <v>2459</v>
       </c>
-      <c r="ATG3" s="11" t="s">
+      <c r="ATH3" s="11" t="s">
         <v>2460</v>
       </c>
-      <c r="ATH3" s="11" t="s">
+      <c r="ATI3" s="11" t="s">
         <v>2461</v>
       </c>
-      <c r="ATI3" s="11" t="s">
+      <c r="ATJ3" s="11" t="s">
         <v>2462</v>
       </c>
-      <c r="ATJ3" s="11" t="s">
+      <c r="ATK3" s="11" t="s">
         <v>2463</v>
       </c>
-      <c r="ATK3" s="11" t="s">
+      <c r="ATL3" s="11" t="s">
         <v>2464</v>
       </c>
-      <c r="ATL3" s="11" t="s">
+      <c r="ATM3" s="11" t="s">
         <v>2465</v>
       </c>
-      <c r="ATM3" s="11" t="s">
+      <c r="ATN3" s="11" t="s">
         <v>2466</v>
       </c>
-      <c r="ATN3" s="11" t="s">
+      <c r="ATO3" s="11" t="s">
         <v>2467</v>
       </c>
-      <c r="ATO3" s="11" t="s">
+      <c r="ATP3" s="11" t="s">
         <v>2468</v>
       </c>
-      <c r="ATP3" s="11" t="s">
+      <c r="ATQ3" s="11" t="s">
         <v>2469</v>
       </c>
-      <c r="ATQ3" s="11" t="s">
+      <c r="ATR3" s="11" t="s">
         <v>2470</v>
       </c>
-      <c r="ATR3" s="11" t="s">
+      <c r="ATS3" s="11" t="s">
         <v>2471</v>
       </c>
-      <c r="ATS3" s="11" t="s">
+      <c r="ATT3" s="11" t="s">
         <v>2472</v>
       </c>
-      <c r="ATT3" s="11" t="s">
+      <c r="ATU3" s="11" t="s">
         <v>2473</v>
       </c>
-      <c r="ATU3" s="11" t="s">
+      <c r="ATV3" s="11" t="s">
         <v>2474</v>
       </c>
-      <c r="ATV3" s="11" t="s">
+      <c r="ATW3" s="11" t="s">
         <v>2475</v>
       </c>
-      <c r="ATW3" s="11" t="s">
+      <c r="ATX3" s="11" t="s">
         <v>2476</v>
       </c>
-      <c r="ATX3" s="11" t="s">
+      <c r="ATY3" s="11" t="s">
         <v>2477</v>
-      </c>
-      <c r="ATY3" s="11" t="s">
-        <v>2478</v>
       </c>
       <c r="ATZ3" s="11" t="s">
         <v>593</v>
       </c>
       <c r="AUA3" s="11" t="s">
+        <v>2478</v>
+      </c>
+      <c r="AUB3" s="11" t="s">
         <v>2479</v>
       </c>
-      <c r="AUB3" s="11" t="s">
+      <c r="AUC3" s="11" t="s">
         <v>2480</v>
       </c>
-      <c r="AUC3" s="11" t="s">
+      <c r="AUD3" s="11" t="s">
         <v>2481</v>
       </c>
-      <c r="AUD3" s="11" t="s">
+      <c r="AUE3" s="11" t="s">
         <v>2482</v>
       </c>
-      <c r="AUE3" s="11" t="s">
+      <c r="AUF3" s="11" t="s">
         <v>2483</v>
       </c>
-      <c r="AUF3" s="11" t="s">
+      <c r="AUG3" s="11" t="s">
         <v>2484</v>
       </c>
-      <c r="AUG3" s="11" t="s">
+      <c r="AUH3" s="11" t="s">
         <v>2485</v>
       </c>
-      <c r="AUH3" s="11" t="s">
+      <c r="AUI3" s="11" t="s">
         <v>2486</v>
       </c>
-      <c r="AUI3" s="11" t="s">
+      <c r="AUJ3" s="11" t="s">
         <v>2487</v>
       </c>
-      <c r="AUJ3" s="11" t="s">
+      <c r="AUK3" s="11" t="s">
         <v>2488</v>
-      </c>
-      <c r="AUK3" s="11" t="s">
-        <v>2489</v>
       </c>
       <c r="AUL3" s="11" t="s">
         <v>726</v>
       </c>
       <c r="AUM3" s="11" t="s">
+        <v>2489</v>
+      </c>
+      <c r="AUN3" s="11" t="s">
         <v>2490</v>
       </c>
-      <c r="AUN3" s="11" t="s">
+      <c r="AUO3" s="11" t="s">
         <v>2491</v>
       </c>
-      <c r="AUO3" s="11" t="s">
+      <c r="AUP3" s="11" t="s">
         <v>2492</v>
       </c>
-      <c r="AUP3" s="11" t="s">
+      <c r="AUQ3" s="11" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AUR3" s="11" t="s">
         <v>2493</v>
       </c>
-      <c r="AUQ3" s="11" t="s">
-        <v>1844</v>
-      </c>
-      <c r="AUR3" s="11" t="s">
+      <c r="AUS3" s="11" t="s">
         <v>2494</v>
       </c>
-      <c r="AUS3" s="11" t="s">
+      <c r="AUT3" s="11" t="s">
         <v>2495</v>
       </c>
-      <c r="AUT3" s="11" t="s">
+      <c r="AUU3" s="11" t="s">
         <v>2496</v>
       </c>
-      <c r="AUU3" s="11" t="s">
+      <c r="AUV3" s="11" t="s">
         <v>2497</v>
       </c>
-      <c r="AUV3" s="11" t="s">
+      <c r="AUW3" s="11" t="s">
         <v>2498</v>
       </c>
-      <c r="AUW3" s="11" t="s">
+      <c r="AUX3" s="11" t="s">
         <v>2499</v>
       </c>
-      <c r="AUX3" s="11" t="s">
+      <c r="AUY3" s="11" t="s">
         <v>2500</v>
       </c>
-      <c r="AUY3" s="11" t="s">
+      <c r="AUZ3" s="11" t="s">
         <v>2501</v>
       </c>
-      <c r="AUZ3" s="11" t="s">
+      <c r="AVA3" s="11" t="s">
         <v>2502</v>
       </c>
-      <c r="AVA3" s="11" t="s">
+      <c r="AVB3" s="11" t="s">
         <v>2503</v>
       </c>
-      <c r="AVB3" s="11" t="s">
+      <c r="AVC3" s="11" t="s">
         <v>2504</v>
       </c>
-      <c r="AVC3" s="11" t="s">
+      <c r="AVD3" s="11" t="s">
         <v>2505</v>
       </c>
-      <c r="AVD3" s="11" t="s">
+      <c r="AVE3" s="11" t="s">
         <v>2506</v>
       </c>
-      <c r="AVE3" s="11" t="s">
+      <c r="AVF3" s="11" t="s">
         <v>2507</v>
       </c>
-      <c r="AVF3" s="11" t="s">
+      <c r="AVG3" s="11" t="s">
         <v>2508</v>
       </c>
-      <c r="AVG3" s="11" t="s">
+      <c r="AVH3" s="11" t="s">
         <v>2509</v>
       </c>
-      <c r="AVH3" s="11" t="s">
+      <c r="AVI3" s="11" t="s">
         <v>2510</v>
       </c>
-      <c r="AVI3" s="11" t="s">
+      <c r="AVJ3" s="11" t="s">
         <v>2511</v>
       </c>
-      <c r="AVJ3" s="11" t="s">
+      <c r="AVK3" s="11" t="s">
         <v>2512</v>
       </c>
-      <c r="AVK3" s="11" t="s">
+      <c r="AVL3" s="11" t="s">
         <v>2513</v>
       </c>
-      <c r="AVL3" s="11" t="s">
+      <c r="AVM3" s="11" t="s">
         <v>2514</v>
       </c>
-      <c r="AVM3" s="11" t="s">
+      <c r="AVN3" s="11" t="s">
         <v>2515</v>
       </c>
-      <c r="AVN3" s="11" t="s">
+      <c r="AVO3" s="11" t="s">
         <v>2516</v>
       </c>
-      <c r="AVO3" s="11" t="s">
+      <c r="AVP3" s="11" t="s">
         <v>2517</v>
       </c>
-      <c r="AVP3" s="11" t="s">
+      <c r="AVQ3" s="11" t="s">
         <v>2518</v>
       </c>
-      <c r="AVQ3" s="11" t="s">
+      <c r="AVR3" s="11" t="s">
+        <v>1944</v>
+      </c>
+      <c r="AVS3" s="11" t="s">
         <v>2519</v>
       </c>
-      <c r="AVR3" s="11" t="s">
-        <v>1945</v>
-      </c>
-      <c r="AVS3" s="11" t="s">
+      <c r="AVT3" s="11" t="s">
         <v>2520</v>
       </c>
-      <c r="AVT3" s="11" t="s">
+      <c r="AVU3" s="11" t="s">
         <v>2521</v>
-      </c>
-      <c r="AVU3" s="11" t="s">
-        <v>2522</v>
       </c>
       <c r="AVV3" s="11" t="s">
         <v>882</v>
       </c>
       <c r="AVW3" s="11" t="s">
+        <v>2522</v>
+      </c>
+      <c r="AVX3" s="11" t="s">
         <v>2523</v>
-      </c>
-      <c r="AVX3" s="11" t="s">
-        <v>2524</v>
       </c>
       <c r="AVY3" s="11" t="s">
         <v>886</v>
       </c>
       <c r="AVZ3" s="11" t="s">
+        <v>2524</v>
+      </c>
+      <c r="AWA3" s="11" t="s">
         <v>2525</v>
       </c>
-      <c r="AWA3" s="11" t="s">
+      <c r="AWB3" s="11" t="s">
         <v>2526</v>
       </c>
-      <c r="AWB3" s="11" t="s">
+      <c r="AWC3" s="11" t="s">
         <v>2527</v>
       </c>
-      <c r="AWC3" s="11" t="s">
+      <c r="AWD3" s="11" t="s">
         <v>2528</v>
       </c>
-      <c r="AWD3" s="11" t="s">
+      <c r="AWE3" s="11" t="s">
         <v>2529</v>
       </c>
-      <c r="AWE3" s="11" t="s">
+      <c r="AWF3" s="11" t="s">
         <v>2530</v>
       </c>
-      <c r="AWF3" s="11" t="s">
+      <c r="AWG3" s="11" t="s">
         <v>2531</v>
       </c>
-      <c r="AWG3" s="11" t="s">
+      <c r="AWH3" s="11" t="s">
         <v>2532</v>
       </c>
-      <c r="AWH3" s="11" t="s">
+      <c r="AWI3" s="11" t="s">
         <v>2533</v>
       </c>
-      <c r="AWI3" s="11" t="s">
+      <c r="AWJ3" s="11" t="s">
         <v>2534</v>
-      </c>
-      <c r="AWJ3" s="11" t="s">
-        <v>2535</v>
       </c>
       <c r="AWK3" s="11" t="s">
         <v>911</v>
       </c>
       <c r="AWL3" s="11" t="s">
+        <v>2535</v>
+      </c>
+      <c r="AWM3" s="11" t="s">
         <v>2536</v>
       </c>
-      <c r="AWM3" s="11" t="s">
+      <c r="AWN3" s="11" t="s">
         <v>2537</v>
       </c>
-      <c r="AWN3" s="11" t="s">
+      <c r="AWO3" s="11" t="s">
         <v>2538</v>
       </c>
-      <c r="AWO3" s="11" t="s">
+      <c r="AWP3" s="11" t="s">
         <v>2539</v>
       </c>
-      <c r="AWP3" s="11" t="s">
+      <c r="AWQ3" s="11" t="s">
         <v>2540</v>
       </c>
-      <c r="AWQ3" s="11" t="s">
+      <c r="AWR3" s="11" t="s">
         <v>2541</v>
       </c>
-      <c r="AWR3" s="11" t="s">
+      <c r="AWS3" s="11" t="s">
         <v>2542</v>
       </c>
-      <c r="AWS3" s="11" t="s">
+      <c r="AWT3" s="11" t="s">
         <v>2543</v>
       </c>
-      <c r="AWT3" s="11" t="s">
+      <c r="AWU3" s="11" t="s">
         <v>2544</v>
       </c>
-      <c r="AWU3" s="11" t="s">
+      <c r="AWV3" s="11" t="s">
         <v>2545</v>
       </c>
-      <c r="AWV3" s="11" t="s">
+      <c r="AWW3" s="11" t="s">
         <v>2546</v>
       </c>
-      <c r="AWW3" s="11" t="s">
+      <c r="AWX3" s="11" t="s">
         <v>2547</v>
       </c>
-      <c r="AWX3" s="11" t="s">
+      <c r="AWY3" s="11" t="s">
         <v>2548</v>
       </c>
-      <c r="AWY3" s="11" t="s">
+      <c r="AWZ3" s="11" t="s">
         <v>2549</v>
       </c>
-      <c r="AWZ3" s="11" t="s">
+      <c r="AXA3" s="11" t="s">
         <v>2550</v>
-      </c>
-      <c r="AXA3" s="11" t="s">
-        <v>2551</v>
       </c>
       <c r="AXB3" s="11" t="s">
         <v>733</v>
       </c>
       <c r="AXC3" s="11" t="s">
+        <v>2551</v>
+      </c>
+      <c r="AXD3" s="11" t="s">
         <v>2552</v>
       </c>
-      <c r="AXD3" s="11" t="s">
+      <c r="AXE3" s="11" t="s">
         <v>2553</v>
       </c>
-      <c r="AXE3" s="11" t="s">
+      <c r="AXF3" s="11" t="s">
         <v>2554</v>
       </c>
-      <c r="AXF3" s="11" t="s">
+      <c r="AXG3" s="11" t="s">
         <v>2555</v>
       </c>
-      <c r="AXG3" s="11" t="s">
+      <c r="AXH3" s="11" t="s">
         <v>2556</v>
       </c>
-      <c r="AXH3" s="11" t="s">
+      <c r="AXI3" s="11" t="s">
         <v>2557</v>
       </c>
-      <c r="AXI3" s="11" t="s">
+      <c r="AXJ3" s="11" t="s">
         <v>2558</v>
       </c>
-      <c r="AXJ3" s="11" t="s">
+      <c r="AXK3" s="11" t="s">
         <v>2559</v>
       </c>
-      <c r="AXK3" s="11" t="s">
+      <c r="AXL3" s="11" t="s">
         <v>2560</v>
       </c>
-      <c r="AXL3" s="11" t="s">
+      <c r="AXM3" s="11" t="s">
         <v>2561</v>
       </c>
-      <c r="AXM3" s="11" t="s">
+      <c r="AXN3" s="11" t="s">
         <v>2562</v>
       </c>
-      <c r="AXN3" s="11" t="s">
+      <c r="AXO3" s="11" t="s">
         <v>2563</v>
       </c>
-      <c r="AXO3" s="11" t="s">
+      <c r="AXP3" s="11" t="s">
         <v>2564</v>
       </c>
-      <c r="AXP3" s="11" t="s">
+      <c r="AXQ3" s="11" t="s">
         <v>2565</v>
       </c>
-      <c r="AXQ3" s="11" t="s">
+      <c r="AXR3" s="11" t="s">
         <v>2566</v>
       </c>
-      <c r="AXR3" s="11" t="s">
+      <c r="AXS3" s="11" t="s">
         <v>2567</v>
       </c>
-      <c r="AXS3" s="11" t="s">
+      <c r="AXT3" s="11" t="s">
         <v>2568</v>
       </c>
-      <c r="AXT3" s="11" t="s">
+      <c r="AXU3" s="11" t="s">
         <v>2569</v>
       </c>
-      <c r="AXU3" s="11" t="s">
+      <c r="AXV3" s="11" t="s">
         <v>2570</v>
       </c>
-      <c r="AXV3" s="11" t="s">
+      <c r="AXW3" s="11" t="s">
         <v>2571</v>
       </c>
-      <c r="AXW3" s="11" t="s">
+      <c r="AXX3" s="11" t="s">
         <v>2572</v>
       </c>
-      <c r="AXX3" s="11" t="s">
+      <c r="AXY3" s="11" t="s">
         <v>2573</v>
       </c>
-      <c r="AXY3" s="11" t="s">
+      <c r="AXZ3" s="11" t="s">
         <v>2574</v>
       </c>
-      <c r="AXZ3" s="11" t="s">
+      <c r="AYA3" s="11" t="s">
         <v>2575</v>
       </c>
-      <c r="AYA3" s="11" t="s">
+      <c r="AYB3" s="11" t="s">
         <v>2576</v>
       </c>
-      <c r="AYB3" s="11" t="s">
+      <c r="AYC3" s="11" t="s">
         <v>2577</v>
       </c>
-      <c r="AYC3" s="11" t="s">
+      <c r="AYD3" s="11" t="s">
         <v>2578</v>
       </c>
-      <c r="AYD3" s="11" t="s">
+      <c r="AYE3" s="11" t="s">
         <v>2579</v>
       </c>
-      <c r="AYE3" s="11" t="s">
+      <c r="AYF3" s="11" t="s">
         <v>2580</v>
       </c>
-      <c r="AYF3" s="11" t="s">
+      <c r="AYG3" s="11" t="s">
         <v>2581</v>
       </c>
-      <c r="AYG3" s="11" t="s">
+      <c r="AYH3" s="11" t="s">
         <v>2582</v>
       </c>
-      <c r="AYH3" s="11" t="s">
+      <c r="AYI3" s="11" t="s">
         <v>2583</v>
       </c>
-      <c r="AYI3" s="11" t="s">
+      <c r="AYJ3" s="11" t="s">
         <v>2584</v>
       </c>
-      <c r="AYJ3" s="11" t="s">
+      <c r="AYK3" s="11" t="s">
         <v>2585</v>
       </c>
-      <c r="AYK3" s="11" t="s">
+      <c r="AYL3" s="11" t="s">
         <v>2586</v>
       </c>
-      <c r="AYL3" s="11" t="s">
+      <c r="AYM3" s="11" t="s">
         <v>2587</v>
       </c>
-      <c r="AYM3" s="11" t="s">
+      <c r="AYN3" s="11" t="s">
         <v>2588</v>
       </c>
-      <c r="AYN3" s="11" t="s">
+      <c r="AYO3" s="11" t="s">
         <v>2589</v>
       </c>
-      <c r="AYO3" s="11" t="s">
+      <c r="AYP3" s="11" t="s">
         <v>2590</v>
-      </c>
-      <c r="AYP3" s="11" t="s">
-        <v>2591</v>
       </c>
       <c r="AYQ3" s="11" t="s">
         <v>485</v>
       </c>
       <c r="AYR3" s="11" t="s">
+        <v>2591</v>
+      </c>
+      <c r="AYS3" s="11" t="s">
         <v>2592</v>
       </c>
-      <c r="AYS3" s="11" t="s">
+      <c r="AYT3" s="11" t="s">
+        <v>2182</v>
+      </c>
+      <c r="AYU3" s="11" t="s">
         <v>2593</v>
       </c>
-      <c r="AYT3" s="11" t="s">
-        <v>2183</v>
-      </c>
-      <c r="AYU3" s="11" t="s">
+      <c r="AYV3" s="11" t="s">
         <v>2594</v>
       </c>
-      <c r="AYV3" s="11" t="s">
+      <c r="AYW3" s="11" t="s">
         <v>2595</v>
       </c>
-      <c r="AYW3" s="11" t="s">
+      <c r="AYX3" s="11" t="s">
         <v>2596</v>
       </c>
-      <c r="AYX3" s="11" t="s">
+      <c r="AYY3" s="11" t="s">
         <v>2597</v>
       </c>
-      <c r="AYY3" s="11" t="s">
+      <c r="AYZ3" s="11" t="s">
         <v>2598</v>
       </c>
-      <c r="AYZ3" s="11" t="s">
+      <c r="AZA3" s="11" t="s">
         <v>2599</v>
       </c>
-      <c r="AZA3" s="11" t="s">
+      <c r="AZB3" s="11" t="s">
         <v>2600</v>
       </c>
-      <c r="AZB3" s="11" t="s">
+      <c r="AZC3" s="11" t="s">
         <v>2601</v>
       </c>
-      <c r="AZC3" s="11" t="s">
+      <c r="AZD3" s="11" t="s">
         <v>2602</v>
       </c>
-      <c r="AZD3" s="11" t="s">
+      <c r="AZE3" s="11" t="s">
         <v>2603</v>
       </c>
-      <c r="AZE3" s="11" t="s">
+      <c r="AZF3" s="11" t="s">
         <v>2604</v>
       </c>
-      <c r="AZF3" s="11" t="s">
+      <c r="AZG3" s="11" t="s">
         <v>2605</v>
       </c>
-      <c r="AZG3" s="11" t="s">
+      <c r="AZH3" s="11" t="s">
         <v>2606</v>
       </c>
-      <c r="AZH3" s="11" t="s">
+      <c r="AZI3" s="11" t="s">
         <v>2607</v>
       </c>
-      <c r="AZI3" s="11" t="s">
+      <c r="AZJ3" s="11" t="s">
         <v>2608</v>
       </c>
-      <c r="AZJ3" s="11" t="s">
+      <c r="AZK3" s="11" t="s">
+        <v>2208</v>
+      </c>
+      <c r="AZL3" s="11" t="s">
         <v>2609</v>
       </c>
-      <c r="AZK3" s="11" t="s">
-        <v>2209</v>
-      </c>
-      <c r="AZL3" s="11" t="s">
+      <c r="AZM3" s="11" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AZN3" s="11" t="s">
         <v>2610</v>
       </c>
-      <c r="AZM3" s="11" t="s">
-        <v>1816</v>
-      </c>
-      <c r="AZN3" s="11" t="s">
+      <c r="AZO3" s="11" t="s">
         <v>2611</v>
       </c>
-      <c r="AZO3" s="11" t="s">
+      <c r="AZP3" s="11" t="s">
         <v>2612</v>
       </c>
-      <c r="AZP3" s="11" t="s">
+      <c r="AZQ3" s="11" t="s">
         <v>2613</v>
       </c>
-      <c r="AZQ3" s="11" t="s">
+      <c r="AZR3" s="11" t="s">
         <v>2614</v>
       </c>
-      <c r="AZR3" s="11" t="s">
+      <c r="AZS3" s="11" t="s">
         <v>2615</v>
       </c>
-      <c r="AZS3" s="11" t="s">
+      <c r="AZT3" s="11" t="s">
         <v>2616</v>
       </c>
-      <c r="AZT3" s="11" t="s">
+      <c r="AZU3" s="11" t="s">
         <v>2617</v>
       </c>
-      <c r="AZU3" s="11" t="s">
-        <v>2618</v>
-      </c>
       <c r="AZV3" s="11" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="AZW3" s="11" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="AZX3" s="11" t="s">
         <v>575</v>
       </c>
       <c r="AZY3" s="11" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AZZ3" s="11" t="s">
         <v>2619</v>
       </c>
-      <c r="AZZ3" s="11" t="s">
+      <c r="BAA3" s="11" t="s">
         <v>2620</v>
       </c>
-      <c r="BAA3" s="11" t="s">
+      <c r="BAB3" s="11" t="s">
         <v>2621</v>
       </c>
-      <c r="BAB3" s="11" t="s">
+      <c r="BAC3" s="11" t="s">
         <v>2622</v>
       </c>
-      <c r="BAC3" s="11" t="s">
+      <c r="BAD3" s="11" t="s">
         <v>2623</v>
       </c>
-      <c r="BAD3" s="11" t="s">
+      <c r="BAE3" s="11" t="s">
         <v>2624</v>
       </c>
-      <c r="BAE3" s="11" t="s">
+      <c r="BAF3" s="11" t="s">
         <v>2625</v>
       </c>
-      <c r="BAF3" s="11" t="s">
+      <c r="BAG3" s="11" t="s">
         <v>2626</v>
       </c>
-      <c r="BAG3" s="11" t="s">
+      <c r="BAH3" s="11" t="s">
         <v>2627</v>
       </c>
-      <c r="BAH3" s="11" t="s">
+      <c r="BAI3" s="11" t="s">
         <v>2628</v>
       </c>
-      <c r="BAI3" s="11" t="s">
+      <c r="BAJ3" s="11" t="s">
         <v>2629</v>
       </c>
-      <c r="BAJ3" s="11" t="s">
+      <c r="BAK3" s="11" t="s">
         <v>2630</v>
       </c>
-      <c r="BAK3" s="11" t="s">
+      <c r="BAL3" s="11" t="s">
         <v>2631</v>
       </c>
-      <c r="BAL3" s="11" t="s">
+      <c r="BAM3" s="11" t="s">
         <v>2632</v>
-      </c>
-      <c r="BAM3" s="11" t="s">
-        <v>2633</v>
       </c>
       <c r="BAN3" s="11" t="s">
         <v>907</v>
       </c>
       <c r="BAO3" s="11" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="BAP3" s="11" t="s">
+        <v>2633</v>
+      </c>
+      <c r="BAQ3" s="11" t="s">
         <v>2634</v>
       </c>
-      <c r="BAQ3" s="11" t="s">
+      <c r="BAR3" s="11" t="s">
         <v>2635</v>
       </c>
-      <c r="BAR3" s="11" t="s">
+      <c r="BAS3" s="11" t="s">
         <v>2636</v>
       </c>
-      <c r="BAS3" s="11" t="s">
+      <c r="BAT3" s="11" t="s">
         <v>2637</v>
       </c>
-      <c r="BAT3" s="11" t="s">
+      <c r="BAU3" s="11" t="s">
         <v>2638</v>
       </c>
-      <c r="BAU3" s="11" t="s">
+      <c r="BAV3" s="11" t="s">
         <v>2639</v>
       </c>
-      <c r="BAV3" s="11" t="s">
+      <c r="BAW3" s="11" t="s">
         <v>2640</v>
       </c>
-      <c r="BAW3" s="11" t="s">
+      <c r="BAX3" s="11" t="s">
         <v>2641</v>
       </c>
-      <c r="BAX3" s="11" t="s">
+      <c r="BAY3" s="11" t="s">
         <v>2642</v>
       </c>
-      <c r="BAY3" s="11" t="s">
+      <c r="BAZ3" s="11" t="s">
         <v>2643</v>
       </c>
-      <c r="BAZ3" s="11" t="s">
+      <c r="BBA3" s="11" t="s">
         <v>2644</v>
       </c>
-      <c r="BBA3" s="11" t="s">
+      <c r="BBB3" s="11" t="s">
         <v>2645</v>
       </c>
-      <c r="BBB3" s="11" t="s">
+      <c r="BBC3" s="11" t="s">
         <v>2646</v>
       </c>
-      <c r="BBC3" s="11" t="s">
+      <c r="BBD3" s="11" t="s">
         <v>2647</v>
       </c>
-      <c r="BBD3" s="11" t="s">
+      <c r="BBE3" s="11" t="s">
         <v>2648</v>
       </c>
-      <c r="BBE3" s="11" t="s">
+      <c r="BBF3" s="11" t="s">
         <v>2649</v>
       </c>
-      <c r="BBF3" s="11" t="s">
+      <c r="BBG3" s="11" t="s">
         <v>2650</v>
       </c>
-      <c r="BBG3" s="11" t="s">
+      <c r="BBH3" s="11" t="s">
         <v>2651</v>
       </c>
-      <c r="BBH3" s="11" t="s">
+      <c r="BBI3" s="11" t="s">
         <v>2652</v>
-      </c>
-      <c r="BBI3" s="11" t="s">
-        <v>2653</v>
       </c>
       <c r="BBJ3" s="11" t="s">
         <v>514</v>
       </c>
       <c r="BBK3" s="11" t="s">
+        <v>2653</v>
+      </c>
+      <c r="BBL3" s="11" t="s">
         <v>2654</v>
-      </c>
-      <c r="BBL3" s="11" t="s">
-        <v>2655</v>
       </c>
       <c r="BBM3" s="11" t="s">
         <v>821</v>
@@ -20233,76 +20233,76 @@
         <v>612</v>
       </c>
       <c r="BBO3" s="11" t="s">
+        <v>2655</v>
+      </c>
+      <c r="BBP3" s="11" t="s">
         <v>2656</v>
       </c>
-      <c r="BBP3" s="11" t="s">
+      <c r="BBQ3" s="11" t="s">
         <v>2657</v>
       </c>
-      <c r="BBQ3" s="11" t="s">
+      <c r="BBR3" s="11" t="s">
         <v>2658</v>
       </c>
-      <c r="BBR3" s="11" t="s">
+      <c r="BBS3" s="11" t="s">
         <v>2659</v>
       </c>
-      <c r="BBS3" s="11" t="s">
+      <c r="BBT3" s="11" t="s">
         <v>2660</v>
       </c>
-      <c r="BBT3" s="11" t="s">
+      <c r="BBU3" s="11" t="s">
         <v>2661</v>
       </c>
-      <c r="BBU3" s="11" t="s">
+      <c r="BBV3" s="11" t="s">
+        <v>2495</v>
+      </c>
+      <c r="BBW3" s="11" t="s">
         <v>2662</v>
       </c>
-      <c r="BBV3" s="11" t="s">
-        <v>2496</v>
-      </c>
-      <c r="BBW3" s="11" t="s">
+      <c r="BBX3" s="11" t="s">
         <v>2663</v>
       </c>
-      <c r="BBX3" s="11" t="s">
+      <c r="BBY3" s="11" t="s">
         <v>2664</v>
       </c>
-      <c r="BBY3" s="11" t="s">
+      <c r="BBZ3" s="11" t="s">
         <v>2665</v>
-      </c>
-      <c r="BBZ3" s="11" t="s">
-        <v>2666</v>
       </c>
       <c r="BCA3" s="11" t="s">
         <v>837</v>
       </c>
       <c r="BCB3" s="11" t="s">
+        <v>2666</v>
+      </c>
+      <c r="BCC3" s="11" t="s">
         <v>2667</v>
       </c>
-      <c r="BCC3" s="11" t="s">
+      <c r="BCD3" s="11" t="s">
         <v>2668</v>
       </c>
-      <c r="BCD3" s="11" t="s">
+      <c r="BCE3" s="11" t="s">
         <v>2669</v>
       </c>
-      <c r="BCE3" s="11" t="s">
+      <c r="BCF3" s="11" t="s">
         <v>2670</v>
       </c>
-      <c r="BCF3" s="11" t="s">
+      <c r="BCG3" s="11" t="s">
         <v>2671</v>
       </c>
-      <c r="BCG3" s="11" t="s">
+      <c r="BCH3" s="11" t="s">
         <v>2672</v>
       </c>
-      <c r="BCH3" s="11" t="s">
+      <c r="BCI3" s="11" t="s">
         <v>2673</v>
       </c>
-      <c r="BCI3" s="11" t="s">
+      <c r="BCJ3" s="11" t="s">
         <v>2674</v>
       </c>
-      <c r="BCJ3" s="11" t="s">
-        <v>2675</v>
-      </c>
       <c r="BCK3" s="11" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="BCL3" s="11" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="BCM3" s="11" t="s">
         <v>524</v>
@@ -20314,94 +20314,94 @@
         <v>525</v>
       </c>
       <c r="BCP3" s="11" t="s">
+        <v>2675</v>
+      </c>
+      <c r="BCQ3" s="11" t="s">
         <v>2676</v>
       </c>
-      <c r="BCQ3" s="11" t="s">
+      <c r="BCR3" s="11" t="s">
         <v>2677</v>
       </c>
-      <c r="BCR3" s="11" t="s">
+      <c r="BCS3" s="11" t="s">
+        <v>2048</v>
+      </c>
+      <c r="BCT3" s="11" t="s">
         <v>2678</v>
       </c>
-      <c r="BCS3" s="11" t="s">
-        <v>2049</v>
-      </c>
-      <c r="BCT3" s="11" t="s">
+      <c r="BCU3" s="11" t="s">
         <v>2679</v>
       </c>
-      <c r="BCU3" s="11" t="s">
+      <c r="BCV3" s="11" t="s">
+        <v>2050</v>
+      </c>
+      <c r="BCW3" s="11" t="s">
         <v>2680</v>
       </c>
-      <c r="BCV3" s="11" t="s">
-        <v>2051</v>
-      </c>
-      <c r="BCW3" s="11" t="s">
+      <c r="BCX3" s="11" t="s">
         <v>2681</v>
       </c>
-      <c r="BCX3" s="11" t="s">
+      <c r="BCY3" s="11" t="s">
         <v>2682</v>
       </c>
-      <c r="BCY3" s="11" t="s">
+      <c r="BCZ3" s="11" t="s">
         <v>2683</v>
       </c>
-      <c r="BCZ3" s="11" t="s">
+      <c r="BDA3" s="11" t="s">
         <v>2684</v>
       </c>
-      <c r="BDA3" s="11" t="s">
+      <c r="BDB3" s="11" t="s">
         <v>2685</v>
       </c>
-      <c r="BDB3" s="11" t="s">
+      <c r="BDC3" s="11" t="s">
         <v>2686</v>
       </c>
-      <c r="BDC3" s="11" t="s">
+      <c r="BDD3" s="11" t="s">
         <v>2687</v>
       </c>
-      <c r="BDD3" s="11" t="s">
+      <c r="BDE3" s="11" t="s">
         <v>2688</v>
       </c>
-      <c r="BDE3" s="11" t="s">
+      <c r="BDF3" s="11" t="s">
         <v>2689</v>
       </c>
-      <c r="BDF3" s="11" t="s">
+      <c r="BDG3" s="11" t="s">
         <v>2690</v>
       </c>
-      <c r="BDG3" s="11" t="s">
+      <c r="BDH3" s="11" t="s">
         <v>2691</v>
       </c>
-      <c r="BDH3" s="11" t="s">
+      <c r="BDI3" s="11" t="s">
+        <v>2061</v>
+      </c>
+      <c r="BDJ3" s="11" t="s">
         <v>2692</v>
       </c>
-      <c r="BDI3" s="11" t="s">
+      <c r="BDK3" s="11" t="s">
+        <v>2693</v>
+      </c>
+      <c r="BDL3" s="11" t="s">
+        <v>2694</v>
+      </c>
+      <c r="BDM3" s="11" t="s">
+        <v>2427</v>
+      </c>
+      <c r="BDN3" s="11" t="s">
+        <v>2695</v>
+      </c>
+      <c r="BDO3" s="11" t="s">
+        <v>2696</v>
+      </c>
+      <c r="BDP3" s="11" t="s">
         <v>2062</v>
       </c>
-      <c r="BDJ3" s="11" t="s">
-        <v>2693</v>
-      </c>
-      <c r="BDK3" s="11" t="s">
-        <v>2694</v>
-      </c>
-      <c r="BDL3" s="11" t="s">
-        <v>2695</v>
-      </c>
-      <c r="BDM3" s="11" t="s">
-        <v>2428</v>
-      </c>
-      <c r="BDN3" s="11" t="s">
-        <v>2696</v>
-      </c>
-      <c r="BDO3" s="11" t="s">
+      <c r="BDQ3" s="11" t="s">
         <v>2697</v>
       </c>
-      <c r="BDP3" s="11" t="s">
-        <v>2063</v>
-      </c>
-      <c r="BDQ3" s="11" t="s">
+      <c r="BDR3" s="11" t="s">
         <v>2698</v>
       </c>
-      <c r="BDR3" s="11" t="s">
+      <c r="BDS3" s="11" t="s">
         <v>2699</v>
-      </c>
-      <c r="BDS3" s="11" t="s">
-        <v>2700</v>
       </c>
     </row>
     <row r="4" spans="1:1475" x14ac:dyDescent="0.2">
@@ -24825,7 +24825,7 @@
     </row>
     <row r="5" spans="1:1475" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B5" s="4">
         <v>100565</v>
@@ -46516,7 +46516,7 @@
     </row>
     <row r="10" spans="1:1475" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="B10" s="4">
         <v>89231</v>

--- a/data/municipal_elections/raw/brandenburg/brandenburg_1998.xlsx
+++ b/data/municipal_elections/raw/brandenburg/brandenburg_1998.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flosic/Documents/GitHub/german_election_data/data/municipal_elections/raw/brandenburg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3954DF2F-7FA9-924A-BA30-2AEFC9592E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC68411-3FF7-6241-A6AC-2572A7D9C428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19480" yWindow="-28800" windowWidth="32640" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19480" yWindow="-28300" windowWidth="32640" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnis" sheetId="1" r:id="rId1"/>
@@ -9261,143 +9261,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BDW30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="HO1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="HP12" sqref="HP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="24.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="72" max="77" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="78" max="80" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="82" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="89" max="93" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="94" max="95" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="96" max="99" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="102" max="104" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="106" max="110" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="16" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="114" max="115" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="118" max="120" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="123" max="125" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="129" max="132" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="135" max="138" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="17" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="149" max="151" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="153" max="156" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="11" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="169" max="180" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="185" max="186" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="189" max="193" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="11" bestFit="1" customWidth="1"/>
-    <col min="195" max="200" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="202" max="213" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="215" max="217" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="223" max="224" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="227" max="234" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="236" max="237" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="17" width="10.6640625" style="1" customWidth="1"/>
+    <col min="18" max="20" width="10.6640625" customWidth="1"/>
+    <col min="21" max="22" width="10.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14" style="1" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" customWidth="1"/>
+    <col min="25" max="25" width="11.83203125" customWidth="1"/>
+    <col min="26" max="27" width="10.6640625" customWidth="1"/>
+    <col min="28" max="29" width="11.83203125" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="12" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.6640625" customWidth="1"/>
+    <col min="34" max="35" width="10.1640625" customWidth="1"/>
+    <col min="36" max="36" width="10.6640625" customWidth="1"/>
+    <col min="37" max="37" width="10.1640625" customWidth="1"/>
+    <col min="38" max="39" width="10.6640625" customWidth="1"/>
+    <col min="40" max="40" width="12" customWidth="1"/>
+    <col min="41" max="41" width="10.6640625" customWidth="1"/>
+    <col min="42" max="42" width="10.1640625" customWidth="1"/>
+    <col min="43" max="43" width="10.83203125" customWidth="1"/>
+    <col min="44" max="45" width="10.6640625" customWidth="1"/>
+    <col min="46" max="46" width="15.6640625" customWidth="1"/>
+    <col min="47" max="48" width="10.6640625" customWidth="1"/>
+    <col min="49" max="49" width="10.1640625" customWidth="1"/>
+    <col min="50" max="50" width="10.6640625" customWidth="1"/>
+    <col min="51" max="51" width="11.6640625" customWidth="1"/>
+    <col min="52" max="52" width="10.6640625" customWidth="1"/>
+    <col min="53" max="53" width="10.1640625" customWidth="1"/>
+    <col min="54" max="54" width="11" customWidth="1"/>
+    <col min="55" max="55" width="12.5" customWidth="1"/>
+    <col min="56" max="57" width="10.6640625" customWidth="1"/>
+    <col min="58" max="58" width="11.83203125" customWidth="1"/>
+    <col min="59" max="60" width="12.33203125" customWidth="1"/>
+    <col min="61" max="61" width="13.1640625" customWidth="1"/>
+    <col min="62" max="64" width="10.6640625" customWidth="1"/>
+    <col min="65" max="65" width="11.5" customWidth="1"/>
+    <col min="66" max="66" width="11.33203125" customWidth="1"/>
+    <col min="67" max="67" width="10.6640625" customWidth="1"/>
+    <col min="68" max="68" width="14.1640625" customWidth="1"/>
+    <col min="69" max="69" width="16.1640625" customWidth="1"/>
+    <col min="70" max="70" width="10.6640625" customWidth="1"/>
+    <col min="71" max="71" width="11.5" customWidth="1"/>
+    <col min="72" max="77" width="10.6640625" customWidth="1"/>
+    <col min="78" max="80" width="10.6640625" style="1" customWidth="1"/>
+    <col min="81" max="82" width="10.6640625" customWidth="1"/>
+    <col min="83" max="83" width="10.1640625" customWidth="1"/>
+    <col min="84" max="84" width="10.6640625" customWidth="1"/>
+    <col min="85" max="85" width="11.33203125" customWidth="1"/>
+    <col min="86" max="87" width="10.6640625" customWidth="1"/>
+    <col min="88" max="88" width="10.83203125" customWidth="1"/>
+    <col min="89" max="93" width="10.6640625" customWidth="1"/>
+    <col min="94" max="95" width="10.1640625" customWidth="1"/>
+    <col min="96" max="99" width="10.6640625" customWidth="1"/>
+    <col min="100" max="100" width="14.6640625" customWidth="1"/>
+    <col min="101" max="101" width="10.6640625" customWidth="1"/>
+    <col min="102" max="104" width="10.6640625" style="1" customWidth="1"/>
+    <col min="105" max="105" width="9.5" customWidth="1"/>
+    <col min="106" max="110" width="10.6640625" customWidth="1"/>
+    <col min="111" max="111" width="12.5" customWidth="1"/>
+    <col min="112" max="112" width="16" customWidth="1"/>
+    <col min="113" max="113" width="11.33203125" customWidth="1"/>
+    <col min="114" max="115" width="10.1640625" customWidth="1"/>
+    <col min="116" max="116" width="23.33203125" customWidth="1"/>
+    <col min="117" max="117" width="5.5" customWidth="1"/>
+    <col min="118" max="120" width="10.6640625" customWidth="1"/>
+    <col min="121" max="121" width="13.5" customWidth="1"/>
+    <col min="122" max="122" width="11.5" customWidth="1"/>
+    <col min="123" max="125" width="10.6640625" customWidth="1"/>
+    <col min="126" max="126" width="19.5" customWidth="1"/>
+    <col min="127" max="127" width="10.6640625" customWidth="1"/>
+    <col min="128" max="128" width="10.1640625" customWidth="1"/>
+    <col min="129" max="132" width="10.6640625" customWidth="1"/>
+    <col min="133" max="133" width="19.5" customWidth="1"/>
+    <col min="134" max="134" width="10.1640625" customWidth="1"/>
+    <col min="135" max="138" width="10.6640625" customWidth="1"/>
+    <col min="139" max="139" width="16.33203125" customWidth="1"/>
+    <col min="140" max="140" width="10.1640625" customWidth="1"/>
+    <col min="141" max="141" width="17" customWidth="1"/>
+    <col min="142" max="142" width="10.83203125" customWidth="1"/>
+    <col min="143" max="143" width="10.6640625" customWidth="1"/>
+    <col min="144" max="144" width="10.1640625" customWidth="1"/>
+    <col min="145" max="145" width="11" style="1" customWidth="1"/>
+    <col min="146" max="146" width="12.83203125" style="1" customWidth="1"/>
+    <col min="147" max="147" width="10.83203125" style="1" customWidth="1"/>
+    <col min="148" max="148" width="16.5" customWidth="1"/>
+    <col min="149" max="151" width="10.6640625" customWidth="1"/>
+    <col min="152" max="152" width="14.1640625" customWidth="1"/>
+    <col min="153" max="156" width="10.6640625" customWidth="1"/>
+    <col min="157" max="157" width="11.83203125" customWidth="1"/>
+    <col min="158" max="158" width="24.83203125" customWidth="1"/>
+    <col min="159" max="159" width="14.5" customWidth="1"/>
+    <col min="160" max="160" width="12.33203125" customWidth="1"/>
+    <col min="161" max="161" width="10.6640625" customWidth="1"/>
+    <col min="162" max="162" width="11.6640625" customWidth="1"/>
+    <col min="163" max="164" width="10.6640625" customWidth="1"/>
+    <col min="165" max="165" width="11" customWidth="1"/>
+    <col min="166" max="166" width="14.6640625" customWidth="1"/>
+    <col min="167" max="167" width="11.6640625" customWidth="1"/>
+    <col min="168" max="168" width="10.1640625" customWidth="1"/>
+    <col min="169" max="180" width="10.6640625" customWidth="1"/>
+    <col min="181" max="181" width="10.83203125" customWidth="1"/>
+    <col min="182" max="182" width="13.1640625" customWidth="1"/>
+    <col min="183" max="183" width="10.6640625" customWidth="1"/>
+    <col min="184" max="184" width="13.83203125" customWidth="1"/>
+    <col min="185" max="186" width="10.6640625" customWidth="1"/>
+    <col min="187" max="187" width="18.5" customWidth="1"/>
+    <col min="188" max="188" width="22.33203125" customWidth="1"/>
+    <col min="189" max="193" width="10.6640625" customWidth="1"/>
+    <col min="194" max="194" width="11" customWidth="1"/>
+    <col min="195" max="200" width="10.6640625" customWidth="1"/>
+    <col min="201" max="201" width="15.33203125" customWidth="1"/>
+    <col min="202" max="213" width="10.6640625" customWidth="1"/>
+    <col min="214" max="214" width="16.6640625" customWidth="1"/>
+    <col min="215" max="217" width="10.6640625" customWidth="1"/>
+    <col min="218" max="218" width="14.5" customWidth="1"/>
+    <col min="219" max="219" width="10.6640625" customWidth="1"/>
+    <col min="220" max="220" width="15.6640625" customWidth="1"/>
+    <col min="221" max="221" width="12.5" customWidth="1"/>
+    <col min="222" max="222" width="10.6640625" customWidth="1"/>
+    <col min="223" max="224" width="11.5" customWidth="1"/>
+    <col min="225" max="225" width="10.6640625" customWidth="1"/>
+    <col min="226" max="226" width="11.1640625" customWidth="1"/>
+    <col min="227" max="234" width="10.6640625" customWidth="1"/>
+    <col min="235" max="235" width="10.1640625" customWidth="1"/>
+    <col min="236" max="237" width="10.6640625" customWidth="1"/>
     <col min="238" max="238" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="239" max="239" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="240" max="240" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -21175,9 +21175,15 @@
       <c r="IC4" s="8">
         <v>1376</v>
       </c>
-      <c r="ID4" s="8"/>
-      <c r="IE4" s="8"/>
-      <c r="IF4" s="8"/>
+      <c r="ID4" s="8">
+        <v>142</v>
+      </c>
+      <c r="IE4" s="4">
+        <v>375</v>
+      </c>
+      <c r="IF4" s="4">
+        <v>1078</v>
+      </c>
       <c r="IG4" s="8">
         <v>628</v>
       </c>
@@ -25609,13 +25615,13 @@
         <v>1010</v>
       </c>
       <c r="ID5" s="4">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="IE5" s="4">
-        <v>375</v>
+        <v>274</v>
       </c>
       <c r="IF5" s="4">
-        <v>1078</v>
+        <v>829</v>
       </c>
       <c r="IG5" s="4">
         <v>509</v>
@@ -30020,14 +30026,12 @@
         <v>88</v>
       </c>
       <c r="ID6" s="4">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="IE6" s="4">
-        <v>274</v>
-      </c>
-      <c r="IF6" s="4">
-        <v>829</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="IF6" s="4"/>
       <c r="IG6" s="4">
         <v>19</v>
       </c>
@@ -34399,12 +34403,14 @@
         <v>2617</v>
       </c>
       <c r="ID7" s="4">
-        <v>4</v>
+        <v>344</v>
       </c>
       <c r="IE7" s="4">
-        <v>10</v>
-      </c>
-      <c r="IF7" s="4"/>
+        <v>783</v>
+      </c>
+      <c r="IF7" s="4">
+        <v>2387</v>
+      </c>
       <c r="IG7" s="4">
         <v>1451</v>
       </c>
@@ -38828,12 +38834,6 @@
       <c r="ID8" s="4">
         <v>344</v>
       </c>
-      <c r="IE8" s="4">
-        <v>783</v>
-      </c>
-      <c r="IF8" s="4">
-        <v>2387</v>
-      </c>
       <c r="IG8" s="4">
         <v>10</v>
       </c>
@@ -43218,9 +43218,7 @@
       <c r="IC9" s="4">
         <v>4</v>
       </c>
-      <c r="ID9" s="4">
-        <v>5</v>
-      </c>
+      <c r="ID9" s="4"/>
       <c r="IE9" s="4">
         <v>8</v>
       </c>
@@ -47042,12 +47040,8 @@
       <c r="IB10" s="4"/>
       <c r="IC10" s="4"/>
       <c r="ID10" s="4"/>
-      <c r="IE10" s="4">
-        <v>1</v>
-      </c>
-      <c r="IF10" s="4">
-        <v>2</v>
-      </c>
+      <c r="IE10" s="4"/>
+      <c r="IF10" s="4"/>
       <c r="IG10" s="4"/>
       <c r="IH10" s="4"/>
       <c r="II10" s="4">
@@ -49714,8 +49708,12 @@
         <v>1640</v>
       </c>
       <c r="ID11" s="4"/>
-      <c r="IE11" s="4"/>
-      <c r="IF11" s="4"/>
+      <c r="IE11" s="4">
+        <v>511</v>
+      </c>
+      <c r="IF11" s="4">
+        <v>1321</v>
+      </c>
       <c r="IG11" s="4">
         <v>241</v>
       </c>
@@ -53076,11 +53074,9 @@
       </c>
       <c r="ID12" s="4"/>
       <c r="IE12" s="4">
-        <v>5</v>
-      </c>
-      <c r="IF12" s="4">
-        <v>6</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="IF12" s="4"/>
       <c r="IG12" s="4">
         <v>375</v>
       </c>
@@ -55574,9 +55570,7 @@
       <c r="IB13" s="4"/>
       <c r="IC13" s="4"/>
       <c r="ID13" s="4"/>
-      <c r="IE13" s="4">
-        <v>3</v>
-      </c>
+      <c r="IE13" s="4"/>
       <c r="IF13" s="4"/>
       <c r="IG13" s="4"/>
       <c r="IH13" s="4"/>
@@ -57986,9 +57980,13 @@
       <c r="IC14" s="4">
         <v>248</v>
       </c>
-      <c r="ID14" s="4"/>
+      <c r="ID14" s="4">
+        <v>344</v>
+      </c>
       <c r="IE14" s="4"/>
-      <c r="IF14" s="4"/>
+      <c r="IF14" s="4">
+        <v>1066</v>
+      </c>
       <c r="IG14" s="4">
         <v>835</v>
       </c>
@@ -61037,13 +61035,9 @@
       <c r="IA15" s="4"/>
       <c r="IB15" s="4"/>
       <c r="IC15" s="4"/>
-      <c r="ID15" s="4">
-        <v>5</v>
-      </c>
+      <c r="ID15" s="4"/>
       <c r="IE15" s="4"/>
-      <c r="IF15" s="4">
-        <v>3</v>
-      </c>
+      <c r="IF15" s="4"/>
       <c r="IG15" s="4"/>
       <c r="IH15" s="4"/>
       <c r="II15" s="4"/>
